--- a/ribs_checklist.xlsx
+++ b/ribs_checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIPAG_~1\AppData\Local\Temp\Mxt214\RemoteFiles\327702_2_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIPAG_~1\AppData\Local\Temp\Mxt214\RemoteFiles\133316_2_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="124">
   <si>
     <t>Cohort</t>
   </si>
@@ -380,88 +380,37 @@
     <t>Fitted?</t>
   </si>
   <si>
-    <t>failed</t>
-  </si>
-  <si>
     <t>(poor)</t>
   </si>
   <si>
     <t>Check?</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>missing 19,22</t>
-  </si>
-  <si>
-    <t>low quality anterior</t>
-  </si>
-  <si>
-    <t>bad/wrong</t>
-  </si>
-  <si>
     <t>*some gaps</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>*yes but low quality, try coronal</t>
-  </si>
-  <si>
-    <t>*24 poor</t>
-  </si>
-  <si>
-    <t>*15 missing</t>
-  </si>
-  <si>
-    <t>*15 poor, reduce connectivity</t>
-  </si>
-  <si>
-    <t>^review this</t>
-  </si>
-  <si>
-    <t>*4 missing</t>
-  </si>
-  <si>
-    <t>*1 &amp; 14 poor, reduce connectivity</t>
-  </si>
-  <si>
-    <t>*14 poor, croppable, could reduce connectivity</t>
-  </si>
-  <si>
-    <t>*15 poor, croppable, could reduce connectivity</t>
-  </si>
-  <si>
-    <t>*1 &amp; 13 poor</t>
-  </si>
-  <si>
-    <t>*12,24 poor, croppable, could reduce connectivity</t>
-  </si>
-  <si>
-    <t>*23 poor, croppable</t>
-  </si>
-  <si>
-    <t>*3 missing</t>
-  </si>
-  <si>
-    <t>*15 missing, 15 &amp; 17 merged</t>
-  </si>
-  <si>
-    <t>*left upside down, otherwise good…</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>*11 ribs? Unsure…</t>
-  </si>
-  <si>
-    <t>*fine, but 11 ribs</t>
+    <t>Pt Cld?</t>
+  </si>
+  <si>
+    <t>*accept, croppable</t>
+  </si>
+  <si>
+    <t>*try increase proximiy to lung? Threshold?</t>
+  </si>
+  <si>
+    <t>*still very poor, alt directions, lung proximity, threshold?</t>
+  </si>
+  <si>
+    <t>*very crap</t>
+  </si>
+  <si>
+    <t>*11 ribs</t>
+  </si>
+  <si>
+    <t>EEsupine</t>
   </si>
 </sst>
 </file>
@@ -472,7 +421,7 @@
     <numFmt numFmtId="164" formatCode="000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +468,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -572,7 +529,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -628,12 +585,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -696,12 +647,200 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="58">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -754,16 +893,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -779,16 +908,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -899,6 +1018,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1442,13 +1571,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R167"/>
+  <dimension ref="A1:S167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="N64" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R85" sqref="R85"/>
+      <selection pane="bottomRight" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,19 +1587,20 @@
     <col min="3" max="3" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="4.42578125" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5" style="36" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="40"/>
+    <col min="17" max="17" width="7.42578125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>83</v>
       </c>
@@ -1486,50 +1616,50 @@
       <c r="E1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="31" t="s">
         <v>105</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q1" s="11" t="s">
+      <c r="P1" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="R1" s="39" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
+      <c r="S1" s="37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -1542,22 +1672,22 @@
       <c r="E2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="34">
-        <v>768</v>
-      </c>
-      <c r="G2" s="34">
-        <v>768</v>
-      </c>
-      <c r="H2" s="34">
+      <c r="F2" s="32">
+        <v>768</v>
+      </c>
+      <c r="G2" s="32">
+        <v>768</v>
+      </c>
+      <c r="H2" s="32">
         <v>611</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="33">
         <v>0.44010416000000002</v>
       </c>
-      <c r="J2" s="35">
+      <c r="J2" s="33">
         <v>0.44010416000000002</v>
       </c>
-      <c r="K2" s="35">
+      <c r="K2" s="33">
         <v>0.5</v>
       </c>
       <c r="M2" s="6" t="s">
@@ -1572,12 +1702,12 @@
       <c r="P2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1590,22 +1720,22 @@
       <c r="E3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="34">
-        <v>768</v>
-      </c>
-      <c r="G3" s="34">
-        <v>768</v>
-      </c>
-      <c r="H3" s="34">
+      <c r="F3" s="32">
+        <v>768</v>
+      </c>
+      <c r="G3" s="32">
+        <v>768</v>
+      </c>
+      <c r="H3" s="32">
         <v>492</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="33">
         <v>0.421875</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="33">
         <v>0.421875</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3" s="33">
         <v>0.5</v>
       </c>
       <c r="M3" s="6" t="s">
@@ -1614,18 +1744,18 @@
       <c r="N3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="O3" s="24" t="s">
         <v>2</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1638,22 +1768,22 @@
       <c r="E4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="34">
-        <v>768</v>
-      </c>
-      <c r="G4" s="34">
-        <v>768</v>
-      </c>
-      <c r="H4" s="34">
+      <c r="F4" s="32">
+        <v>768</v>
+      </c>
+      <c r="G4" s="32">
+        <v>768</v>
+      </c>
+      <c r="H4" s="32">
         <v>652</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="33">
         <v>0.43489583999999998</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="33">
         <v>0.43489583999999998</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="33">
         <v>0.5</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -1668,12 +1798,12 @@
       <c r="P4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -1686,22 +1816,22 @@
       <c r="E5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="34">
-        <v>768</v>
-      </c>
-      <c r="G5" s="34">
-        <v>768</v>
-      </c>
-      <c r="H5" s="34">
+      <c r="F5" s="32">
+        <v>768</v>
+      </c>
+      <c r="G5" s="32">
+        <v>768</v>
+      </c>
+      <c r="H5" s="32">
         <v>551</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="33">
         <v>0.41276041000000002</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="33">
         <v>0.41276041000000002</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="33">
         <v>0.5</v>
       </c>
       <c r="M5" s="6" t="s">
@@ -1716,12 +1846,12 @@
       <c r="P5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -1734,22 +1864,22 @@
       <c r="E6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="34">
-        <v>768</v>
-      </c>
-      <c r="G6" s="34">
-        <v>768</v>
-      </c>
-      <c r="H6" s="34">
+      <c r="F6" s="32">
+        <v>768</v>
+      </c>
+      <c r="G6" s="32">
+        <v>768</v>
+      </c>
+      <c r="H6" s="32">
         <v>690</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="33">
         <v>0.48046875</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="33">
         <v>0.48046875</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="33">
         <v>0.5</v>
       </c>
       <c r="M6" s="6" t="s">
@@ -1764,12 +1894,12 @@
       <c r="P6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -1782,22 +1912,22 @@
       <c r="E7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="34">
-        <v>768</v>
-      </c>
-      <c r="G7" s="34">
-        <v>768</v>
-      </c>
-      <c r="H7" s="34">
+      <c r="F7" s="32">
+        <v>768</v>
+      </c>
+      <c r="G7" s="32">
+        <v>768</v>
+      </c>
+      <c r="H7" s="32">
         <v>611</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="33">
         <v>0.39322916000000002</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="33">
         <v>0.39322916000000002</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="33">
         <v>0.5</v>
       </c>
       <c r="M7" s="6" t="s">
@@ -1812,9 +1942,12 @@
       <c r="P7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -1827,22 +1960,22 @@
       <c r="E8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="34">
-        <v>768</v>
-      </c>
-      <c r="G8" s="34">
-        <v>768</v>
-      </c>
-      <c r="H8" s="34">
+      <c r="F8" s="32">
+        <v>768</v>
+      </c>
+      <c r="G8" s="32">
+        <v>768</v>
+      </c>
+      <c r="H8" s="32">
         <v>602</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="33">
         <v>0.43880208999999998</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="33">
         <v>0.43880208999999998</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="33">
         <v>0.5</v>
       </c>
       <c r="M8" s="6" t="s">
@@ -1855,17 +1988,15 @@
         <v>2</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="6"/>
+      <c r="S8" s="39"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -1878,22 +2009,22 @@
       <c r="E9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="34">
-        <v>768</v>
-      </c>
-      <c r="G9" s="34">
-        <v>768</v>
-      </c>
-      <c r="H9" s="34">
+      <c r="F9" s="32">
+        <v>768</v>
+      </c>
+      <c r="G9" s="32">
+        <v>768</v>
+      </c>
+      <c r="H9" s="32">
         <v>611</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="33">
         <v>0.41015625</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="33">
         <v>0.41015625</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="33">
         <v>0.5</v>
       </c>
       <c r="M9" s="6" t="s">
@@ -1908,12 +2039,12 @@
       <c r="P9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>4</v>
       </c>
@@ -1926,22 +2057,22 @@
       <c r="E10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="34">
-        <v>768</v>
-      </c>
-      <c r="G10" s="34">
-        <v>768</v>
-      </c>
-      <c r="H10" s="34">
+      <c r="F10" s="32">
+        <v>768</v>
+      </c>
+      <c r="G10" s="32">
+        <v>768</v>
+      </c>
+      <c r="H10" s="32">
         <v>626</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="33">
         <v>0.44010416000000002</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="33">
         <v>0.44010416000000002</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="33">
         <v>0.5</v>
       </c>
       <c r="M10" s="6" t="s">
@@ -1956,12 +2087,12 @@
       <c r="P10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1974,22 +2105,22 @@
       <c r="E11" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="34">
-        <v>768</v>
-      </c>
-      <c r="G11" s="34">
-        <v>768</v>
-      </c>
-      <c r="H11" s="34">
+      <c r="F11" s="32">
+        <v>768</v>
+      </c>
+      <c r="G11" s="32">
+        <v>768</v>
+      </c>
+      <c r="H11" s="32">
         <v>616</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="33">
         <v>0.5</v>
       </c>
       <c r="M11" s="6" t="s">
@@ -2004,9 +2135,12 @@
       <c r="P11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -2019,22 +2153,22 @@
       <c r="E12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="34">
-        <v>768</v>
-      </c>
-      <c r="G12" s="34">
-        <v>768</v>
-      </c>
-      <c r="H12" s="34">
+      <c r="F12" s="32">
+        <v>768</v>
+      </c>
+      <c r="G12" s="32">
+        <v>768</v>
+      </c>
+      <c r="H12" s="32">
         <v>611</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="33">
         <v>0.5</v>
       </c>
       <c r="M12" s="6" t="s">
@@ -2043,15 +2177,15 @@
       <c r="N12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O12" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
+      <c r="O12" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="R12" s="6"/>
+      <c r="S12" s="46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -2064,22 +2198,22 @@
       <c r="E13" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="34">
-        <v>768</v>
-      </c>
-      <c r="G13" s="34">
-        <v>768</v>
-      </c>
-      <c r="H13" s="34">
+      <c r="F13" s="32">
+        <v>768</v>
+      </c>
+      <c r="G13" s="32">
+        <v>768</v>
+      </c>
+      <c r="H13" s="32">
         <v>571</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="33">
         <v>0.5</v>
       </c>
       <c r="M13" s="6" t="s">
@@ -2094,9 +2228,12 @@
       <c r="P13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -2109,22 +2246,22 @@
       <c r="E14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="34">
-        <v>768</v>
-      </c>
-      <c r="G14" s="34">
-        <v>768</v>
-      </c>
-      <c r="H14" s="34">
+      <c r="F14" s="32">
+        <v>768</v>
+      </c>
+      <c r="G14" s="32">
+        <v>768</v>
+      </c>
+      <c r="H14" s="32">
         <v>597</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="33">
         <v>0.49869791000000002</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="33">
         <v>0.49869791000000002</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="33">
         <v>0.5</v>
       </c>
       <c r="M14" s="6" t="s">
@@ -2137,14 +2274,15 @@
         <v>2</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="6"/>
+      <c r="S14" s="42"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -2157,22 +2295,22 @@
       <c r="E15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="34">
-        <v>768</v>
-      </c>
-      <c r="G15" s="34">
-        <v>768</v>
-      </c>
-      <c r="H15" s="34">
+      <c r="F15" s="32">
+        <v>768</v>
+      </c>
+      <c r="G15" s="32">
+        <v>768</v>
+      </c>
+      <c r="H15" s="32">
         <v>533</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="33">
         <v>0.51302080999999999</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="33">
         <v>0.51302080999999999</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="33">
         <v>0.5</v>
       </c>
       <c r="M15" s="6" t="s">
@@ -2185,14 +2323,15 @@
         <v>2</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="44" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="6"/>
+      <c r="S15" s="47"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -2205,22 +2344,22 @@
       <c r="E16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="34">
-        <v>768</v>
-      </c>
-      <c r="G16" s="34">
-        <v>768</v>
-      </c>
-      <c r="H16" s="34">
+      <c r="F16" s="32">
+        <v>768</v>
+      </c>
+      <c r="G16" s="32">
+        <v>768</v>
+      </c>
+      <c r="H16" s="32">
         <v>626</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="33">
         <v>0.5</v>
       </c>
       <c r="M16" s="6" t="s">
@@ -2233,17 +2372,15 @@
         <v>2</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="44" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="6"/>
+      <c r="S16" s="39"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>4</v>
       </c>
@@ -2256,22 +2393,22 @@
       <c r="E17" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="34">
-        <v>768</v>
-      </c>
-      <c r="G17" s="34">
-        <v>768</v>
-      </c>
-      <c r="H17" s="34">
+      <c r="F17" s="32">
+        <v>768</v>
+      </c>
+      <c r="G17" s="32">
+        <v>768</v>
+      </c>
+      <c r="H17" s="32">
         <v>542</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="33">
         <v>0.39322916000000002</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="33">
         <v>0.39322916000000002</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="33">
         <v>0.5</v>
       </c>
       <c r="M17" s="6" t="s">
@@ -2286,12 +2423,12 @@
       <c r="P17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q17" s="6"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -2304,22 +2441,22 @@
       <c r="E18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="34">
-        <v>768</v>
-      </c>
-      <c r="G18" s="34">
-        <v>768</v>
-      </c>
-      <c r="H18" s="34">
+      <c r="F18" s="32">
+        <v>768</v>
+      </c>
+      <c r="G18" s="32">
+        <v>768</v>
+      </c>
+      <c r="H18" s="32">
         <v>619</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="33">
         <v>0.5</v>
       </c>
       <c r="M18" s="6" t="s">
@@ -2334,12 +2471,12 @@
       <c r="P18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q18" s="6"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -2352,22 +2489,22 @@
       <c r="E19" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="34">
-        <v>768</v>
-      </c>
-      <c r="G19" s="34">
-        <v>768</v>
-      </c>
-      <c r="H19" s="34">
+      <c r="F19" s="32">
+        <v>768</v>
+      </c>
+      <c r="G19" s="32">
+        <v>768</v>
+      </c>
+      <c r="H19" s="32">
         <v>580</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="33">
         <v>0.5</v>
       </c>
       <c r="M19" s="6" t="s">
@@ -2382,12 +2519,12 @@
       <c r="P19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q19" s="6"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="6"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -2400,22 +2537,22 @@
       <c r="E20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="34">
-        <v>768</v>
-      </c>
-      <c r="G20" s="34">
-        <v>768</v>
-      </c>
-      <c r="H20" s="34">
+      <c r="F20" s="32">
+        <v>768</v>
+      </c>
+      <c r="G20" s="32">
+        <v>768</v>
+      </c>
+      <c r="H20" s="32">
         <v>630</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="33">
         <v>0.52994794000000001</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="33">
         <v>0.52994794000000001</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="33">
         <v>0.5</v>
       </c>
       <c r="M20" s="6" t="s">
@@ -2430,12 +2567,12 @@
       <c r="P20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q20" s="6"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="6"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>4</v>
       </c>
@@ -2448,22 +2585,22 @@
       <c r="E21" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="34">
-        <v>768</v>
-      </c>
-      <c r="G21" s="34">
-        <v>768</v>
-      </c>
-      <c r="H21" s="34">
+      <c r="F21" s="32">
+        <v>768</v>
+      </c>
+      <c r="G21" s="32">
+        <v>768</v>
+      </c>
+      <c r="H21" s="32">
         <v>550</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="33">
         <v>0.42838541000000002</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="33">
         <v>0.42838541000000002</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="33">
         <v>0.5</v>
       </c>
       <c r="M21" s="6" t="s">
@@ -2478,15 +2615,15 @@
       <c r="P21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="41" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="6"/>
+      <c r="S21" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>4</v>
       </c>
@@ -2499,22 +2636,22 @@
       <c r="E22" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="34">
-        <v>768</v>
-      </c>
-      <c r="G22" s="34">
-        <v>768</v>
-      </c>
-      <c r="H22" s="34">
+      <c r="F22" s="32">
+        <v>768</v>
+      </c>
+      <c r="G22" s="32">
+        <v>768</v>
+      </c>
+      <c r="H22" s="32">
         <v>535</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I22" s="33">
         <v>0.421875</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="33">
         <v>0.421875</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22" s="33">
         <v>0.5</v>
       </c>
       <c r="M22" s="6" t="s">
@@ -2529,12 +2666,12 @@
       <c r="P22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q22" s="6"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22" s="6"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -2547,22 +2684,22 @@
       <c r="E23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="34">
-        <v>768</v>
-      </c>
-      <c r="G23" s="34">
-        <v>768</v>
-      </c>
-      <c r="H23" s="34">
+      <c r="F23" s="32">
+        <v>768</v>
+      </c>
+      <c r="G23" s="32">
+        <v>768</v>
+      </c>
+      <c r="H23" s="32">
         <v>534</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="33">
         <v>0.41666666000000002</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="33">
         <v>0.41666666000000002</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23" s="33">
         <v>0.5</v>
       </c>
       <c r="M23" s="6" t="s">
@@ -2577,12 +2714,12 @@
       <c r="P23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q23" s="6"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -2595,22 +2732,22 @@
       <c r="E24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F24" s="34">
-        <v>768</v>
-      </c>
-      <c r="G24" s="34">
-        <v>768</v>
-      </c>
-      <c r="H24" s="34">
+      <c r="F24" s="32">
+        <v>768</v>
+      </c>
+      <c r="G24" s="32">
+        <v>768</v>
+      </c>
+      <c r="H24" s="32">
         <v>557</v>
       </c>
-      <c r="I24" s="35">
+      <c r="I24" s="33">
         <v>0.37890625</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24" s="33">
         <v>0.37890625</v>
       </c>
-      <c r="K24" s="35">
+      <c r="K24" s="33">
         <v>0.5</v>
       </c>
       <c r="M24" s="6" t="s">
@@ -2625,12 +2762,12 @@
       <c r="P24" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q24" s="6"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24" s="6"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -2643,22 +2780,22 @@
       <c r="E25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="34">
-        <v>768</v>
-      </c>
-      <c r="G25" s="34">
-        <v>768</v>
-      </c>
-      <c r="H25" s="34">
+      <c r="F25" s="32">
+        <v>768</v>
+      </c>
+      <c r="G25" s="32">
+        <v>768</v>
+      </c>
+      <c r="H25" s="32">
         <v>673</v>
       </c>
-      <c r="I25" s="35">
+      <c r="I25" s="33">
         <v>0.48046875</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="33">
         <v>0.48046875</v>
       </c>
-      <c r="K25" s="35">
+      <c r="K25" s="33">
         <v>0.5</v>
       </c>
       <c r="M25" s="6" t="s">
@@ -2673,9 +2810,12 @@
       <c r="P25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q25" s="6"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" s="6"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -2688,22 +2828,22 @@
       <c r="E26" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F26" s="34">
-        <v>768</v>
-      </c>
-      <c r="G26" s="34">
-        <v>768</v>
-      </c>
-      <c r="H26" s="34">
+      <c r="F26" s="32">
+        <v>768</v>
+      </c>
+      <c r="G26" s="32">
+        <v>768</v>
+      </c>
+      <c r="H26" s="32">
         <v>611</v>
       </c>
-      <c r="I26" s="35">
+      <c r="I26" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="K26" s="35">
+      <c r="K26" s="33">
         <v>0.5</v>
       </c>
       <c r="M26" s="6" t="s">
@@ -2716,17 +2856,15 @@
         <v>2</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" s="6"/>
+      <c r="S26" s="39"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>4</v>
       </c>
@@ -2739,22 +2877,22 @@
       <c r="E27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F27" s="34">
-        <v>768</v>
-      </c>
-      <c r="G27" s="34">
-        <v>768</v>
-      </c>
-      <c r="H27" s="34">
+      <c r="F27" s="32">
+        <v>768</v>
+      </c>
+      <c r="G27" s="32">
+        <v>768</v>
+      </c>
+      <c r="H27" s="32">
         <v>611</v>
       </c>
-      <c r="I27" s="35">
+      <c r="I27" s="33">
         <v>0.48046875</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="33">
         <v>0.48046875</v>
       </c>
-      <c r="K27" s="35">
+      <c r="K27" s="33">
         <v>0.5</v>
       </c>
       <c r="M27" s="6" t="s">
@@ -2769,12 +2907,12 @@
       <c r="P27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q27" s="6"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" s="6"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>4</v>
       </c>
@@ -2787,22 +2925,22 @@
       <c r="E28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="34">
-        <v>768</v>
-      </c>
-      <c r="G28" s="34">
-        <v>768</v>
-      </c>
-      <c r="H28" s="34">
+      <c r="F28" s="32">
+        <v>768</v>
+      </c>
+      <c r="G28" s="32">
+        <v>768</v>
+      </c>
+      <c r="H28" s="32">
         <v>711</v>
       </c>
-      <c r="I28" s="35">
+      <c r="I28" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="J28" s="35">
+      <c r="J28" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="K28" s="35">
+      <c r="K28" s="33">
         <v>0.5</v>
       </c>
       <c r="M28" s="6" t="s">
@@ -2817,9 +2955,12 @@
       <c r="P28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q28" s="6"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="6"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>4</v>
       </c>
@@ -2832,22 +2973,22 @@
       <c r="E29" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="34">
-        <v>768</v>
-      </c>
-      <c r="G29" s="34">
-        <v>768</v>
-      </c>
-      <c r="H29" s="34">
+      <c r="F29" s="32">
+        <v>768</v>
+      </c>
+      <c r="G29" s="32">
+        <v>768</v>
+      </c>
+      <c r="H29" s="32">
         <v>562</v>
       </c>
-      <c r="I29" s="35">
+      <c r="I29" s="33">
         <v>0.42317708999999998</v>
       </c>
-      <c r="J29" s="35">
+      <c r="J29" s="33">
         <v>0.42317708999999998</v>
       </c>
-      <c r="K29" s="35">
+      <c r="K29" s="33">
         <v>0.5</v>
       </c>
       <c r="M29" s="6" t="s">
@@ -2860,17 +3001,15 @@
         <v>2</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="6"/>
+      <c r="S29" s="43"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>4</v>
       </c>
@@ -2883,22 +3022,22 @@
       <c r="E30" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="34">
-        <v>768</v>
-      </c>
-      <c r="G30" s="34">
-        <v>768</v>
-      </c>
-      <c r="H30" s="34">
+      <c r="F30" s="32">
+        <v>768</v>
+      </c>
+      <c r="G30" s="32">
+        <v>768</v>
+      </c>
+      <c r="H30" s="32">
         <v>601</v>
       </c>
-      <c r="I30" s="35">
+      <c r="I30" s="33">
         <v>0.38671875</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30" s="33">
         <v>0.38671875</v>
       </c>
-      <c r="K30" s="35">
+      <c r="K30" s="33">
         <v>0.5</v>
       </c>
       <c r="M30" s="6" t="s">
@@ -2913,12 +3052,12 @@
       <c r="P30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q30" s="6"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="6"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>4</v>
       </c>
@@ -2931,22 +3070,22 @@
       <c r="E31" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="34">
-        <v>768</v>
-      </c>
-      <c r="G31" s="34">
-        <v>768</v>
-      </c>
-      <c r="H31" s="34">
+      <c r="F31" s="32">
+        <v>768</v>
+      </c>
+      <c r="G31" s="32">
+        <v>768</v>
+      </c>
+      <c r="H31" s="32">
         <v>592</v>
       </c>
-      <c r="I31" s="35">
+      <c r="I31" s="33">
         <v>0.3984375</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="33">
         <v>0.3984375</v>
       </c>
-      <c r="K31" s="35">
+      <c r="K31" s="33">
         <v>0.5</v>
       </c>
       <c r="M31" s="6" t="s">
@@ -2961,12 +3100,12 @@
       <c r="P31" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q31" s="6"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="6"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>4</v>
       </c>
@@ -2979,22 +3118,22 @@
       <c r="E32" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F32" s="34">
-        <v>768</v>
-      </c>
-      <c r="G32" s="34">
-        <v>768</v>
-      </c>
-      <c r="H32" s="34">
+      <c r="F32" s="32">
+        <v>768</v>
+      </c>
+      <c r="G32" s="32">
+        <v>768</v>
+      </c>
+      <c r="H32" s="32">
         <v>577</v>
       </c>
-      <c r="I32" s="35">
+      <c r="I32" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="K32" s="35">
+      <c r="K32" s="33">
         <v>0.5</v>
       </c>
       <c r="M32" s="6" t="s">
@@ -3009,9 +3148,12 @@
       <c r="P32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q32" s="6"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R32" s="6"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>4</v>
       </c>
@@ -3024,22 +3166,22 @@
       <c r="E33" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="34">
-        <v>768</v>
-      </c>
-      <c r="G33" s="34">
-        <v>768</v>
-      </c>
-      <c r="H33" s="34">
+      <c r="F33" s="32">
+        <v>768</v>
+      </c>
+      <c r="G33" s="32">
+        <v>768</v>
+      </c>
+      <c r="H33" s="32">
         <v>691</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="33">
         <v>0.5</v>
       </c>
       <c r="M33" s="6" t="s">
@@ -3052,17 +3194,14 @@
         <v>2</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="40" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R33" s="6"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>4</v>
       </c>
@@ -3075,22 +3214,22 @@
       <c r="E34" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="34">
-        <v>768</v>
-      </c>
-      <c r="G34" s="34">
-        <v>768</v>
-      </c>
-      <c r="H34" s="34">
+      <c r="F34" s="32">
+        <v>768</v>
+      </c>
+      <c r="G34" s="32">
+        <v>768</v>
+      </c>
+      <c r="H34" s="32">
         <v>590</v>
       </c>
-      <c r="I34" s="35">
+      <c r="I34" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="J34" s="35">
+      <c r="J34" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="K34" s="35">
+      <c r="K34" s="33">
         <v>0.5</v>
       </c>
       <c r="M34" s="6" t="s">
@@ -3105,12 +3244,12 @@
       <c r="P34" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q34" s="6"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R34" s="6"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -3123,22 +3262,22 @@
       <c r="E35" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F35" s="34">
-        <v>768</v>
-      </c>
-      <c r="G35" s="34">
-        <v>768</v>
-      </c>
-      <c r="H35" s="34">
+      <c r="F35" s="32">
+        <v>768</v>
+      </c>
+      <c r="G35" s="32">
+        <v>768</v>
+      </c>
+      <c r="H35" s="32">
         <v>614</v>
       </c>
-      <c r="I35" s="35">
+      <c r="I35" s="33">
         <v>0.47526041000000002</v>
       </c>
-      <c r="J35" s="35">
+      <c r="J35" s="33">
         <v>0.47526041000000002</v>
       </c>
-      <c r="K35" s="35">
+      <c r="K35" s="33">
         <v>0.5</v>
       </c>
       <c r="M35" s="6" t="s">
@@ -3153,12 +3292,12 @@
       <c r="P35" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q35" s="6"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R35" s="6"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -3171,22 +3310,22 @@
       <c r="E36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="34">
-        <v>768</v>
-      </c>
-      <c r="G36" s="34">
-        <v>768</v>
-      </c>
-      <c r="H36" s="34">
+      <c r="F36" s="32">
+        <v>768</v>
+      </c>
+      <c r="G36" s="32">
+        <v>768</v>
+      </c>
+      <c r="H36" s="32">
         <v>666</v>
       </c>
-      <c r="I36" s="35">
+      <c r="I36" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="J36" s="35">
+      <c r="J36" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="K36" s="35">
+      <c r="K36" s="33">
         <v>0.5</v>
       </c>
       <c r="M36" s="6" t="s">
@@ -3201,12 +3340,12 @@
       <c r="P36" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q36" s="6"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R36" s="6"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -3219,22 +3358,22 @@
       <c r="E37" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F37" s="34">
-        <v>768</v>
-      </c>
-      <c r="G37" s="34">
-        <v>768</v>
-      </c>
-      <c r="H37" s="34">
+      <c r="F37" s="32">
+        <v>768</v>
+      </c>
+      <c r="G37" s="32">
+        <v>768</v>
+      </c>
+      <c r="H37" s="32">
         <v>598</v>
       </c>
-      <c r="I37" s="35">
+      <c r="I37" s="33">
         <v>0.484375</v>
       </c>
-      <c r="J37" s="35">
+      <c r="J37" s="33">
         <v>0.484375</v>
       </c>
-      <c r="K37" s="35">
+      <c r="K37" s="33">
         <v>0.5</v>
       </c>
       <c r="M37" s="6" t="s">
@@ -3249,12 +3388,12 @@
       <c r="P37" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q37" s="6"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q37" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R37" s="6"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -3267,22 +3406,22 @@
       <c r="E38" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="34">
-        <v>768</v>
-      </c>
-      <c r="G38" s="34">
-        <v>768</v>
-      </c>
-      <c r="H38" s="34">
+      <c r="F38" s="32">
+        <v>768</v>
+      </c>
+      <c r="G38" s="32">
+        <v>768</v>
+      </c>
+      <c r="H38" s="32">
         <v>659</v>
       </c>
-      <c r="I38" s="35">
+      <c r="I38" s="33">
         <v>0.48177083999999998</v>
       </c>
-      <c r="J38" s="35">
+      <c r="J38" s="33">
         <v>0.48177083999999998</v>
       </c>
-      <c r="K38" s="35">
+      <c r="K38" s="33">
         <v>0.5</v>
       </c>
       <c r="M38" s="6" t="s">
@@ -3297,12 +3436,12 @@
       <c r="P38" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q38" s="6"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R38" s="6"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>4</v>
       </c>
@@ -3315,22 +3454,22 @@
       <c r="E39" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="34">
-        <v>768</v>
-      </c>
-      <c r="G39" s="34">
-        <v>768</v>
-      </c>
-      <c r="H39" s="34">
+      <c r="F39" s="32">
+        <v>768</v>
+      </c>
+      <c r="G39" s="32">
+        <v>768</v>
+      </c>
+      <c r="H39" s="32">
         <v>640</v>
       </c>
-      <c r="I39" s="35">
+      <c r="I39" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="J39" s="35">
+      <c r="J39" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="K39" s="35">
+      <c r="K39" s="33">
         <v>0.5</v>
       </c>
       <c r="M39" s="6" t="s">
@@ -3345,12 +3484,12 @@
       <c r="P39" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q39" s="6"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R39" s="6"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>4</v>
       </c>
@@ -3363,22 +3502,22 @@
       <c r="E40" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F40" s="34">
-        <v>768</v>
-      </c>
-      <c r="G40" s="34">
-        <v>768</v>
-      </c>
-      <c r="H40" s="34">
+      <c r="F40" s="32">
+        <v>768</v>
+      </c>
+      <c r="G40" s="32">
+        <v>768</v>
+      </c>
+      <c r="H40" s="32">
         <v>581</v>
       </c>
-      <c r="I40" s="35">
+      <c r="I40" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="J40" s="35">
+      <c r="J40" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="K40" s="35">
+      <c r="K40" s="33">
         <v>0.5</v>
       </c>
       <c r="M40" s="6" t="s">
@@ -3393,37 +3532,40 @@
       <c r="P40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q40" s="6"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R40" s="6"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="17" t="s">
         <v>85</v>
       </c>
       <c r="E41" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="34">
-        <v>512</v>
-      </c>
-      <c r="G41" s="34">
-        <v>512</v>
-      </c>
-      <c r="H41" s="34">
+      <c r="F41" s="32">
+        <v>512</v>
+      </c>
+      <c r="G41" s="32">
+        <v>512</v>
+      </c>
+      <c r="H41" s="32">
         <v>568</v>
       </c>
-      <c r="I41" s="35">
+      <c r="I41" s="33">
         <v>0.58984375</v>
       </c>
-      <c r="J41" s="35">
+      <c r="J41" s="33">
         <v>0.58984375</v>
       </c>
-      <c r="K41" s="35">
+      <c r="K41" s="33">
         <v>0.5</v>
       </c>
       <c r="M41" s="6" t="s">
@@ -3432,43 +3574,43 @@
       <c r="N41" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O41" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q41" s="6"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>1</v>
-      </c>
+      <c r="O41" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="R41" s="6"/>
+      <c r="S41" s="46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="17" t="s">
         <v>85</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F42" s="34">
-        <v>768</v>
-      </c>
-      <c r="G42" s="34">
-        <v>768</v>
-      </c>
-      <c r="H42" s="34">
+      <c r="F42" s="32">
+        <v>768</v>
+      </c>
+      <c r="G42" s="32">
+        <v>768</v>
+      </c>
+      <c r="H42" s="32">
         <v>582</v>
       </c>
-      <c r="I42" s="35">
+      <c r="I42" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="J42" s="35">
+      <c r="J42" s="33">
         <v>0.45572916000000002</v>
       </c>
-      <c r="K42" s="35">
+      <c r="K42" s="33">
         <v>0.5</v>
       </c>
       <c r="M42" s="6" t="s">
@@ -3483,40 +3625,40 @@
       <c r="P42" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q42" s="6"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R42" s="6"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="17" t="s">
         <v>85</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F43" s="34">
-        <v>768</v>
-      </c>
-      <c r="G43" s="34">
-        <v>768</v>
-      </c>
-      <c r="H43" s="34">
+      <c r="F43" s="32">
+        <v>768</v>
+      </c>
+      <c r="G43" s="32">
+        <v>768</v>
+      </c>
+      <c r="H43" s="32">
         <v>583</v>
       </c>
-      <c r="I43" s="35">
+      <c r="I43" s="33">
         <v>0.40364583999999998</v>
       </c>
-      <c r="J43" s="35">
+      <c r="J43" s="33">
         <v>0.40364583999999998</v>
       </c>
-      <c r="K43" s="35">
+      <c r="K43" s="33">
         <v>0.5</v>
       </c>
       <c r="M43" s="6" t="s">
@@ -3531,40 +3673,40 @@
       <c r="P43" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q43" s="6"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q43" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R43" s="6"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="17" t="s">
         <v>85</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="34">
-        <v>512</v>
-      </c>
-      <c r="G44" s="34">
-        <v>512</v>
-      </c>
-      <c r="H44" s="34">
+      <c r="F44" s="32">
+        <v>512</v>
+      </c>
+      <c r="G44" s="32">
+        <v>512</v>
+      </c>
+      <c r="H44" s="32">
         <v>642</v>
       </c>
-      <c r="I44" s="35">
+      <c r="I44" s="33">
         <v>0.73828101000000002</v>
       </c>
-      <c r="J44" s="35">
+      <c r="J44" s="33">
         <v>0.73828101000000002</v>
       </c>
-      <c r="K44" s="35">
+      <c r="K44" s="33">
         <v>0.5</v>
       </c>
       <c r="M44" s="6" t="s">
@@ -3579,40 +3721,40 @@
       <c r="P44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q44" s="6"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R44" s="6"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="17" t="s">
         <v>85</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="34">
-        <v>512</v>
-      </c>
-      <c r="G45" s="34">
-        <v>512</v>
-      </c>
-      <c r="H45" s="34">
+      <c r="F45" s="32">
+        <v>512</v>
+      </c>
+      <c r="G45" s="32">
+        <v>512</v>
+      </c>
+      <c r="H45" s="32">
         <v>547</v>
       </c>
-      <c r="I45" s="35">
+      <c r="I45" s="33">
         <v>0.66406202000000003</v>
       </c>
-      <c r="J45" s="35">
+      <c r="J45" s="33">
         <v>0.66406202000000003</v>
       </c>
-      <c r="K45" s="35">
+      <c r="K45" s="33">
         <v>0.5</v>
       </c>
       <c r="M45" s="6" t="s">
@@ -3627,40 +3769,40 @@
       <c r="P45" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q45" s="6"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R45" s="6"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="17" t="s">
         <v>85</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F46" s="34">
-        <v>512</v>
-      </c>
-      <c r="G46" s="34">
-        <v>512</v>
-      </c>
-      <c r="H46" s="34">
+      <c r="F46" s="32">
+        <v>512</v>
+      </c>
+      <c r="G46" s="32">
+        <v>512</v>
+      </c>
+      <c r="H46" s="32">
         <v>601</v>
       </c>
-      <c r="I46" s="35">
+      <c r="I46" s="33">
         <v>0.68359398999999998</v>
       </c>
-      <c r="J46" s="35">
+      <c r="J46" s="33">
         <v>0.68359398999999998</v>
       </c>
-      <c r="K46" s="35">
+      <c r="K46" s="33">
         <v>0.5</v>
       </c>
       <c r="M46" s="6" t="s">
@@ -3675,40 +3817,40 @@
       <c r="P46" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q46" s="6"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q46" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R46" s="6"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="17" t="s">
         <v>85</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F47" s="34">
-        <v>512</v>
-      </c>
-      <c r="G47" s="34">
-        <v>512</v>
-      </c>
-      <c r="H47" s="34">
+      <c r="F47" s="32">
+        <v>512</v>
+      </c>
+      <c r="G47" s="32">
+        <v>512</v>
+      </c>
+      <c r="H47" s="32">
         <v>683</v>
       </c>
-      <c r="I47" s="35">
+      <c r="I47" s="33">
         <v>0.68359398999999998</v>
       </c>
-      <c r="J47" s="35">
+      <c r="J47" s="33">
         <v>0.68359398999999998</v>
       </c>
-      <c r="K47" s="35">
+      <c r="K47" s="33">
         <v>0.5</v>
       </c>
       <c r="M47" s="6" t="s">
@@ -3723,40 +3865,41 @@
       <c r="P47" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q47" s="6"/>
-    </row>
-    <row r="48" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R47" s="6"/>
+    </row>
+    <row r="48" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
       <c r="B48" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="48" t="s">
         <v>85</v>
       </c>
       <c r="E48" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F48" s="34">
-        <v>512</v>
-      </c>
-      <c r="G48" s="34">
-        <v>512</v>
-      </c>
-      <c r="H48" s="34">
+      <c r="F48" s="32">
+        <v>512</v>
+      </c>
+      <c r="G48" s="32">
+        <v>512</v>
+      </c>
+      <c r="H48" s="32">
         <v>578</v>
       </c>
-      <c r="I48" s="35">
+      <c r="I48" s="33">
         <v>0.74218797999999997</v>
       </c>
-      <c r="J48" s="35">
+      <c r="J48" s="33">
         <v>0.74218797999999997</v>
       </c>
-      <c r="K48" s="35">
+      <c r="K48" s="33">
         <v>0.5</v>
       </c>
       <c r="L48" s="3"/>
@@ -3772,11 +3915,14 @@
       <c r="P48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="42"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B49" s="31" t="s">
+      <c r="Q48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R48" s="6"/>
+      <c r="S48" s="40"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B49" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -3788,22 +3934,22 @@
       <c r="E49" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="34">
-        <v>512</v>
-      </c>
-      <c r="G49" s="34">
-        <v>512</v>
-      </c>
-      <c r="H49" s="34">
+      <c r="F49" s="32">
+        <v>512</v>
+      </c>
+      <c r="G49" s="32">
+        <v>512</v>
+      </c>
+      <c r="H49" s="32">
         <v>1105</v>
       </c>
-      <c r="I49" s="35">
+      <c r="I49" s="33">
         <v>0.68359375</v>
       </c>
-      <c r="J49" s="35">
+      <c r="J49" s="33">
         <v>0.68359375</v>
       </c>
-      <c r="K49" s="35">
+      <c r="K49" s="33">
         <v>0.29999995000000002</v>
       </c>
       <c r="M49" s="6" t="s">
@@ -3812,15 +3958,15 @@
       <c r="N49" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O49" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q49" s="20"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>1</v>
-      </c>
+      <c r="O49" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="R49" s="20"/>
+      <c r="S49" s="46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>5</v>
       </c>
@@ -3833,22 +3979,22 @@
       <c r="E50" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F50" s="34">
-        <v>512</v>
-      </c>
-      <c r="G50" s="34">
-        <v>512</v>
-      </c>
-      <c r="H50" s="34">
+      <c r="F50" s="32">
+        <v>512</v>
+      </c>
+      <c r="G50" s="32">
+        <v>512</v>
+      </c>
+      <c r="H50" s="32">
         <v>519</v>
       </c>
-      <c r="I50" s="35">
+      <c r="I50" s="33">
         <v>0.55859375</v>
       </c>
-      <c r="J50" s="35">
+      <c r="J50" s="33">
         <v>0.55859375</v>
       </c>
-      <c r="K50" s="35">
+      <c r="K50" s="33">
         <v>0.60000008000000005</v>
       </c>
       <c r="M50" s="6" t="s">
@@ -3863,9 +4009,12 @@
       <c r="P50" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q50" s="6"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R50" s="6"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>5</v>
       </c>
@@ -3878,22 +4027,22 @@
       <c r="E51" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F51" s="34">
-        <v>512</v>
-      </c>
-      <c r="G51" s="34">
-        <v>512</v>
-      </c>
-      <c r="H51" s="34">
+      <c r="F51" s="32">
+        <v>512</v>
+      </c>
+      <c r="G51" s="32">
+        <v>512</v>
+      </c>
+      <c r="H51" s="32">
         <v>557</v>
       </c>
-      <c r="I51" s="35">
+      <c r="I51" s="33">
         <v>0.6796875</v>
       </c>
-      <c r="J51" s="35">
+      <c r="J51" s="33">
         <v>0.6796875</v>
       </c>
-      <c r="K51" s="35">
+      <c r="K51" s="33">
         <v>0.60107904999999995</v>
       </c>
       <c r="M51" s="6" t="s">
@@ -3906,17 +4055,17 @@
         <v>2</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="40" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R51" s="6"/>
+      <c r="S51" s="43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>5</v>
       </c>
@@ -3929,22 +4078,22 @@
       <c r="E52" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F52" s="34">
-        <v>512</v>
-      </c>
-      <c r="G52" s="34">
-        <v>512</v>
-      </c>
-      <c r="H52" s="34">
+      <c r="F52" s="32">
+        <v>512</v>
+      </c>
+      <c r="G52" s="32">
+        <v>512</v>
+      </c>
+      <c r="H52" s="32">
         <v>561</v>
       </c>
-      <c r="I52" s="35">
+      <c r="I52" s="33">
         <v>0.63476562000000003</v>
       </c>
-      <c r="J52" s="35">
+      <c r="J52" s="33">
         <v>0.63476562000000003</v>
       </c>
-      <c r="K52" s="35">
+      <c r="K52" s="33">
         <v>0.60000001999999997</v>
       </c>
       <c r="M52" s="6" t="s">
@@ -3959,15 +4108,12 @@
       <c r="P52" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q52" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R52" s="6"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>5</v>
       </c>
@@ -3980,22 +4126,22 @@
       <c r="E53" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F53" s="34">
-        <v>512</v>
-      </c>
-      <c r="G53" s="34">
-        <v>512</v>
-      </c>
-      <c r="H53" s="34">
+      <c r="F53" s="32">
+        <v>512</v>
+      </c>
+      <c r="G53" s="32">
+        <v>512</v>
+      </c>
+      <c r="H53" s="32">
         <v>488</v>
       </c>
-      <c r="I53" s="35">
+      <c r="I53" s="33">
         <v>0.51757812000000003</v>
       </c>
-      <c r="J53" s="35">
+      <c r="J53" s="33">
         <v>0.51757812000000003</v>
       </c>
-      <c r="K53" s="35">
+      <c r="K53" s="33">
         <v>0.60000014000000002</v>
       </c>
       <c r="M53" s="6" t="s">
@@ -4010,12 +4156,12 @@
       <c r="P53" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q53" s="6"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q53" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R53" s="6"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>5</v>
       </c>
@@ -4028,22 +4174,22 @@
       <c r="E54" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F54" s="34">
-        <v>512</v>
-      </c>
-      <c r="G54" s="34">
-        <v>512</v>
-      </c>
-      <c r="H54" s="34">
+      <c r="F54" s="32">
+        <v>512</v>
+      </c>
+      <c r="G54" s="32">
+        <v>512</v>
+      </c>
+      <c r="H54" s="32">
         <v>569</v>
       </c>
-      <c r="I54" s="35">
+      <c r="I54" s="33">
         <v>0.59960937999999997</v>
       </c>
-      <c r="J54" s="35">
+      <c r="J54" s="33">
         <v>0.59960937999999997</v>
       </c>
-      <c r="K54" s="35">
+      <c r="K54" s="33">
         <v>0.60000008000000005</v>
       </c>
       <c r="M54" s="6" t="s">
@@ -4058,12 +4204,12 @@
       <c r="P54" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q54" s="6"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R54" s="6"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>5</v>
       </c>
@@ -4076,22 +4222,22 @@
       <c r="E55" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F55" s="34">
-        <v>512</v>
-      </c>
-      <c r="G55" s="34">
-        <v>512</v>
-      </c>
-      <c r="H55" s="34">
+      <c r="F55" s="32">
+        <v>512</v>
+      </c>
+      <c r="G55" s="32">
+        <v>512</v>
+      </c>
+      <c r="H55" s="32">
         <v>456</v>
       </c>
-      <c r="I55" s="35">
+      <c r="I55" s="33">
         <v>0.54296875</v>
       </c>
-      <c r="J55" s="35">
+      <c r="J55" s="33">
         <v>0.54296875</v>
       </c>
-      <c r="K55" s="35">
+      <c r="K55" s="33">
         <v>0.69999999000000002</v>
       </c>
       <c r="M55" s="6" t="s">
@@ -4106,15 +4252,13 @@
       <c r="P55" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="40" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R55" s="6"/>
+      <c r="S55" s="43"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>5</v>
       </c>
@@ -4127,22 +4271,22 @@
       <c r="E56" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F56" s="34">
-        <v>512</v>
-      </c>
-      <c r="G56" s="34">
-        <v>512</v>
-      </c>
-      <c r="H56" s="34">
+      <c r="F56" s="32">
+        <v>512</v>
+      </c>
+      <c r="G56" s="32">
+        <v>512</v>
+      </c>
+      <c r="H56" s="32">
         <v>468</v>
       </c>
-      <c r="I56" s="35">
+      <c r="I56" s="33">
         <v>0.5625</v>
       </c>
-      <c r="J56" s="35">
+      <c r="J56" s="33">
         <v>0.5625</v>
       </c>
-      <c r="K56" s="35">
+      <c r="K56" s="33">
         <v>0.69999999000000002</v>
       </c>
       <c r="M56" s="6" t="s">
@@ -4157,42 +4301,45 @@
       <c r="P56" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q56" s="6"/>
-    </row>
-    <row r="57" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R56" s="6"/>
+    </row>
+    <row r="57" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="29" t="s">
+      <c r="B57" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="29" t="s">
+      <c r="D57" s="27" t="s">
         <v>3</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F57" s="34">
-        <v>512</v>
-      </c>
-      <c r="G57" s="34">
-        <v>512</v>
-      </c>
-      <c r="H57" s="34">
+      <c r="F57" s="32">
+        <v>512</v>
+      </c>
+      <c r="G57" s="32">
+        <v>512</v>
+      </c>
+      <c r="H57" s="32">
         <v>475</v>
       </c>
-      <c r="I57" s="35">
+      <c r="I57" s="33">
         <v>0.5546875</v>
       </c>
-      <c r="J57" s="35">
+      <c r="J57" s="33">
         <v>0.5546875</v>
       </c>
-      <c r="K57" s="35">
+      <c r="K57" s="33">
         <v>0.69999999000000002</v>
       </c>
-      <c r="L57" s="29"/>
-      <c r="M57" s="25" t="s">
+      <c r="L57" s="27"/>
+      <c r="M57" s="23" t="s">
         <v>2</v>
       </c>
       <c r="N57" s="6" t="s">
@@ -4201,15 +4348,16 @@
       <c r="O57" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P57" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="43" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P57" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R57" s="20"/>
+      <c r="S57" s="44"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>5</v>
       </c>
@@ -4222,22 +4370,22 @@
       <c r="E58" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F58" s="34">
-        <v>512</v>
-      </c>
-      <c r="G58" s="34">
-        <v>512</v>
-      </c>
-      <c r="H58" s="34">
+      <c r="F58" s="32">
+        <v>512</v>
+      </c>
+      <c r="G58" s="32">
+        <v>512</v>
+      </c>
+      <c r="H58" s="32">
         <v>523</v>
       </c>
-      <c r="I58" s="35">
+      <c r="I58" s="33">
         <v>0.55078125</v>
       </c>
-      <c r="J58" s="35">
+      <c r="J58" s="33">
         <v>0.55078125</v>
       </c>
-      <c r="K58" s="35">
+      <c r="K58" s="33">
         <v>0.60000001999999997</v>
       </c>
       <c r="M58" s="6" t="s">
@@ -4250,17 +4398,15 @@
         <v>2</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R58" s="6"/>
+      <c r="S58" s="43"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>5</v>
       </c>
@@ -4273,22 +4419,22 @@
       <c r="E59" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F59" s="34">
-        <v>512</v>
-      </c>
-      <c r="G59" s="34">
-        <v>512</v>
-      </c>
-      <c r="H59" s="34">
+      <c r="F59" s="32">
+        <v>512</v>
+      </c>
+      <c r="G59" s="32">
+        <v>512</v>
+      </c>
+      <c r="H59" s="32">
         <v>736</v>
       </c>
-      <c r="I59" s="35">
+      <c r="I59" s="33">
         <v>0.53710937999999997</v>
       </c>
-      <c r="J59" s="35">
+      <c r="J59" s="33">
         <v>0.53710937999999997</v>
       </c>
-      <c r="K59" s="35">
+      <c r="K59" s="33">
         <v>0.5</v>
       </c>
       <c r="M59" s="6" t="s">
@@ -4303,12 +4449,15 @@
       <c r="P59" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q59" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R59" s="6"/>
+      <c r="S59" s="43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>5</v>
       </c>
@@ -4321,22 +4470,22 @@
       <c r="E60" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F60" s="34">
-        <v>512</v>
-      </c>
-      <c r="G60" s="34">
-        <v>512</v>
-      </c>
-      <c r="H60" s="34">
+      <c r="F60" s="32">
+        <v>512</v>
+      </c>
+      <c r="G60" s="32">
+        <v>512</v>
+      </c>
+      <c r="H60" s="32">
         <v>625</v>
       </c>
-      <c r="I60" s="35">
+      <c r="I60" s="33">
         <v>0.5859375</v>
       </c>
-      <c r="J60" s="35">
+      <c r="J60" s="33">
         <v>0.5859375</v>
       </c>
-      <c r="K60" s="35">
+      <c r="K60" s="33">
         <v>0.5</v>
       </c>
       <c r="M60" s="6" t="s">
@@ -4349,17 +4498,15 @@
         <v>2</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q60" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R60" s="6"/>
+      <c r="S60" s="43"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>5</v>
       </c>
@@ -4372,22 +4519,22 @@
       <c r="E61" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F61" s="34">
-        <v>512</v>
-      </c>
-      <c r="G61" s="34">
-        <v>512</v>
-      </c>
-      <c r="H61" s="34">
+      <c r="F61" s="32">
+        <v>512</v>
+      </c>
+      <c r="G61" s="32">
+        <v>512</v>
+      </c>
+      <c r="H61" s="32">
         <v>687</v>
       </c>
-      <c r="I61" s="35">
+      <c r="I61" s="33">
         <v>0.62304687999999997</v>
       </c>
-      <c r="J61" s="35">
+      <c r="J61" s="33">
         <v>0.62304687999999997</v>
       </c>
-      <c r="K61" s="35">
+      <c r="K61" s="33">
         <v>0.5</v>
       </c>
       <c r="M61" s="6" t="s">
@@ -4402,12 +4549,12 @@
       <c r="P61" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q61" s="6"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q61" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R61" s="6"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>5</v>
       </c>
@@ -4420,22 +4567,22 @@
       <c r="E62" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F62" s="34">
-        <v>512</v>
-      </c>
-      <c r="G62" s="34">
-        <v>512</v>
-      </c>
-      <c r="H62" s="34">
+      <c r="F62" s="32">
+        <v>512</v>
+      </c>
+      <c r="G62" s="32">
+        <v>512</v>
+      </c>
+      <c r="H62" s="32">
         <v>728</v>
       </c>
-      <c r="I62" s="35">
+      <c r="I62" s="33">
         <v>0.65625</v>
       </c>
-      <c r="J62" s="35">
+      <c r="J62" s="33">
         <v>0.65625</v>
       </c>
-      <c r="K62" s="35">
+      <c r="K62" s="33">
         <v>0.5</v>
       </c>
       <c r="M62" s="6" t="s">
@@ -4450,12 +4597,13 @@
       <c r="P62" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="40" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q62" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R62" s="6"/>
+      <c r="S62" s="43"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>5</v>
       </c>
@@ -4468,81 +4616,93 @@
       <c r="E63" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F63" s="34">
-        <v>512</v>
-      </c>
-      <c r="G63" s="34">
-        <v>512</v>
-      </c>
-      <c r="H63" s="34">
+      <c r="F63" s="32">
+        <v>512</v>
+      </c>
+      <c r="G63" s="32">
+        <v>512</v>
+      </c>
+      <c r="H63" s="32">
         <v>761</v>
       </c>
-      <c r="I63" s="35">
+      <c r="I63" s="33">
         <v>0.6640625</v>
       </c>
-      <c r="J63" s="35">
+      <c r="J63" s="33">
         <v>0.6640625</v>
       </c>
-      <c r="K63" s="35">
+      <c r="K63" s="33">
         <v>0.5</v>
       </c>
       <c r="M63" s="6" t="s">
         <v>2</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="O63" s="18"/>
-      <c r="Q63" s="6"/>
-    </row>
-    <row r="64" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="O63" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="P63" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q63" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R63" s="6"/>
+    </row>
+    <row r="64" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="29" t="s">
+      <c r="B64" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="27" t="s">
         <v>3</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F64" s="34">
-        <v>512</v>
-      </c>
-      <c r="G64" s="34">
-        <v>512</v>
-      </c>
-      <c r="H64" s="34">
+      <c r="F64" s="32">
+        <v>512</v>
+      </c>
+      <c r="G64" s="32">
+        <v>512</v>
+      </c>
+      <c r="H64" s="32">
         <v>644</v>
       </c>
-      <c r="I64" s="35">
+      <c r="I64" s="33">
         <v>0.5078125</v>
       </c>
-      <c r="J64" s="35">
+      <c r="J64" s="33">
         <v>0.5078125</v>
       </c>
-      <c r="K64" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="L64" s="29"/>
-      <c r="M64" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="N64" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="O64" s="27"/>
-      <c r="P64" s="25"/>
-      <c r="Q64" s="25"/>
-      <c r="R64" s="43"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>1</v>
-      </c>
+      <c r="K64" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="L64" s="27"/>
+      <c r="M64" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N64" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="O64" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P64" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q64" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R64" s="23"/>
+      <c r="S64" s="41"/>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>5</v>
       </c>
@@ -4555,22 +4715,22 @@
       <c r="E65" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F65" s="34">
-        <v>512</v>
-      </c>
-      <c r="G65" s="34">
-        <v>512</v>
-      </c>
-      <c r="H65" s="34">
+      <c r="F65" s="32">
+        <v>512</v>
+      </c>
+      <c r="G65" s="32">
+        <v>512</v>
+      </c>
+      <c r="H65" s="32">
         <v>587</v>
       </c>
-      <c r="I65" s="35">
+      <c r="I65" s="33">
         <v>0.50585937999999997</v>
       </c>
-      <c r="J65" s="35">
+      <c r="J65" s="33">
         <v>0.50585937999999997</v>
       </c>
-      <c r="K65" s="35">
+      <c r="K65" s="33">
         <v>0.5</v>
       </c>
       <c r="M65" s="6" t="s">
@@ -4585,15 +4745,13 @@
       <c r="P65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q65" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R65" s="6"/>
+      <c r="S65" s="43"/>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>5</v>
       </c>
@@ -4606,22 +4764,22 @@
       <c r="E66" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F66" s="34">
-        <v>512</v>
-      </c>
-      <c r="G66" s="34">
-        <v>512</v>
-      </c>
-      <c r="H66" s="34">
+      <c r="F66" s="32">
+        <v>512</v>
+      </c>
+      <c r="G66" s="32">
+        <v>512</v>
+      </c>
+      <c r="H66" s="32">
         <v>754</v>
       </c>
-      <c r="I66" s="35">
+      <c r="I66" s="33">
         <v>0.60546875</v>
       </c>
-      <c r="J66" s="35">
+      <c r="J66" s="33">
         <v>0.60546875</v>
       </c>
-      <c r="K66" s="35">
+      <c r="K66" s="33">
         <v>0.5</v>
       </c>
       <c r="M66" s="6" t="s">
@@ -4636,12 +4794,12 @@
       <c r="P66" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q66" s="6"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q66" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R66" s="6"/>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>5</v>
       </c>
@@ -4654,22 +4812,22 @@
       <c r="E67" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F67" s="34">
-        <v>512</v>
-      </c>
-      <c r="G67" s="34">
-        <v>512</v>
-      </c>
-      <c r="H67" s="34">
+      <c r="F67" s="32">
+        <v>512</v>
+      </c>
+      <c r="G67" s="32">
+        <v>512</v>
+      </c>
+      <c r="H67" s="32">
         <v>728</v>
       </c>
-      <c r="I67" s="35">
+      <c r="I67" s="33">
         <v>0.57617187999999997</v>
       </c>
-      <c r="J67" s="35">
+      <c r="J67" s="33">
         <v>0.57617187999999997</v>
       </c>
-      <c r="K67" s="35">
+      <c r="K67" s="33">
         <v>0.5</v>
       </c>
       <c r="M67" s="6" t="s">
@@ -4684,12 +4842,12 @@
       <c r="P67" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q67" s="6"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q67" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R67" s="6"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>5</v>
       </c>
@@ -4702,22 +4860,22 @@
       <c r="E68" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F68" s="34">
-        <v>512</v>
-      </c>
-      <c r="G68" s="34">
-        <v>512</v>
-      </c>
-      <c r="H68" s="34">
+      <c r="F68" s="32">
+        <v>512</v>
+      </c>
+      <c r="G68" s="32">
+        <v>512</v>
+      </c>
+      <c r="H68" s="32">
         <v>673</v>
       </c>
-      <c r="I68" s="35">
+      <c r="I68" s="33">
         <v>0.55273437999999997</v>
       </c>
-      <c r="J68" s="35">
+      <c r="J68" s="33">
         <v>0.55273437999999997</v>
       </c>
-      <c r="K68" s="35">
+      <c r="K68" s="33">
         <v>0.5</v>
       </c>
       <c r="M68" s="6" t="s">
@@ -4732,9 +4890,12 @@
       <c r="P68" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q68" s="6"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q68" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R68" s="6"/>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>5</v>
       </c>
@@ -4747,22 +4908,22 @@
       <c r="E69" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F69" s="34">
-        <v>512</v>
-      </c>
-      <c r="G69" s="34">
-        <v>512</v>
-      </c>
-      <c r="H69" s="34">
+      <c r="F69" s="32">
+        <v>512</v>
+      </c>
+      <c r="G69" s="32">
+        <v>512</v>
+      </c>
+      <c r="H69" s="32">
         <v>713</v>
       </c>
-      <c r="I69" s="35">
+      <c r="I69" s="33">
         <v>0.67382812000000003</v>
       </c>
-      <c r="J69" s="35">
+      <c r="J69" s="33">
         <v>0.67382812000000003</v>
       </c>
-      <c r="K69" s="35">
+      <c r="K69" s="33">
         <v>0.5</v>
       </c>
       <c r="M69" s="6" t="s">
@@ -4775,17 +4936,14 @@
         <v>2</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="40" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q69" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R69" s="6"/>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>5</v>
       </c>
@@ -4798,22 +4956,22 @@
       <c r="E70" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F70" s="34">
-        <v>512</v>
-      </c>
-      <c r="G70" s="34">
-        <v>512</v>
-      </c>
-      <c r="H70" s="34">
+      <c r="F70" s="32">
+        <v>512</v>
+      </c>
+      <c r="G70" s="32">
+        <v>512</v>
+      </c>
+      <c r="H70" s="32">
         <v>680</v>
       </c>
-      <c r="I70" s="35">
+      <c r="I70" s="33">
         <v>0.50585937999999997</v>
       </c>
-      <c r="J70" s="35">
+      <c r="J70" s="33">
         <v>0.50585937999999997</v>
       </c>
-      <c r="K70" s="35">
+      <c r="K70" s="33">
         <v>0.5</v>
       </c>
       <c r="M70" s="6" t="s">
@@ -4828,9 +4986,12 @@
       <c r="P70" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q70" s="6"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q70" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R70" s="6"/>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>5</v>
       </c>
@@ -4843,22 +5004,22 @@
       <c r="E71" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F71" s="34">
-        <v>512</v>
-      </c>
-      <c r="G71" s="34">
-        <v>512</v>
-      </c>
-      <c r="H71" s="34">
+      <c r="F71" s="32">
+        <v>512</v>
+      </c>
+      <c r="G71" s="32">
+        <v>512</v>
+      </c>
+      <c r="H71" s="32">
         <v>734</v>
       </c>
-      <c r="I71" s="35">
+      <c r="I71" s="33">
         <v>0.703125</v>
       </c>
-      <c r="J71" s="35">
+      <c r="J71" s="33">
         <v>0.703125</v>
       </c>
-      <c r="K71" s="35">
+      <c r="K71" s="33">
         <v>0.5</v>
       </c>
       <c r="M71" s="6" t="s">
@@ -4871,17 +5032,14 @@
         <v>2</v>
       </c>
       <c r="P71" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q71" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R71" s="6"/>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>5</v>
       </c>
@@ -4894,22 +5052,22 @@
       <c r="E72" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F72" s="34">
-        <v>512</v>
-      </c>
-      <c r="G72" s="34">
-        <v>512</v>
-      </c>
-      <c r="H72" s="34">
+      <c r="F72" s="32">
+        <v>512</v>
+      </c>
+      <c r="G72" s="32">
+        <v>512</v>
+      </c>
+      <c r="H72" s="32">
         <v>750</v>
       </c>
-      <c r="I72" s="35">
+      <c r="I72" s="33">
         <v>0.68359375</v>
       </c>
-      <c r="J72" s="35">
+      <c r="J72" s="33">
         <v>0.68359375</v>
       </c>
-      <c r="K72" s="35">
+      <c r="K72" s="33">
         <v>0.5</v>
       </c>
       <c r="M72" s="6" t="s">
@@ -4924,12 +5082,12 @@
       <c r="P72" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q72" s="6"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q72" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R72" s="6"/>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>5</v>
       </c>
@@ -4942,22 +5100,22 @@
       <c r="E73" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F73" s="34">
-        <v>512</v>
-      </c>
-      <c r="G73" s="34">
-        <v>512</v>
-      </c>
-      <c r="H73" s="34">
+      <c r="F73" s="32">
+        <v>512</v>
+      </c>
+      <c r="G73" s="32">
+        <v>512</v>
+      </c>
+      <c r="H73" s="32">
         <v>671</v>
       </c>
-      <c r="I73" s="35">
+      <c r="I73" s="33">
         <v>0.5859375</v>
       </c>
-      <c r="J73" s="35">
+      <c r="J73" s="33">
         <v>0.5859375</v>
       </c>
-      <c r="K73" s="35">
+      <c r="K73" s="33">
         <v>0.5</v>
       </c>
       <c r="M73" s="6" t="s">
@@ -4972,12 +5130,12 @@
       <c r="P73" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q73" s="6"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q73" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R73" s="6"/>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>5</v>
       </c>
@@ -4990,22 +5148,22 @@
       <c r="E74" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F74" s="34">
-        <v>512</v>
-      </c>
-      <c r="G74" s="34">
-        <v>512</v>
-      </c>
-      <c r="H74" s="34">
+      <c r="F74" s="32">
+        <v>512</v>
+      </c>
+      <c r="G74" s="32">
+        <v>512</v>
+      </c>
+      <c r="H74" s="32">
         <v>629</v>
       </c>
-      <c r="I74" s="35">
+      <c r="I74" s="33">
         <v>0.51757812000000003</v>
       </c>
-      <c r="J74" s="35">
+      <c r="J74" s="33">
         <v>0.51757812000000003</v>
       </c>
-      <c r="K74" s="35">
+      <c r="K74" s="33">
         <v>0.5</v>
       </c>
       <c r="M74" s="6" t="s">
@@ -5020,12 +5178,12 @@
       <c r="P74" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q74" s="6"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q74" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R74" s="6"/>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>5</v>
       </c>
@@ -5038,22 +5196,22 @@
       <c r="E75" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F75" s="34">
-        <v>512</v>
-      </c>
-      <c r="G75" s="34">
-        <v>512</v>
-      </c>
-      <c r="H75" s="34">
+      <c r="F75" s="32">
+        <v>512</v>
+      </c>
+      <c r="G75" s="32">
+        <v>512</v>
+      </c>
+      <c r="H75" s="32">
         <v>628</v>
       </c>
-      <c r="I75" s="35">
+      <c r="I75" s="33">
         <v>0.58203125</v>
       </c>
-      <c r="J75" s="35">
+      <c r="J75" s="33">
         <v>0.58203125</v>
       </c>
-      <c r="K75" s="35">
+      <c r="K75" s="33">
         <v>0.5</v>
       </c>
       <c r="M75" s="6" t="s">
@@ -5068,12 +5226,12 @@
       <c r="P75" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q75" s="6"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q75" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R75" s="6"/>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>5</v>
       </c>
@@ -5086,22 +5244,22 @@
       <c r="E76" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F76" s="34">
-        <v>512</v>
-      </c>
-      <c r="G76" s="34">
-        <v>512</v>
-      </c>
-      <c r="H76" s="34">
+      <c r="F76" s="32">
+        <v>512</v>
+      </c>
+      <c r="G76" s="32">
+        <v>512</v>
+      </c>
+      <c r="H76" s="32">
         <v>642</v>
       </c>
-      <c r="I76" s="35">
+      <c r="I76" s="33">
         <v>0.60546875</v>
       </c>
-      <c r="J76" s="35">
+      <c r="J76" s="33">
         <v>0.60546875</v>
       </c>
-      <c r="K76" s="35">
+      <c r="K76" s="33">
         <v>0.5</v>
       </c>
       <c r="M76" s="6" t="s">
@@ -5116,12 +5274,12 @@
       <c r="P76" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q76" s="6"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q76" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R76" s="6"/>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>5</v>
       </c>
@@ -5134,22 +5292,22 @@
       <c r="E77" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F77" s="34">
-        <v>512</v>
-      </c>
-      <c r="G77" s="34">
-        <v>512</v>
-      </c>
-      <c r="H77" s="34">
+      <c r="F77" s="32">
+        <v>512</v>
+      </c>
+      <c r="G77" s="32">
+        <v>512</v>
+      </c>
+      <c r="H77" s="32">
         <v>804</v>
       </c>
-      <c r="I77" s="35">
+      <c r="I77" s="33">
         <v>0.71875</v>
       </c>
-      <c r="J77" s="35">
+      <c r="J77" s="33">
         <v>0.71875</v>
       </c>
-      <c r="K77" s="35">
+      <c r="K77" s="33">
         <v>0.5</v>
       </c>
       <c r="M77" s="6" t="s">
@@ -5164,12 +5322,12 @@
       <c r="P77" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q77" s="6"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q77" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R77" s="6"/>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>5</v>
       </c>
@@ -5182,22 +5340,22 @@
       <c r="E78" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F78" s="34">
-        <v>512</v>
-      </c>
-      <c r="G78" s="34">
-        <v>512</v>
-      </c>
-      <c r="H78" s="34">
+      <c r="F78" s="32">
+        <v>512</v>
+      </c>
+      <c r="G78" s="32">
+        <v>512</v>
+      </c>
+      <c r="H78" s="32">
         <v>696</v>
       </c>
-      <c r="I78" s="35">
+      <c r="I78" s="33">
         <v>0.64453125</v>
       </c>
-      <c r="J78" s="35">
+      <c r="J78" s="33">
         <v>0.64453125</v>
       </c>
-      <c r="K78" s="35">
+      <c r="K78" s="33">
         <v>0.5</v>
       </c>
       <c r="M78" s="6" t="s">
@@ -5212,12 +5370,12 @@
       <c r="P78" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q78" s="6"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q78" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R78" s="6"/>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>5</v>
       </c>
@@ -5230,22 +5388,22 @@
       <c r="E79" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F79" s="34">
-        <v>512</v>
-      </c>
-      <c r="G79" s="34">
-        <v>512</v>
-      </c>
-      <c r="H79" s="34">
+      <c r="F79" s="32">
+        <v>512</v>
+      </c>
+      <c r="G79" s="32">
+        <v>512</v>
+      </c>
+      <c r="H79" s="32">
         <v>684</v>
       </c>
-      <c r="I79" s="35">
+      <c r="I79" s="33">
         <v>0.546875</v>
       </c>
-      <c r="J79" s="35">
+      <c r="J79" s="33">
         <v>0.546875</v>
       </c>
-      <c r="K79" s="35">
+      <c r="K79" s="33">
         <v>0.5</v>
       </c>
       <c r="M79" s="6" t="s">
@@ -5260,9 +5418,12 @@
       <c r="P79" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q79" s="6"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q79" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R79" s="6"/>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>5</v>
       </c>
@@ -5275,22 +5436,22 @@
       <c r="E80" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F80" s="34">
-        <v>512</v>
-      </c>
-      <c r="G80" s="34">
-        <v>512</v>
-      </c>
-      <c r="H80" s="34">
+      <c r="F80" s="32">
+        <v>512</v>
+      </c>
+      <c r="G80" s="32">
+        <v>512</v>
+      </c>
+      <c r="H80" s="32">
         <v>662</v>
       </c>
-      <c r="I80" s="35">
+      <c r="I80" s="33">
         <v>0.56640625</v>
       </c>
-      <c r="J80" s="35">
+      <c r="J80" s="33">
         <v>0.56640625</v>
       </c>
-      <c r="K80" s="35">
+      <c r="K80" s="33">
         <v>0.5</v>
       </c>
       <c r="M80" s="6" t="s">
@@ -5303,17 +5464,14 @@
         <v>2</v>
       </c>
       <c r="P80" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q80" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R80" s="6"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>5</v>
       </c>
@@ -5326,22 +5484,22 @@
       <c r="E81" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F81" s="34">
-        <v>512</v>
-      </c>
-      <c r="G81" s="34">
-        <v>512</v>
-      </c>
-      <c r="H81" s="34">
+      <c r="F81" s="32">
+        <v>512</v>
+      </c>
+      <c r="G81" s="32">
+        <v>512</v>
+      </c>
+      <c r="H81" s="32">
         <v>723</v>
       </c>
-      <c r="I81" s="35">
+      <c r="I81" s="33">
         <v>0.60546875</v>
       </c>
-      <c r="J81" s="35">
+      <c r="J81" s="33">
         <v>0.60546875</v>
       </c>
-      <c r="K81" s="35">
+      <c r="K81" s="33">
         <v>0.5</v>
       </c>
       <c r="M81" s="6" t="s">
@@ -5356,12 +5514,12 @@
       <c r="P81" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q81" s="6"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q81" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R81" s="6"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>5</v>
       </c>
@@ -5374,22 +5532,22 @@
       <c r="E82" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F82" s="34">
-        <v>512</v>
-      </c>
-      <c r="G82" s="34">
-        <v>512</v>
-      </c>
-      <c r="H82" s="34">
+      <c r="F82" s="32">
+        <v>512</v>
+      </c>
+      <c r="G82" s="32">
+        <v>512</v>
+      </c>
+      <c r="H82" s="32">
         <v>560</v>
       </c>
-      <c r="I82" s="35">
+      <c r="I82" s="33">
         <v>0.68164062000000003</v>
       </c>
-      <c r="J82" s="35">
+      <c r="J82" s="33">
         <v>0.68164062000000003</v>
       </c>
-      <c r="K82" s="35">
+      <c r="K82" s="33">
         <v>0.60107332000000002</v>
       </c>
       <c r="M82" s="6" t="s">
@@ -5404,11 +5562,14 @@
       <c r="P82" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q82" s="6"/>
-    </row>
-    <row r="83" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q82" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R82" s="6"/>
+    </row>
+    <row r="83" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C83" s="6" t="s">
@@ -5420,22 +5581,22 @@
       <c r="E83" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F83" s="34">
-        <v>512</v>
-      </c>
-      <c r="G83" s="34">
-        <v>512</v>
-      </c>
-      <c r="H83" s="34">
+      <c r="F83" s="32">
+        <v>512</v>
+      </c>
+      <c r="G83" s="32">
+        <v>512</v>
+      </c>
+      <c r="H83" s="32">
         <v>483</v>
       </c>
-      <c r="I83" s="35">
+      <c r="I83" s="33">
         <v>0.56640625</v>
       </c>
-      <c r="J83" s="35">
+      <c r="J83" s="33">
         <v>0.56640625</v>
       </c>
-      <c r="K83" s="35">
+      <c r="K83" s="33">
         <v>0.59999990000000003</v>
       </c>
       <c r="L83" s="6"/>
@@ -5448,15 +5609,18 @@
       <c r="O83" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P83" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q83" s="20"/>
-      <c r="R83" s="44" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P83" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q83" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R83" s="20"/>
+      <c r="S83" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="4" t="s">
         <v>5</v>
@@ -5467,25 +5631,25 @@
       <c r="D84" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E84" s="23" t="s">
+      <c r="E84" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="F84" s="36">
-        <v>512</v>
-      </c>
-      <c r="G84" s="36">
-        <v>512</v>
-      </c>
-      <c r="H84" s="36">
+      <c r="F84" s="34">
+        <v>512</v>
+      </c>
+      <c r="G84" s="34">
+        <v>512</v>
+      </c>
+      <c r="H84" s="34">
         <v>425</v>
       </c>
-      <c r="I84" s="37">
+      <c r="I84" s="35">
         <v>0.515625</v>
       </c>
-      <c r="J84" s="37">
+      <c r="J84" s="35">
         <v>0.515625</v>
       </c>
-      <c r="K84" s="37">
+      <c r="K84" s="35">
         <v>0.69999999000000002</v>
       </c>
       <c r="L84" s="3"/>
@@ -5498,15 +5662,21 @@
       <c r="O84" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P84" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q84" s="3"/>
-      <c r="R84" s="42" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P84" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q84" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R84" s="3"/>
+      <c r="S84" s="40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>1</v>
+      </c>
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -5514,35 +5684,35 @@
         <v>7</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F85" s="34">
-        <v>768</v>
-      </c>
-      <c r="G85" s="34">
-        <v>768</v>
-      </c>
-      <c r="H85" s="34">
+        <v>123</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F85" s="32">
+        <v>768</v>
+      </c>
+      <c r="G85" s="32">
+        <v>768</v>
+      </c>
+      <c r="H85" s="32">
         <v>45</v>
       </c>
-      <c r="I85" s="35">
+      <c r="I85" s="33">
         <v>0.43953112</v>
       </c>
-      <c r="J85" s="35">
+      <c r="J85" s="33">
         <v>0.43953112</v>
       </c>
-      <c r="K85" s="35">
+      <c r="K85" s="33">
         <v>5</v>
       </c>
       <c r="M85" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q85" s="6"/>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R85" s="6"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -5555,30 +5725,30 @@
       <c r="E86" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F86" s="34">
-        <v>768</v>
-      </c>
-      <c r="G86" s="34">
-        <v>768</v>
-      </c>
-      <c r="H86" s="34">
+      <c r="F86" s="32">
+        <v>768</v>
+      </c>
+      <c r="G86" s="32">
+        <v>768</v>
+      </c>
+      <c r="H86" s="32">
         <v>48</v>
       </c>
-      <c r="I86" s="35">
+      <c r="I86" s="33">
         <v>0.42002529</v>
       </c>
-      <c r="J86" s="35">
+      <c r="J86" s="33">
         <v>0.42002529</v>
       </c>
-      <c r="K86" s="35">
+      <c r="K86" s="33">
         <v>5</v>
       </c>
       <c r="M86" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q86" s="6"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R86" s="6"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>4</v>
       </c>
@@ -5591,30 +5761,30 @@
       <c r="E87" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F87" s="34">
-        <v>768</v>
-      </c>
-      <c r="G87" s="34">
-        <v>768</v>
-      </c>
-      <c r="H87" s="34">
+      <c r="F87" s="32">
+        <v>768</v>
+      </c>
+      <c r="G87" s="32">
+        <v>768</v>
+      </c>
+      <c r="H87" s="32">
         <v>65</v>
       </c>
-      <c r="I87" s="35">
+      <c r="I87" s="33">
         <v>0.43172877999999998</v>
       </c>
-      <c r="J87" s="35">
+      <c r="J87" s="33">
         <v>0.43172877999999998</v>
       </c>
-      <c r="K87" s="35">
+      <c r="K87" s="33">
         <v>5</v>
       </c>
       <c r="M87" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q87" s="6"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R87" s="6"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>4</v>
       </c>
@@ -5627,30 +5797,30 @@
       <c r="E88" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F88" s="34">
-        <v>768</v>
-      </c>
-      <c r="G88" s="34">
-        <v>768</v>
-      </c>
-      <c r="H88" s="34">
+      <c r="F88" s="32">
+        <v>768</v>
+      </c>
+      <c r="G88" s="32">
+        <v>768</v>
+      </c>
+      <c r="H88" s="32">
         <v>44</v>
       </c>
-      <c r="I88" s="35">
+      <c r="I88" s="33">
         <v>0.40962219</v>
       </c>
-      <c r="J88" s="35">
+      <c r="J88" s="33">
         <v>0.40962219</v>
       </c>
-      <c r="K88" s="35">
+      <c r="K88" s="33">
         <v>5</v>
       </c>
       <c r="M88" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q88" s="6"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R88" s="6"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>4</v>
       </c>
@@ -5663,30 +5833,30 @@
       <c r="E89" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F89" s="34">
-        <v>768</v>
-      </c>
-      <c r="G89" s="34">
-        <v>768</v>
-      </c>
-      <c r="H89" s="34">
+      <c r="F89" s="32">
+        <v>768</v>
+      </c>
+      <c r="G89" s="32">
+        <v>768</v>
+      </c>
+      <c r="H89" s="32">
         <v>53</v>
       </c>
-      <c r="I89" s="35">
+      <c r="I89" s="33">
         <v>0.47854275000000002</v>
       </c>
-      <c r="J89" s="35">
+      <c r="J89" s="33">
         <v>0.47854275000000002</v>
       </c>
-      <c r="K89" s="35">
+      <c r="K89" s="33">
         <v>5</v>
       </c>
       <c r="M89" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q89" s="6"/>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R89" s="6"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>4</v>
       </c>
@@ -5697,15 +5867,15 @@
         <v>99</v>
       </c>
       <c r="E90" s="8"/>
-      <c r="I90" s="35"/>
-      <c r="J90" s="35"/>
-      <c r="K90" s="35"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="33"/>
       <c r="M90" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="Q90" s="6"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R90" s="6"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>4</v>
       </c>
@@ -5718,30 +5888,30 @@
       <c r="E91" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F91" s="34">
-        <v>768</v>
-      </c>
-      <c r="G91" s="34">
-        <v>768</v>
-      </c>
-      <c r="H91" s="34">
+      <c r="F91" s="32">
+        <v>768</v>
+      </c>
+      <c r="G91" s="32">
+        <v>768</v>
+      </c>
+      <c r="H91" s="32">
         <v>53</v>
       </c>
-      <c r="I91" s="35">
+      <c r="I91" s="33">
         <v>0.44343227000000002</v>
       </c>
-      <c r="J91" s="35">
+      <c r="J91" s="33">
         <v>0.44343227000000002</v>
       </c>
-      <c r="K91" s="35">
+      <c r="K91" s="33">
         <v>5</v>
       </c>
       <c r="M91" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q91" s="6"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R91" s="6"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>4</v>
       </c>
@@ -5754,30 +5924,30 @@
       <c r="E92" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F92" s="34">
-        <v>768</v>
-      </c>
-      <c r="G92" s="34">
-        <v>768</v>
-      </c>
-      <c r="H92" s="34">
+      <c r="F92" s="32">
+        <v>768</v>
+      </c>
+      <c r="G92" s="32">
+        <v>768</v>
+      </c>
+      <c r="H92" s="32">
         <v>49</v>
       </c>
-      <c r="I92" s="35">
+      <c r="I92" s="33">
         <v>0.40702139999999998</v>
       </c>
-      <c r="J92" s="35">
+      <c r="J92" s="33">
         <v>0.40702139999999998</v>
       </c>
-      <c r="K92" s="35">
+      <c r="K92" s="33">
         <v>5</v>
       </c>
       <c r="M92" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q92" s="6"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R92" s="6"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>4</v>
       </c>
@@ -5790,30 +5960,30 @@
       <c r="E93" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F93" s="34">
-        <v>768</v>
-      </c>
-      <c r="G93" s="34">
-        <v>768</v>
-      </c>
-      <c r="H93" s="34">
+      <c r="F93" s="32">
+        <v>768</v>
+      </c>
+      <c r="G93" s="32">
+        <v>768</v>
+      </c>
+      <c r="H93" s="32">
         <v>60</v>
       </c>
-      <c r="I93" s="35">
+      <c r="I93" s="33">
         <v>0.46813965000000002</v>
       </c>
-      <c r="J93" s="35">
+      <c r="J93" s="33">
         <v>0.46813965000000002</v>
       </c>
-      <c r="K93" s="35">
+      <c r="K93" s="33">
         <v>5</v>
       </c>
       <c r="M93" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q93" s="6"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R93" s="6"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>4</v>
       </c>
@@ -5826,30 +5996,30 @@
       <c r="E94" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F94" s="34">
-        <v>768</v>
-      </c>
-      <c r="G94" s="34">
-        <v>768</v>
-      </c>
-      <c r="H94" s="34">
+      <c r="F94" s="32">
+        <v>768</v>
+      </c>
+      <c r="G94" s="32">
+        <v>768</v>
+      </c>
+      <c r="H94" s="32">
         <v>47</v>
       </c>
-      <c r="I94" s="35">
+      <c r="I94" s="33">
         <v>0.46293810000000002</v>
       </c>
-      <c r="J94" s="35">
+      <c r="J94" s="33">
         <v>0.46293810000000002</v>
       </c>
-      <c r="K94" s="35">
+      <c r="K94" s="33">
         <v>5</v>
       </c>
       <c r="M94" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q94" s="6"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R94" s="6"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -5862,30 +6032,30 @@
       <c r="E95" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F95" s="34">
-        <v>768</v>
-      </c>
-      <c r="G95" s="34">
-        <v>768</v>
-      </c>
-      <c r="H95" s="34">
+      <c r="F95" s="32">
+        <v>768</v>
+      </c>
+      <c r="G95" s="32">
+        <v>768</v>
+      </c>
+      <c r="H95" s="32">
         <v>52</v>
       </c>
-      <c r="I95" s="35">
+      <c r="I95" s="33">
         <v>0.44473267</v>
       </c>
-      <c r="J95" s="35">
+      <c r="J95" s="33">
         <v>0.44473267</v>
       </c>
-      <c r="K95" s="35">
+      <c r="K95" s="33">
         <v>5</v>
       </c>
       <c r="M95" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q95" s="6"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R95" s="6"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -5898,30 +6068,30 @@
       <c r="E96" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F96" s="34">
-        <v>768</v>
-      </c>
-      <c r="G96" s="34">
-        <v>768</v>
-      </c>
-      <c r="H96" s="34">
+      <c r="F96" s="32">
+        <v>768</v>
+      </c>
+      <c r="G96" s="32">
+        <v>768</v>
+      </c>
+      <c r="H96" s="32">
         <v>45</v>
       </c>
-      <c r="I96" s="35">
+      <c r="I96" s="33">
         <v>0.45383537000000002</v>
       </c>
-      <c r="J96" s="35">
+      <c r="J96" s="33">
         <v>0.45383537000000002</v>
       </c>
-      <c r="K96" s="35">
+      <c r="K96" s="33">
         <v>5</v>
       </c>
       <c r="M96" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q96" s="6"/>
-    </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R96" s="6"/>
+    </row>
+    <row r="97" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -5934,30 +6104,30 @@
       <c r="E97" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F97" s="34">
-        <v>768</v>
-      </c>
-      <c r="G97" s="34">
-        <v>768</v>
-      </c>
-      <c r="H97" s="34">
+      <c r="F97" s="32">
+        <v>768</v>
+      </c>
+      <c r="G97" s="32">
+        <v>768</v>
+      </c>
+      <c r="H97" s="32">
         <v>53</v>
       </c>
-      <c r="I97" s="35">
+      <c r="I97" s="33">
         <v>0.49284703000000002</v>
       </c>
-      <c r="J97" s="35">
+      <c r="J97" s="33">
         <v>0.49284703000000002</v>
       </c>
-      <c r="K97" s="35">
+      <c r="K97" s="33">
         <v>5</v>
       </c>
       <c r="M97" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q97" s="6"/>
-    </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R97" s="6"/>
+    </row>
+    <row r="98" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -5970,30 +6140,30 @@
       <c r="E98" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F98" s="34">
-        <v>768</v>
-      </c>
-      <c r="G98" s="34">
-        <v>768</v>
-      </c>
-      <c r="H98" s="34">
+      <c r="F98" s="32">
+        <v>768</v>
+      </c>
+      <c r="G98" s="32">
+        <v>768</v>
+      </c>
+      <c r="H98" s="32">
         <v>49</v>
       </c>
-      <c r="I98" s="35">
+      <c r="I98" s="33">
         <v>0.50715131000000002</v>
       </c>
-      <c r="J98" s="35">
+      <c r="J98" s="33">
         <v>0.50715131000000002</v>
       </c>
-      <c r="K98" s="35">
+      <c r="K98" s="33">
         <v>5</v>
       </c>
       <c r="M98" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q98" s="6"/>
-    </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R98" s="6"/>
+    </row>
+    <row r="99" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>4</v>
       </c>
@@ -6006,30 +6176,30 @@
       <c r="E99" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F99" s="34">
-        <v>768</v>
-      </c>
-      <c r="G99" s="34">
-        <v>768</v>
-      </c>
-      <c r="H99" s="34">
+      <c r="F99" s="32">
+        <v>768</v>
+      </c>
+      <c r="G99" s="32">
+        <v>768</v>
+      </c>
+      <c r="H99" s="32">
         <v>50</v>
       </c>
-      <c r="I99" s="35">
+      <c r="I99" s="33">
         <v>0.45253500000000002</v>
       </c>
-      <c r="J99" s="35">
+      <c r="J99" s="33">
         <v>0.45253500000000002</v>
       </c>
-      <c r="K99" s="35">
+      <c r="K99" s="33">
         <v>5</v>
       </c>
       <c r="M99" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q99" s="6"/>
-    </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R99" s="6"/>
+    </row>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>4</v>
       </c>
@@ -6042,30 +6212,30 @@
       <c r="E100" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F100" s="34">
-        <v>768</v>
-      </c>
-      <c r="G100" s="34">
-        <v>768</v>
-      </c>
-      <c r="H100" s="34">
+      <c r="F100" s="32">
+        <v>768</v>
+      </c>
+      <c r="G100" s="32">
+        <v>768</v>
+      </c>
+      <c r="H100" s="32">
         <v>45</v>
       </c>
-      <c r="I100" s="35">
+      <c r="I100" s="33">
         <v>0.39401754999999999</v>
       </c>
-      <c r="J100" s="35">
+      <c r="J100" s="33">
         <v>0.39401754999999999</v>
       </c>
-      <c r="K100" s="35">
+      <c r="K100" s="33">
         <v>5</v>
       </c>
       <c r="M100" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q100" s="6"/>
-    </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R100" s="6"/>
+    </row>
+    <row r="101" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>4</v>
       </c>
@@ -6078,30 +6248,30 @@
       <c r="E101" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F101" s="34">
-        <v>768</v>
-      </c>
-      <c r="G101" s="34">
-        <v>768</v>
-      </c>
-      <c r="H101" s="34">
+      <c r="F101" s="32">
+        <v>768</v>
+      </c>
+      <c r="G101" s="32">
+        <v>768</v>
+      </c>
+      <c r="H101" s="32">
         <v>52</v>
       </c>
-      <c r="I101" s="35">
+      <c r="I101" s="33">
         <v>0.44746630999999998</v>
       </c>
-      <c r="J101" s="35">
+      <c r="J101" s="33">
         <v>0.44746630999999998</v>
       </c>
-      <c r="K101" s="35">
+      <c r="K101" s="33">
         <v>5</v>
       </c>
       <c r="M101" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q101" s="6"/>
-    </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R101" s="6"/>
+    </row>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>4</v>
       </c>
@@ -6114,30 +6284,30 @@
       <c r="E102" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F102" s="34">
-        <v>768</v>
-      </c>
-      <c r="G102" s="34">
-        <v>768</v>
-      </c>
-      <c r="H102" s="34">
+      <c r="F102" s="32">
+        <v>768</v>
+      </c>
+      <c r="G102" s="32">
+        <v>768</v>
+      </c>
+      <c r="H102" s="32">
         <v>49</v>
       </c>
-      <c r="I102" s="35">
+      <c r="I102" s="33">
         <v>0.45123460999999998</v>
       </c>
-      <c r="J102" s="35">
+      <c r="J102" s="33">
         <v>0.45123460999999998</v>
       </c>
-      <c r="K102" s="35">
+      <c r="K102" s="33">
         <v>5</v>
       </c>
       <c r="M102" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q102" s="6"/>
-    </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R102" s="6"/>
+    </row>
+    <row r="103" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>4</v>
       </c>
@@ -6150,30 +6320,30 @@
       <c r="E103" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F103" s="34">
-        <v>768</v>
-      </c>
-      <c r="G103" s="34">
-        <v>768</v>
-      </c>
-      <c r="H103" s="34">
+      <c r="F103" s="32">
+        <v>768</v>
+      </c>
+      <c r="G103" s="32">
+        <v>768</v>
+      </c>
+      <c r="H103" s="32">
         <v>53</v>
       </c>
-      <c r="I103" s="35">
+      <c r="I103" s="33">
         <v>0.53185861999999995</v>
       </c>
-      <c r="J103" s="35">
+      <c r="J103" s="33">
         <v>0.53185861999999995</v>
       </c>
-      <c r="K103" s="35">
+      <c r="K103" s="33">
         <v>5</v>
       </c>
       <c r="M103" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q103" s="6"/>
-    </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R103" s="6"/>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>4</v>
       </c>
@@ -6186,30 +6356,30 @@
       <c r="E104" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F104" s="34">
-        <v>768</v>
-      </c>
-      <c r="G104" s="34">
-        <v>768</v>
-      </c>
-      <c r="H104" s="34">
+      <c r="F104" s="32">
+        <v>768</v>
+      </c>
+      <c r="G104" s="32">
+        <v>768</v>
+      </c>
+      <c r="H104" s="32">
         <v>49</v>
       </c>
-      <c r="I104" s="35">
+      <c r="I104" s="33">
         <v>0.42912799000000001</v>
       </c>
-      <c r="J104" s="35">
+      <c r="J104" s="33">
         <v>0.42912799000000001</v>
       </c>
-      <c r="K104" s="35">
+      <c r="K104" s="33">
         <v>5</v>
       </c>
       <c r="M104" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q104" s="6"/>
-    </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R104" s="6"/>
+    </row>
+    <row r="105" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>4</v>
       </c>
@@ -6222,30 +6392,30 @@
       <c r="E105" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F105" s="34">
-        <v>768</v>
-      </c>
-      <c r="G105" s="34">
-        <v>768</v>
-      </c>
-      <c r="H105" s="34">
+      <c r="F105" s="32">
+        <v>768</v>
+      </c>
+      <c r="G105" s="32">
+        <v>768</v>
+      </c>
+      <c r="H105" s="32">
         <v>48</v>
       </c>
-      <c r="I105" s="35">
+      <c r="I105" s="33">
         <v>0.42132567999999998</v>
       </c>
-      <c r="J105" s="35">
+      <c r="J105" s="33">
         <v>0.42132567999999998</v>
       </c>
-      <c r="K105" s="35">
+      <c r="K105" s="33">
         <v>5</v>
       </c>
       <c r="M105" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q105" s="6"/>
-    </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R105" s="6"/>
+    </row>
+    <row r="106" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>4</v>
       </c>
@@ -6258,30 +6428,30 @@
       <c r="E106" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F106" s="34">
-        <v>768</v>
-      </c>
-      <c r="G106" s="34">
-        <v>768</v>
-      </c>
-      <c r="H106" s="34">
+      <c r="F106" s="32">
+        <v>768</v>
+      </c>
+      <c r="G106" s="32">
+        <v>768</v>
+      </c>
+      <c r="H106" s="32">
         <v>45</v>
       </c>
-      <c r="I106" s="35">
+      <c r="I106" s="33">
         <v>0.41612413999999998</v>
       </c>
-      <c r="J106" s="35">
+      <c r="J106" s="33">
         <v>0.41612413999999998</v>
       </c>
-      <c r="K106" s="35">
+      <c r="K106" s="33">
         <v>5</v>
       </c>
       <c r="M106" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q106" s="6"/>
-    </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R106" s="6"/>
+    </row>
+    <row r="107" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -6294,30 +6464,30 @@
       <c r="E107" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F107" s="34">
-        <v>768</v>
-      </c>
-      <c r="G107" s="34">
-        <v>768</v>
-      </c>
-      <c r="H107" s="34">
+      <c r="F107" s="32">
+        <v>768</v>
+      </c>
+      <c r="G107" s="32">
+        <v>768</v>
+      </c>
+      <c r="H107" s="32">
         <v>49</v>
       </c>
-      <c r="I107" s="35">
+      <c r="I107" s="33">
         <v>0.37841287000000001</v>
       </c>
-      <c r="J107" s="35">
+      <c r="J107" s="33">
         <v>0.37841287000000001</v>
       </c>
-      <c r="K107" s="35">
+      <c r="K107" s="33">
         <v>5</v>
       </c>
       <c r="M107" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q107" s="6"/>
-    </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R107" s="6"/>
+    </row>
+    <row r="108" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -6330,30 +6500,30 @@
       <c r="E108" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F108" s="34">
-        <v>768</v>
-      </c>
-      <c r="G108" s="34">
-        <v>768</v>
-      </c>
-      <c r="H108" s="34">
+      <c r="F108" s="32">
+        <v>768</v>
+      </c>
+      <c r="G108" s="32">
+        <v>768</v>
+      </c>
+      <c r="H108" s="32">
         <v>53</v>
       </c>
-      <c r="I108" s="35">
+      <c r="I108" s="33">
         <v>0.48114352999999999</v>
       </c>
-      <c r="J108" s="35">
+      <c r="J108" s="33">
         <v>0.48114352999999999</v>
       </c>
-      <c r="K108" s="35">
+      <c r="K108" s="33">
         <v>5</v>
       </c>
       <c r="M108" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q108" s="6"/>
-    </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R108" s="6"/>
+    </row>
+    <row r="109" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -6366,30 +6536,30 @@
       <c r="E109" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F109" s="34">
-        <v>768</v>
-      </c>
-      <c r="G109" s="34">
-        <v>768</v>
-      </c>
-      <c r="H109" s="34">
+      <c r="F109" s="32">
+        <v>768</v>
+      </c>
+      <c r="G109" s="32">
+        <v>768</v>
+      </c>
+      <c r="H109" s="32">
         <v>53</v>
       </c>
-      <c r="I109" s="35">
+      <c r="I109" s="33">
         <v>0.45643615999999998</v>
       </c>
-      <c r="J109" s="35">
+      <c r="J109" s="33">
         <v>0.45643615999999998</v>
       </c>
-      <c r="K109" s="35">
+      <c r="K109" s="33">
         <v>5</v>
       </c>
       <c r="M109" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q109" s="6"/>
-    </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R109" s="6"/>
+    </row>
+    <row r="110" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -6402,30 +6572,30 @@
       <c r="E110" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F110" s="34">
-        <v>768</v>
-      </c>
-      <c r="G110" s="34">
-        <v>768</v>
-      </c>
-      <c r="H110" s="34">
+      <c r="F110" s="32">
+        <v>768</v>
+      </c>
+      <c r="G110" s="32">
+        <v>768</v>
+      </c>
+      <c r="H110" s="32">
         <v>50</v>
       </c>
-      <c r="I110" s="35">
+      <c r="I110" s="33">
         <v>0.48114352999999999</v>
       </c>
-      <c r="J110" s="35">
+      <c r="J110" s="33">
         <v>0.48114352999999999</v>
       </c>
-      <c r="K110" s="35">
+      <c r="K110" s="33">
         <v>5</v>
       </c>
       <c r="M110" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q110" s="6"/>
-    </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R110" s="6"/>
+    </row>
+    <row r="111" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>4</v>
       </c>
@@ -6438,30 +6608,30 @@
       <c r="E111" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F111" s="34">
-        <v>768</v>
-      </c>
-      <c r="G111" s="34">
-        <v>768</v>
-      </c>
-      <c r="H111" s="34">
+      <c r="F111" s="32">
+        <v>768</v>
+      </c>
+      <c r="G111" s="32">
+        <v>768</v>
+      </c>
+      <c r="H111" s="32">
         <v>52</v>
       </c>
-      <c r="I111" s="35">
+      <c r="I111" s="33">
         <v>0.45643615999999998</v>
       </c>
-      <c r="J111" s="35">
+      <c r="J111" s="33">
         <v>0.45643615999999998</v>
       </c>
-      <c r="K111" s="35">
+      <c r="K111" s="33">
         <v>5</v>
       </c>
       <c r="M111" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q111" s="6"/>
-    </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R111" s="6"/>
+    </row>
+    <row r="112" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>4</v>
       </c>
@@ -6474,30 +6644,30 @@
       <c r="E112" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F112" s="34">
-        <v>768</v>
-      </c>
-      <c r="G112" s="34">
-        <v>768</v>
-      </c>
-      <c r="H112" s="34">
+      <c r="F112" s="32">
+        <v>768</v>
+      </c>
+      <c r="G112" s="32">
+        <v>768</v>
+      </c>
+      <c r="H112" s="32">
         <v>45</v>
       </c>
-      <c r="I112" s="35">
+      <c r="I112" s="33">
         <v>0.42132567999999998</v>
       </c>
-      <c r="J112" s="35">
+      <c r="J112" s="33">
         <v>0.42132567999999998</v>
       </c>
-      <c r="K112" s="35">
+      <c r="K112" s="33">
         <v>5</v>
       </c>
       <c r="M112" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q112" s="6"/>
-    </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R112" s="6"/>
+    </row>
+    <row r="113" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>4</v>
       </c>
@@ -6510,30 +6680,30 @@
       <c r="E113" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F113" s="34">
-        <v>768</v>
-      </c>
-      <c r="G113" s="34">
-        <v>768</v>
-      </c>
-      <c r="H113" s="34">
+      <c r="F113" s="32">
+        <v>768</v>
+      </c>
+      <c r="G113" s="32">
+        <v>768</v>
+      </c>
+      <c r="H113" s="32">
         <v>49</v>
       </c>
-      <c r="I113" s="35">
+      <c r="I113" s="33">
         <v>0.38701101999999998</v>
       </c>
-      <c r="J113" s="35">
+      <c r="J113" s="33">
         <v>0.38701101999999998</v>
       </c>
-      <c r="K113" s="35">
+      <c r="K113" s="33">
         <v>4.9999957100000003</v>
       </c>
       <c r="M113" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q113" s="6"/>
-    </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R113" s="6"/>
+    </row>
+    <row r="114" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>4</v>
       </c>
@@ -6546,30 +6716,30 @@
       <c r="E114" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F114" s="34">
-        <v>768</v>
-      </c>
-      <c r="G114" s="34">
-        <v>768</v>
-      </c>
-      <c r="H114" s="34">
+      <c r="F114" s="32">
+        <v>768</v>
+      </c>
+      <c r="G114" s="32">
+        <v>768</v>
+      </c>
+      <c r="H114" s="32">
         <v>45</v>
       </c>
-      <c r="I114" s="35">
+      <c r="I114" s="33">
         <v>0.39921909999999999</v>
       </c>
-      <c r="J114" s="35">
+      <c r="J114" s="33">
         <v>0.39921909999999999</v>
       </c>
-      <c r="K114" s="35">
+      <c r="K114" s="33">
         <v>5</v>
       </c>
       <c r="M114" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q114" s="6"/>
-    </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R114" s="6"/>
+    </row>
+    <row r="115" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>4</v>
       </c>
@@ -6582,30 +6752,30 @@
       <c r="E115" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F115" s="34">
-        <v>768</v>
-      </c>
-      <c r="G115" s="34">
-        <v>768</v>
-      </c>
-      <c r="H115" s="34">
+      <c r="F115" s="32">
+        <v>768</v>
+      </c>
+      <c r="G115" s="32">
+        <v>768</v>
+      </c>
+      <c r="H115" s="32">
         <v>47</v>
       </c>
-      <c r="I115" s="35">
+      <c r="I115" s="33">
         <v>0.45123460999999998</v>
       </c>
-      <c r="J115" s="35">
+      <c r="J115" s="33">
         <v>0.45123460999999998</v>
       </c>
-      <c r="K115" s="35">
+      <c r="K115" s="33">
         <v>5</v>
       </c>
       <c r="M115" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q115" s="6"/>
-    </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R115" s="6"/>
+    </row>
+    <row r="116" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>4</v>
       </c>
@@ -6618,30 +6788,30 @@
       <c r="E116" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F116" s="34">
-        <v>768</v>
-      </c>
-      <c r="G116" s="34">
-        <v>768</v>
-      </c>
-      <c r="H116" s="34">
+      <c r="F116" s="32">
+        <v>768</v>
+      </c>
+      <c r="G116" s="32">
+        <v>768</v>
+      </c>
+      <c r="H116" s="32">
         <v>59</v>
       </c>
-      <c r="I116" s="35">
+      <c r="I116" s="33">
         <v>0.45324445000000002</v>
       </c>
-      <c r="J116" s="35">
+      <c r="J116" s="33">
         <v>0.45324445000000002</v>
       </c>
-      <c r="K116" s="35">
+      <c r="K116" s="33">
         <v>5</v>
       </c>
       <c r="M116" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q116" s="6"/>
-    </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R116" s="6"/>
+    </row>
+    <row r="117" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>4</v>
       </c>
@@ -6654,30 +6824,30 @@
       <c r="E117" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F117" s="34">
-        <v>768</v>
-      </c>
-      <c r="G117" s="34">
-        <v>768</v>
-      </c>
-      <c r="H117" s="34">
+      <c r="F117" s="32">
+        <v>768</v>
+      </c>
+      <c r="G117" s="32">
+        <v>768</v>
+      </c>
+      <c r="H117" s="32">
         <v>44</v>
       </c>
-      <c r="I117" s="35">
+      <c r="I117" s="33">
         <v>0.45643615999999998</v>
       </c>
-      <c r="J117" s="35">
+      <c r="J117" s="33">
         <v>0.45643615999999998</v>
       </c>
-      <c r="K117" s="35">
+      <c r="K117" s="33">
         <v>5</v>
       </c>
       <c r="M117" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q117" s="6"/>
-    </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R117" s="6"/>
+    </row>
+    <row r="118" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>4</v>
       </c>
@@ -6690,30 +6860,30 @@
       <c r="E118" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F118" s="34">
-        <v>768</v>
-      </c>
-      <c r="G118" s="34">
-        <v>768</v>
-      </c>
-      <c r="H118" s="34">
+      <c r="F118" s="32">
+        <v>768</v>
+      </c>
+      <c r="G118" s="32">
+        <v>768</v>
+      </c>
+      <c r="H118" s="32">
         <v>53</v>
       </c>
-      <c r="I118" s="35">
+      <c r="I118" s="33">
         <v>0.47334120000000002</v>
       </c>
-      <c r="J118" s="35">
+      <c r="J118" s="33">
         <v>0.47334120000000002</v>
       </c>
-      <c r="K118" s="35">
+      <c r="K118" s="33">
         <v>5</v>
       </c>
       <c r="M118" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q118" s="6"/>
-    </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R118" s="6"/>
+    </row>
+    <row r="119" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -6726,30 +6896,30 @@
       <c r="E119" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F119" s="34">
-        <v>768</v>
-      </c>
-      <c r="G119" s="34">
-        <v>768</v>
-      </c>
-      <c r="H119" s="34">
+      <c r="F119" s="32">
+        <v>768</v>
+      </c>
+      <c r="G119" s="32">
+        <v>768</v>
+      </c>
+      <c r="H119" s="32">
         <v>53</v>
       </c>
-      <c r="I119" s="35">
+      <c r="I119" s="33">
         <v>0.45383537000000002</v>
       </c>
-      <c r="J119" s="35">
+      <c r="J119" s="33">
         <v>0.45383537000000002</v>
       </c>
-      <c r="K119" s="35">
+      <c r="K119" s="33">
         <v>5</v>
       </c>
       <c r="M119" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q119" s="6"/>
-    </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R119" s="6"/>
+    </row>
+    <row r="120" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -6762,30 +6932,30 @@
       <c r="E120" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F120" s="34">
-        <v>768</v>
-      </c>
-      <c r="G120" s="34">
-        <v>768</v>
-      </c>
-      <c r="H120" s="34">
+      <c r="F120" s="32">
+        <v>768</v>
+      </c>
+      <c r="G120" s="32">
+        <v>768</v>
+      </c>
+      <c r="H120" s="32">
         <v>55</v>
       </c>
-      <c r="I120" s="35">
+      <c r="I120" s="33">
         <v>0.48244389999999998</v>
       </c>
-      <c r="J120" s="35">
+      <c r="J120" s="33">
         <v>0.48244389999999998</v>
       </c>
-      <c r="K120" s="35">
+      <c r="K120" s="33">
         <v>5</v>
       </c>
       <c r="M120" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q120" s="6"/>
-    </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R120" s="6"/>
+    </row>
+    <row r="121" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -6798,30 +6968,30 @@
       <c r="E121" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F121" s="34">
-        <v>768</v>
-      </c>
-      <c r="G121" s="34">
-        <v>768</v>
-      </c>
-      <c r="H121" s="34">
+      <c r="F121" s="32">
+        <v>768</v>
+      </c>
+      <c r="G121" s="32">
+        <v>768</v>
+      </c>
+      <c r="H121" s="32">
         <v>49</v>
       </c>
-      <c r="I121" s="35">
+      <c r="I121" s="33">
         <v>0.48114352999999999</v>
       </c>
-      <c r="J121" s="35">
+      <c r="J121" s="33">
         <v>0.48114352999999999</v>
       </c>
-      <c r="K121" s="35">
+      <c r="K121" s="33">
         <v>5</v>
       </c>
       <c r="M121" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q121" s="6"/>
-    </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R121" s="6"/>
+    </row>
+    <row r="122" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -6834,30 +7004,30 @@
       <c r="E122" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F122" s="34">
-        <v>768</v>
-      </c>
-      <c r="G122" s="34">
-        <v>768</v>
-      </c>
-      <c r="H122" s="34">
+      <c r="F122" s="32">
+        <v>768</v>
+      </c>
+      <c r="G122" s="32">
+        <v>768</v>
+      </c>
+      <c r="H122" s="32">
         <v>49</v>
       </c>
-      <c r="I122" s="35">
+      <c r="I122" s="33">
         <v>0.45253500000000002</v>
       </c>
-      <c r="J122" s="35">
+      <c r="J122" s="33">
         <v>0.45253500000000002</v>
       </c>
-      <c r="K122" s="35">
+      <c r="K122" s="33">
         <v>5</v>
       </c>
       <c r="M122" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q122" s="6"/>
-    </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R122" s="6"/>
+    </row>
+    <row r="123" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>4</v>
       </c>
@@ -6870,30 +7040,30 @@
       <c r="E123" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F123" s="34">
-        <v>768</v>
-      </c>
-      <c r="G123" s="34">
-        <v>768</v>
-      </c>
-      <c r="H123" s="34">
+      <c r="F123" s="32">
+        <v>768</v>
+      </c>
+      <c r="G123" s="32">
+        <v>768</v>
+      </c>
+      <c r="H123" s="32">
         <v>49</v>
       </c>
-      <c r="I123" s="35">
+      <c r="I123" s="33">
         <v>0.44863382000000002</v>
       </c>
-      <c r="J123" s="35">
+      <c r="J123" s="33">
         <v>0.44863382000000002</v>
       </c>
-      <c r="K123" s="35">
+      <c r="K123" s="33">
         <v>5</v>
       </c>
       <c r="M123" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q123" s="6"/>
-    </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R123" s="6"/>
+    </row>
+    <row r="124" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>4</v>
       </c>
@@ -6906,30 +7076,30 @@
       <c r="E124" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F124" s="34">
-        <v>768</v>
-      </c>
-      <c r="G124" s="34">
-        <v>768</v>
-      </c>
-      <c r="H124" s="34">
+      <c r="F124" s="32">
+        <v>768</v>
+      </c>
+      <c r="G124" s="32">
+        <v>768</v>
+      </c>
+      <c r="H124" s="32">
         <v>50</v>
       </c>
-      <c r="I124" s="35">
+      <c r="I124" s="33">
         <v>0.39531790999999999</v>
       </c>
-      <c r="J124" s="35">
+      <c r="J124" s="33">
         <v>0.39531790999999999</v>
       </c>
-      <c r="K124" s="35">
+      <c r="K124" s="33">
         <v>5</v>
       </c>
       <c r="M124" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q124" s="6"/>
-    </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R124" s="6"/>
+    </row>
+    <row r="125" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>4</v>
       </c>
@@ -6942,30 +7112,30 @@
       <c r="E125" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F125" s="34">
-        <v>768</v>
-      </c>
-      <c r="G125" s="34">
-        <v>768</v>
-      </c>
-      <c r="H125" s="34">
+      <c r="F125" s="32">
+        <v>768</v>
+      </c>
+      <c r="G125" s="32">
+        <v>768</v>
+      </c>
+      <c r="H125" s="32">
         <v>48</v>
       </c>
-      <c r="I125" s="35">
+      <c r="I125" s="33">
         <v>0.45513576</v>
       </c>
-      <c r="J125" s="35">
+      <c r="J125" s="33">
         <v>0.45513576</v>
       </c>
-      <c r="K125" s="35">
+      <c r="K125" s="33">
         <v>5</v>
       </c>
       <c r="M125" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q125" s="6"/>
-    </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R125" s="6"/>
+    </row>
+    <row r="126" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>4</v>
       </c>
@@ -6978,30 +7148,30 @@
       <c r="E126" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F126" s="34">
-        <v>768</v>
-      </c>
-      <c r="G126" s="34">
-        <v>768</v>
-      </c>
-      <c r="H126" s="34">
+      <c r="F126" s="32">
+        <v>768</v>
+      </c>
+      <c r="G126" s="32">
+        <v>768</v>
+      </c>
+      <c r="H126" s="32">
         <v>50</v>
       </c>
-      <c r="I126" s="35">
+      <c r="I126" s="33">
         <v>0.40312025000000001</v>
       </c>
-      <c r="J126" s="35">
+      <c r="J126" s="33">
         <v>0.40312025000000001</v>
       </c>
-      <c r="K126" s="35">
+      <c r="K126" s="33">
         <v>5</v>
       </c>
       <c r="M126" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q126" s="6"/>
-    </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R126" s="6"/>
+    </row>
+    <row r="127" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>4</v>
       </c>
@@ -7014,30 +7184,30 @@
       <c r="E127" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F127" s="34">
-        <v>512</v>
-      </c>
-      <c r="G127" s="34">
-        <v>512</v>
-      </c>
-      <c r="H127" s="34">
+      <c r="F127" s="32">
+        <v>512</v>
+      </c>
+      <c r="G127" s="32">
+        <v>512</v>
+      </c>
+      <c r="H127" s="32">
         <v>60</v>
       </c>
-      <c r="I127" s="35">
+      <c r="I127" s="33">
         <v>0.74565994999999996</v>
       </c>
-      <c r="J127" s="35">
+      <c r="J127" s="33">
         <v>0.74566001000000004</v>
       </c>
-      <c r="K127" s="35">
+      <c r="K127" s="33">
         <v>5</v>
       </c>
       <c r="M127" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q127" s="6"/>
-    </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R127" s="6"/>
+    </row>
+    <row r="128" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>4</v>
       </c>
@@ -7050,30 +7220,30 @@
       <c r="E128" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F128" s="34">
-        <v>512</v>
-      </c>
-      <c r="G128" s="34">
-        <v>512</v>
-      </c>
-      <c r="H128" s="34">
+      <c r="F128" s="32">
+        <v>512</v>
+      </c>
+      <c r="G128" s="32">
+        <v>512</v>
+      </c>
+      <c r="H128" s="32">
         <v>52</v>
       </c>
-      <c r="I128" s="35">
+      <c r="I128" s="33">
         <v>0.67044395000000001</v>
       </c>
-      <c r="J128" s="35">
+      <c r="J128" s="33">
         <v>0.67044400999999998</v>
       </c>
-      <c r="K128" s="35">
+      <c r="K128" s="33">
         <v>5</v>
       </c>
       <c r="M128" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q128" s="6"/>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R128" s="6"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>4</v>
       </c>
@@ -7086,30 +7256,30 @@
       <c r="E129" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F129" s="34">
-        <v>512</v>
-      </c>
-      <c r="G129" s="34">
-        <v>512</v>
-      </c>
-      <c r="H129" s="34">
+      <c r="F129" s="32">
+        <v>512</v>
+      </c>
+      <c r="G129" s="32">
+        <v>512</v>
+      </c>
+      <c r="H129" s="32">
         <v>54</v>
       </c>
-      <c r="I129" s="35">
+      <c r="I129" s="33">
         <v>0.70971494999999996</v>
       </c>
-      <c r="J129" s="35">
+      <c r="J129" s="33">
         <v>0.70971501000000004</v>
       </c>
-      <c r="K129" s="35">
+      <c r="K129" s="33">
         <v>5</v>
       </c>
       <c r="M129" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q129" s="6"/>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R129" s="6"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>4</v>
       </c>
@@ -7122,30 +7292,30 @@
       <c r="E130" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F130" s="34">
-        <v>512</v>
-      </c>
-      <c r="G130" s="34">
-        <v>512</v>
-      </c>
-      <c r="H130" s="34">
+      <c r="F130" s="32">
+        <v>512</v>
+      </c>
+      <c r="G130" s="32">
+        <v>512</v>
+      </c>
+      <c r="H130" s="32">
         <v>58</v>
       </c>
-      <c r="I130" s="35">
+      <c r="I130" s="33">
         <v>0.71016192</v>
       </c>
-      <c r="J130" s="35">
+      <c r="J130" s="33">
         <v>0.71016197999999997</v>
       </c>
-      <c r="K130" s="35">
+      <c r="K130" s="33">
         <v>5</v>
       </c>
       <c r="M130" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q130" s="6"/>
-    </row>
-    <row r="131" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R130" s="6"/>
+    </row>
+    <row r="131" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="4" t="s">
         <v>4</v>
@@ -7159,22 +7329,22 @@
       <c r="E131" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F131" s="34">
-        <v>512</v>
-      </c>
-      <c r="G131" s="34">
-        <v>512</v>
-      </c>
-      <c r="H131" s="34">
+      <c r="F131" s="32">
+        <v>512</v>
+      </c>
+      <c r="G131" s="32">
+        <v>512</v>
+      </c>
+      <c r="H131" s="32">
         <v>47</v>
       </c>
-      <c r="I131" s="35">
+      <c r="I131" s="33">
         <v>0.74792892</v>
       </c>
-      <c r="J131" s="35">
+      <c r="J131" s="33">
         <v>0.74792897999999997</v>
       </c>
-      <c r="K131" s="35">
+      <c r="K131" s="33">
         <v>5</v>
       </c>
       <c r="L131" s="3"/>
@@ -7185,9 +7355,10 @@
       <c r="O131" s="6"/>
       <c r="P131" s="6"/>
       <c r="Q131" s="6"/>
-      <c r="R131" s="42"/>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R131" s="6"/>
+      <c r="S131" s="40"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>5</v>
       </c>
@@ -7197,15 +7368,15 @@
       <c r="D132" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="I132" s="35"/>
-      <c r="J132" s="35"/>
-      <c r="K132" s="35"/>
+      <c r="I132" s="33"/>
+      <c r="J132" s="33"/>
+      <c r="K132" s="33"/>
       <c r="M132" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="Q132" s="6"/>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R132" s="6"/>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>5</v>
       </c>
@@ -7218,30 +7389,30 @@
       <c r="E133" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F133" s="34">
-        <v>512</v>
-      </c>
-      <c r="G133" s="34">
-        <v>512</v>
-      </c>
-      <c r="H133" s="34">
+      <c r="F133" s="32">
+        <v>512</v>
+      </c>
+      <c r="G133" s="32">
+        <v>512</v>
+      </c>
+      <c r="H133" s="32">
         <v>519</v>
       </c>
-      <c r="I133" s="35">
+      <c r="I133" s="33">
         <v>0.55859375</v>
       </c>
-      <c r="J133" s="35">
+      <c r="J133" s="33">
         <v>0.55859375</v>
       </c>
-      <c r="K133" s="35">
+      <c r="K133" s="33">
         <v>0.60000008000000005</v>
       </c>
       <c r="M133" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q133" s="6"/>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R133" s="6"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>5</v>
       </c>
@@ -7254,30 +7425,30 @@
       <c r="E134" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F134" s="34">
-        <v>512</v>
-      </c>
-      <c r="G134" s="34">
-        <v>512</v>
-      </c>
-      <c r="H134" s="34">
+      <c r="F134" s="32">
+        <v>512</v>
+      </c>
+      <c r="G134" s="32">
+        <v>512</v>
+      </c>
+      <c r="H134" s="32">
         <v>490</v>
       </c>
-      <c r="I134" s="35">
+      <c r="I134" s="33">
         <v>0.6796875</v>
       </c>
-      <c r="J134" s="35">
+      <c r="J134" s="33">
         <v>0.6796875</v>
       </c>
-      <c r="K134" s="35">
+      <c r="K134" s="33">
         <v>0.60000001999999997</v>
       </c>
       <c r="M134" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q134" s="6"/>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R134" s="6"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>5</v>
       </c>
@@ -7290,30 +7461,30 @@
       <c r="E135" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F135" s="34">
-        <v>512</v>
-      </c>
-      <c r="G135" s="34">
-        <v>512</v>
-      </c>
-      <c r="H135" s="34">
+      <c r="F135" s="32">
+        <v>512</v>
+      </c>
+      <c r="G135" s="32">
+        <v>512</v>
+      </c>
+      <c r="H135" s="32">
         <v>550</v>
       </c>
-      <c r="I135" s="35">
+      <c r="I135" s="33">
         <v>0.63476562000000003</v>
       </c>
-      <c r="J135" s="35">
+      <c r="J135" s="33">
         <v>0.63476562000000003</v>
       </c>
-      <c r="K135" s="35">
+      <c r="K135" s="33">
         <v>0.60000001999999997</v>
       </c>
       <c r="M135" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q135" s="6"/>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R135" s="6"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>5</v>
       </c>
@@ -7326,30 +7497,30 @@
       <c r="E136" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F136" s="34">
-        <v>512</v>
-      </c>
-      <c r="G136" s="34">
-        <v>512</v>
-      </c>
-      <c r="H136" s="34">
+      <c r="F136" s="32">
+        <v>512</v>
+      </c>
+      <c r="G136" s="32">
+        <v>512</v>
+      </c>
+      <c r="H136" s="32">
         <v>488</v>
       </c>
-      <c r="I136" s="35">
+      <c r="I136" s="33">
         <v>0.51757812000000003</v>
       </c>
-      <c r="J136" s="35">
+      <c r="J136" s="33">
         <v>0.51757812000000003</v>
       </c>
-      <c r="K136" s="35">
+      <c r="K136" s="33">
         <v>0.60000014000000002</v>
       </c>
       <c r="M136" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q136" s="6"/>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R136" s="6"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>5</v>
       </c>
@@ -7362,30 +7533,30 @@
       <c r="E137" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F137" s="34">
-        <v>512</v>
-      </c>
-      <c r="G137" s="34">
-        <v>512</v>
-      </c>
-      <c r="H137" s="34">
+      <c r="F137" s="32">
+        <v>512</v>
+      </c>
+      <c r="G137" s="32">
+        <v>512</v>
+      </c>
+      <c r="H137" s="32">
         <v>470</v>
       </c>
-      <c r="I137" s="35">
+      <c r="I137" s="33">
         <v>0.59960937999999997</v>
       </c>
-      <c r="J137" s="35">
+      <c r="J137" s="33">
         <v>0.59960937999999997</v>
       </c>
-      <c r="K137" s="35">
+      <c r="K137" s="33">
         <v>0.60000001999999997</v>
       </c>
       <c r="M137" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q137" s="6"/>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R137" s="6"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>5</v>
       </c>
@@ -7398,30 +7569,30 @@
       <c r="E138" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F138" s="34">
-        <v>512</v>
-      </c>
-      <c r="G138" s="34">
-        <v>512</v>
-      </c>
-      <c r="H138" s="34">
+      <c r="F138" s="32">
+        <v>512</v>
+      </c>
+      <c r="G138" s="32">
+        <v>512</v>
+      </c>
+      <c r="H138" s="32">
         <v>456</v>
       </c>
-      <c r="I138" s="35">
+      <c r="I138" s="33">
         <v>0.54296875</v>
       </c>
-      <c r="J138" s="35">
+      <c r="J138" s="33">
         <v>0.54296875</v>
       </c>
-      <c r="K138" s="35">
+      <c r="K138" s="33">
         <v>0.69999999000000002</v>
       </c>
       <c r="M138" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q138" s="6"/>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R138" s="6"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>5</v>
       </c>
@@ -7434,30 +7605,30 @@
       <c r="E139" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F139" s="34">
-        <v>512</v>
-      </c>
-      <c r="G139" s="34">
-        <v>512</v>
-      </c>
-      <c r="H139" s="34">
+      <c r="F139" s="32">
+        <v>512</v>
+      </c>
+      <c r="G139" s="32">
+        <v>512</v>
+      </c>
+      <c r="H139" s="32">
         <v>468</v>
       </c>
-      <c r="I139" s="35">
+      <c r="I139" s="33">
         <v>0.5625</v>
       </c>
-      <c r="J139" s="35">
+      <c r="J139" s="33">
         <v>0.5625</v>
       </c>
-      <c r="K139" s="35">
+      <c r="K139" s="33">
         <v>0.69999999000000002</v>
       </c>
       <c r="M139" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q139" s="6"/>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R139" s="6"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>5</v>
       </c>
@@ -7470,30 +7641,30 @@
       <c r="E140" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F140" s="34">
-        <v>512</v>
-      </c>
-      <c r="G140" s="34">
-        <v>512</v>
-      </c>
-      <c r="H140" s="34">
+      <c r="F140" s="32">
+        <v>512</v>
+      </c>
+      <c r="G140" s="32">
+        <v>512</v>
+      </c>
+      <c r="H140" s="32">
         <v>475</v>
       </c>
-      <c r="I140" s="35">
+      <c r="I140" s="33">
         <v>0.5546875</v>
       </c>
-      <c r="J140" s="35">
+      <c r="J140" s="33">
         <v>0.5546875</v>
       </c>
-      <c r="K140" s="35">
+      <c r="K140" s="33">
         <v>0.69999999000000002</v>
       </c>
       <c r="M140" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q140" s="6"/>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R140" s="6"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>5</v>
       </c>
@@ -7506,30 +7677,30 @@
       <c r="E141" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F141" s="34">
-        <v>512</v>
-      </c>
-      <c r="G141" s="34">
-        <v>512</v>
-      </c>
-      <c r="H141" s="34">
+      <c r="F141" s="32">
+        <v>512</v>
+      </c>
+      <c r="G141" s="32">
+        <v>512</v>
+      </c>
+      <c r="H141" s="32">
         <v>523</v>
       </c>
-      <c r="I141" s="35">
+      <c r="I141" s="33">
         <v>0.55078125</v>
       </c>
-      <c r="J141" s="35">
+      <c r="J141" s="33">
         <v>0.55078125</v>
       </c>
-      <c r="K141" s="35">
+      <c r="K141" s="33">
         <v>0.60000001999999997</v>
       </c>
       <c r="M141" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q141" s="6"/>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R141" s="6"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>5</v>
       </c>
@@ -7542,30 +7713,30 @@
       <c r="E142" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F142" s="34">
-        <v>512</v>
-      </c>
-      <c r="G142" s="34">
-        <v>512</v>
-      </c>
-      <c r="H142" s="34">
+      <c r="F142" s="32">
+        <v>512</v>
+      </c>
+      <c r="G142" s="32">
+        <v>512</v>
+      </c>
+      <c r="H142" s="32">
         <v>736</v>
       </c>
-      <c r="I142" s="35">
+      <c r="I142" s="33">
         <v>0.53710937999999997</v>
       </c>
-      <c r="J142" s="35">
+      <c r="J142" s="33">
         <v>0.53710937999999997</v>
       </c>
-      <c r="K142" s="35">
+      <c r="K142" s="33">
         <v>0.5</v>
       </c>
       <c r="M142" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q142" s="6"/>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R142" s="6"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>5</v>
       </c>
@@ -7578,30 +7749,30 @@
       <c r="E143" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F143" s="34">
-        <v>512</v>
-      </c>
-      <c r="G143" s="34">
-        <v>512</v>
-      </c>
-      <c r="H143" s="34">
+      <c r="F143" s="32">
+        <v>512</v>
+      </c>
+      <c r="G143" s="32">
+        <v>512</v>
+      </c>
+      <c r="H143" s="32">
         <v>300</v>
       </c>
-      <c r="I143" s="35">
+      <c r="I143" s="33">
         <v>0.5859375</v>
       </c>
-      <c r="J143" s="35">
+      <c r="J143" s="33">
         <v>0.5859375</v>
       </c>
-      <c r="K143" s="35">
+      <c r="K143" s="33">
         <v>7.6254180000000005E-2</v>
       </c>
       <c r="M143" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q143" s="6"/>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R143" s="6"/>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>5</v>
       </c>
@@ -7614,30 +7785,30 @@
       <c r="E144" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F144" s="34">
-        <v>512</v>
-      </c>
-      <c r="G144" s="34">
-        <v>512</v>
-      </c>
-      <c r="H144" s="34">
+      <c r="F144" s="32">
+        <v>512</v>
+      </c>
+      <c r="G144" s="32">
+        <v>512</v>
+      </c>
+      <c r="H144" s="32">
         <v>689</v>
       </c>
-      <c r="I144" s="35">
+      <c r="I144" s="33">
         <v>0.62304687999999997</v>
       </c>
-      <c r="J144" s="35">
+      <c r="J144" s="33">
         <v>0.62304687999999997</v>
       </c>
-      <c r="K144" s="35">
+      <c r="K144" s="33">
         <v>0.5</v>
       </c>
       <c r="M144" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q144" s="6"/>
-    </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R144" s="6"/>
+    </row>
+    <row r="145" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>5</v>
       </c>
@@ -7650,30 +7821,30 @@
       <c r="E145" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F145" s="34">
-        <v>512</v>
-      </c>
-      <c r="G145" s="34">
-        <v>512</v>
-      </c>
-      <c r="H145" s="34">
+      <c r="F145" s="32">
+        <v>512</v>
+      </c>
+      <c r="G145" s="32">
+        <v>512</v>
+      </c>
+      <c r="H145" s="32">
         <v>731</v>
       </c>
-      <c r="I145" s="35">
+      <c r="I145" s="33">
         <v>0.65625</v>
       </c>
-      <c r="J145" s="35">
+      <c r="J145" s="33">
         <v>0.65625</v>
       </c>
-      <c r="K145" s="35">
+      <c r="K145" s="33">
         <v>0.5</v>
       </c>
       <c r="M145" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q145" s="6"/>
-    </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R145" s="6"/>
+    </row>
+    <row r="146" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>5</v>
       </c>
@@ -7686,30 +7857,30 @@
       <c r="E146" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F146" s="34">
-        <v>512</v>
-      </c>
-      <c r="G146" s="34">
-        <v>512</v>
-      </c>
-      <c r="H146" s="34">
+      <c r="F146" s="32">
+        <v>512</v>
+      </c>
+      <c r="G146" s="32">
+        <v>512</v>
+      </c>
+      <c r="H146" s="32">
         <v>761</v>
       </c>
-      <c r="I146" s="35">
+      <c r="I146" s="33">
         <v>0.6640625</v>
       </c>
-      <c r="J146" s="35">
+      <c r="J146" s="33">
         <v>0.6640625</v>
       </c>
-      <c r="K146" s="35">
+      <c r="K146" s="33">
         <v>0.5</v>
       </c>
       <c r="M146" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q146" s="6"/>
-    </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R146" s="6"/>
+    </row>
+    <row r="147" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>5</v>
       </c>
@@ -7719,15 +7890,15 @@
       <c r="D147" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="I147" s="35"/>
-      <c r="J147" s="35"/>
-      <c r="K147" s="35"/>
+      <c r="I147" s="33"/>
+      <c r="J147" s="33"/>
+      <c r="K147" s="33"/>
       <c r="M147" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="Q147" s="6"/>
-    </row>
-    <row r="148" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R147" s="6"/>
+    </row>
+    <row r="148" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>5</v>
       </c>
@@ -7740,30 +7911,30 @@
       <c r="E148" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F148" s="34">
-        <v>512</v>
-      </c>
-      <c r="G148" s="34">
-        <v>512</v>
-      </c>
-      <c r="H148" s="34">
+      <c r="F148" s="32">
+        <v>512</v>
+      </c>
+      <c r="G148" s="32">
+        <v>512</v>
+      </c>
+      <c r="H148" s="32">
         <v>564</v>
       </c>
-      <c r="I148" s="35">
+      <c r="I148" s="33">
         <v>0.50585937999999997</v>
       </c>
-      <c r="J148" s="35">
+      <c r="J148" s="33">
         <v>0.50585937999999997</v>
       </c>
-      <c r="K148" s="35">
+      <c r="K148" s="33">
         <v>0.5</v>
       </c>
       <c r="M148" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q148" s="6"/>
-    </row>
-    <row r="149" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R148" s="6"/>
+    </row>
+    <row r="149" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>5</v>
       </c>
@@ -7776,30 +7947,30 @@
       <c r="E149" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F149" s="34">
-        <v>512</v>
-      </c>
-      <c r="G149" s="34">
-        <v>512</v>
-      </c>
-      <c r="H149" s="34">
+      <c r="F149" s="32">
+        <v>512</v>
+      </c>
+      <c r="G149" s="32">
+        <v>512</v>
+      </c>
+      <c r="H149" s="32">
         <v>633</v>
       </c>
-      <c r="I149" s="35">
+      <c r="I149" s="33">
         <v>0.60546875</v>
       </c>
-      <c r="J149" s="35">
+      <c r="J149" s="33">
         <v>0.60546875</v>
       </c>
-      <c r="K149" s="35">
+      <c r="K149" s="33">
         <v>0.5</v>
       </c>
       <c r="M149" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q149" s="6"/>
-    </row>
-    <row r="150" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R149" s="6"/>
+    </row>
+    <row r="150" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>5</v>
       </c>
@@ -7812,30 +7983,30 @@
       <c r="E150" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F150" s="34">
-        <v>512</v>
-      </c>
-      <c r="G150" s="34">
-        <v>512</v>
-      </c>
-      <c r="H150" s="34">
+      <c r="F150" s="32">
+        <v>512</v>
+      </c>
+      <c r="G150" s="32">
+        <v>512</v>
+      </c>
+      <c r="H150" s="32">
         <v>661</v>
       </c>
-      <c r="I150" s="35">
+      <c r="I150" s="33">
         <v>0.57617187999999997</v>
       </c>
-      <c r="J150" s="35">
+      <c r="J150" s="33">
         <v>0.57617187999999997</v>
       </c>
-      <c r="K150" s="35">
+      <c r="K150" s="33">
         <v>0.5</v>
       </c>
       <c r="M150" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q150" s="6"/>
-    </row>
-    <row r="151" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R150" s="6"/>
+    </row>
+    <row r="151" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>5</v>
       </c>
@@ -7845,15 +8016,15 @@
       <c r="D151" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="I151" s="35"/>
-      <c r="J151" s="35"/>
-      <c r="K151" s="35"/>
+      <c r="I151" s="33"/>
+      <c r="J151" s="33"/>
+      <c r="K151" s="33"/>
       <c r="M151" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="Q151" s="6"/>
-    </row>
-    <row r="152" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R151" s="6"/>
+    </row>
+    <row r="152" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>5</v>
       </c>
@@ -7866,30 +8037,30 @@
       <c r="E152" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F152" s="34">
-        <v>512</v>
-      </c>
-      <c r="G152" s="34">
-        <v>512</v>
-      </c>
-      <c r="H152" s="34">
+      <c r="F152" s="32">
+        <v>512</v>
+      </c>
+      <c r="G152" s="32">
+        <v>512</v>
+      </c>
+      <c r="H152" s="32">
         <v>597</v>
       </c>
-      <c r="I152" s="35">
+      <c r="I152" s="33">
         <v>0.67382812000000003</v>
       </c>
-      <c r="J152" s="35">
+      <c r="J152" s="33">
         <v>0.67382812000000003</v>
       </c>
-      <c r="K152" s="35">
+      <c r="K152" s="33">
         <v>0.5</v>
       </c>
       <c r="M152" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q152" s="6"/>
-    </row>
-    <row r="153" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R152" s="6"/>
+    </row>
+    <row r="153" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>5</v>
       </c>
@@ -7902,30 +8073,30 @@
       <c r="E153" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F153" s="34">
-        <v>512</v>
-      </c>
-      <c r="G153" s="34">
-        <v>512</v>
-      </c>
-      <c r="H153" s="34">
+      <c r="F153" s="32">
+        <v>512</v>
+      </c>
+      <c r="G153" s="32">
+        <v>512</v>
+      </c>
+      <c r="H153" s="32">
         <v>586</v>
       </c>
-      <c r="I153" s="35">
+      <c r="I153" s="33">
         <v>0.50585937999999997</v>
       </c>
-      <c r="J153" s="35">
+      <c r="J153" s="33">
         <v>0.50585937999999997</v>
       </c>
-      <c r="K153" s="35">
+      <c r="K153" s="33">
         <v>0.5</v>
       </c>
       <c r="M153" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q153" s="6"/>
-    </row>
-    <row r="154" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R153" s="6"/>
+    </row>
+    <row r="154" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>5</v>
       </c>
@@ -7938,30 +8109,30 @@
       <c r="E154" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F154" s="34">
-        <v>512</v>
-      </c>
-      <c r="G154" s="34">
-        <v>512</v>
-      </c>
-      <c r="H154" s="34">
+      <c r="F154" s="32">
+        <v>512</v>
+      </c>
+      <c r="G154" s="32">
+        <v>512</v>
+      </c>
+      <c r="H154" s="32">
         <v>628</v>
       </c>
-      <c r="I154" s="35">
+      <c r="I154" s="33">
         <v>0.703125</v>
       </c>
-      <c r="J154" s="35">
+      <c r="J154" s="33">
         <v>0.703125</v>
       </c>
-      <c r="K154" s="35">
+      <c r="K154" s="33">
         <v>0.5</v>
       </c>
       <c r="M154" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q154" s="6"/>
-    </row>
-    <row r="155" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R154" s="6"/>
+    </row>
+    <row r="155" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>5</v>
       </c>
@@ -7974,30 +8145,30 @@
       <c r="E155" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F155" s="34">
-        <v>512</v>
-      </c>
-      <c r="G155" s="34">
-        <v>512</v>
-      </c>
-      <c r="H155" s="34">
+      <c r="F155" s="32">
+        <v>512</v>
+      </c>
+      <c r="G155" s="32">
+        <v>512</v>
+      </c>
+      <c r="H155" s="32">
         <v>640</v>
       </c>
-      <c r="I155" s="35">
+      <c r="I155" s="33">
         <v>0.68359375</v>
       </c>
-      <c r="J155" s="35">
+      <c r="J155" s="33">
         <v>0.68359375</v>
       </c>
-      <c r="K155" s="35">
+      <c r="K155" s="33">
         <v>0.5</v>
       </c>
       <c r="M155" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q155" s="6"/>
-    </row>
-    <row r="156" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R155" s="6"/>
+    </row>
+    <row r="156" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>5</v>
       </c>
@@ -8010,30 +8181,30 @@
       <c r="E156" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F156" s="34">
-        <v>512</v>
-      </c>
-      <c r="G156" s="34">
-        <v>512</v>
-      </c>
-      <c r="H156" s="34">
+      <c r="F156" s="32">
+        <v>512</v>
+      </c>
+      <c r="G156" s="32">
+        <v>512</v>
+      </c>
+      <c r="H156" s="32">
         <v>556</v>
       </c>
-      <c r="I156" s="35">
+      <c r="I156" s="33">
         <v>0.5859375</v>
       </c>
-      <c r="J156" s="35">
+      <c r="J156" s="33">
         <v>0.5859375</v>
       </c>
-      <c r="K156" s="35">
+      <c r="K156" s="33">
         <v>0.5</v>
       </c>
       <c r="M156" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q156" s="6"/>
-    </row>
-    <row r="157" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R156" s="6"/>
+    </row>
+    <row r="157" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>5</v>
       </c>
@@ -8046,30 +8217,30 @@
       <c r="E157" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F157" s="34">
-        <v>512</v>
-      </c>
-      <c r="G157" s="34">
-        <v>512</v>
-      </c>
-      <c r="H157" s="34">
+      <c r="F157" s="32">
+        <v>512</v>
+      </c>
+      <c r="G157" s="32">
+        <v>512</v>
+      </c>
+      <c r="H157" s="32">
         <v>490</v>
       </c>
-      <c r="I157" s="35">
+      <c r="I157" s="33">
         <v>0.51757812000000003</v>
       </c>
-      <c r="J157" s="35">
+      <c r="J157" s="33">
         <v>0.51757812000000003</v>
       </c>
-      <c r="K157" s="35">
+      <c r="K157" s="33">
         <v>0.5</v>
       </c>
       <c r="M157" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q157" s="6"/>
-    </row>
-    <row r="158" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R157" s="6"/>
+    </row>
+    <row r="158" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>5</v>
       </c>
@@ -8082,30 +8253,30 @@
       <c r="E158" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F158" s="34">
-        <v>512</v>
-      </c>
-      <c r="G158" s="34">
-        <v>512</v>
-      </c>
-      <c r="H158" s="34">
+      <c r="F158" s="32">
+        <v>512</v>
+      </c>
+      <c r="G158" s="32">
+        <v>512</v>
+      </c>
+      <c r="H158" s="32">
         <v>526</v>
       </c>
-      <c r="I158" s="35">
+      <c r="I158" s="33">
         <v>0.58203125</v>
       </c>
-      <c r="J158" s="35">
+      <c r="J158" s="33">
         <v>0.58203125</v>
       </c>
-      <c r="K158" s="35">
+      <c r="K158" s="33">
         <v>0.5</v>
       </c>
       <c r="M158" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q158" s="6"/>
-    </row>
-    <row r="159" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R158" s="6"/>
+    </row>
+    <row r="159" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>5</v>
       </c>
@@ -8118,30 +8289,30 @@
       <c r="E159" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F159" s="34">
-        <v>512</v>
-      </c>
-      <c r="G159" s="34">
-        <v>512</v>
-      </c>
-      <c r="H159" s="34">
+      <c r="F159" s="32">
+        <v>512</v>
+      </c>
+      <c r="G159" s="32">
+        <v>512</v>
+      </c>
+      <c r="H159" s="32">
         <v>517</v>
       </c>
-      <c r="I159" s="35">
+      <c r="I159" s="33">
         <v>0.60546875</v>
       </c>
-      <c r="J159" s="35">
+      <c r="J159" s="33">
         <v>0.60546875</v>
       </c>
-      <c r="K159" s="35">
+      <c r="K159" s="33">
         <v>0.5</v>
       </c>
       <c r="M159" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q159" s="6"/>
-    </row>
-    <row r="160" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R159" s="6"/>
+    </row>
+    <row r="160" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>5</v>
       </c>
@@ -8154,30 +8325,30 @@
       <c r="E160" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F160" s="34">
-        <v>512</v>
-      </c>
-      <c r="G160" s="34">
-        <v>512</v>
-      </c>
-      <c r="H160" s="34">
+      <c r="F160" s="32">
+        <v>512</v>
+      </c>
+      <c r="G160" s="32">
+        <v>512</v>
+      </c>
+      <c r="H160" s="32">
         <v>667</v>
       </c>
-      <c r="I160" s="35">
+      <c r="I160" s="33">
         <v>0.71875</v>
       </c>
-      <c r="J160" s="35">
+      <c r="J160" s="33">
         <v>0.71875</v>
       </c>
-      <c r="K160" s="35">
+      <c r="K160" s="33">
         <v>0.5</v>
       </c>
       <c r="M160" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q160" s="6"/>
-    </row>
-    <row r="161" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R160" s="6"/>
+    </row>
+    <row r="161" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>5</v>
       </c>
@@ -8190,30 +8361,30 @@
       <c r="E161" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F161" s="34">
-        <v>512</v>
-      </c>
-      <c r="G161" s="34">
-        <v>512</v>
-      </c>
-      <c r="H161" s="34">
+      <c r="F161" s="32">
+        <v>512</v>
+      </c>
+      <c r="G161" s="32">
+        <v>512</v>
+      </c>
+      <c r="H161" s="32">
         <v>551</v>
       </c>
-      <c r="I161" s="35">
+      <c r="I161" s="33">
         <v>0.64453125</v>
       </c>
-      <c r="J161" s="35">
+      <c r="J161" s="33">
         <v>0.64453125</v>
       </c>
-      <c r="K161" s="35">
+      <c r="K161" s="33">
         <v>0.5</v>
       </c>
       <c r="M161" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q161" s="6"/>
-    </row>
-    <row r="162" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R161" s="6"/>
+    </row>
+    <row r="162" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>5</v>
       </c>
@@ -8226,30 +8397,30 @@
       <c r="E162" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F162" s="34">
-        <v>512</v>
-      </c>
-      <c r="G162" s="34">
-        <v>512</v>
-      </c>
-      <c r="H162" s="34">
+      <c r="F162" s="32">
+        <v>512</v>
+      </c>
+      <c r="G162" s="32">
+        <v>512</v>
+      </c>
+      <c r="H162" s="32">
         <v>591</v>
       </c>
-      <c r="I162" s="35">
+      <c r="I162" s="33">
         <v>0.546875</v>
       </c>
-      <c r="J162" s="35">
+      <c r="J162" s="33">
         <v>0.546875</v>
       </c>
-      <c r="K162" s="35">
+      <c r="K162" s="33">
         <v>0.5</v>
       </c>
       <c r="M162" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q162" s="6"/>
-    </row>
-    <row r="163" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R162" s="6"/>
+    </row>
+    <row r="163" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>5</v>
       </c>
@@ -8262,30 +8433,30 @@
       <c r="E163" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F163" s="34">
-        <v>512</v>
-      </c>
-      <c r="G163" s="34">
-        <v>512</v>
-      </c>
-      <c r="H163" s="34">
+      <c r="F163" s="32">
+        <v>512</v>
+      </c>
+      <c r="G163" s="32">
+        <v>512</v>
+      </c>
+      <c r="H163" s="32">
         <v>560</v>
       </c>
-      <c r="I163" s="35">
+      <c r="I163" s="33">
         <v>0.56640625</v>
       </c>
-      <c r="J163" s="35">
+      <c r="J163" s="33">
         <v>0.56640625</v>
       </c>
-      <c r="K163" s="35">
+      <c r="K163" s="33">
         <v>0.5</v>
       </c>
       <c r="M163" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q163" s="6"/>
-    </row>
-    <row r="164" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R163" s="6"/>
+    </row>
+    <row r="164" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>5</v>
       </c>
@@ -8298,30 +8469,30 @@
       <c r="E164" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F164" s="34">
-        <v>512</v>
-      </c>
-      <c r="G164" s="34">
-        <v>512</v>
-      </c>
-      <c r="H164" s="34">
+      <c r="F164" s="32">
+        <v>512</v>
+      </c>
+      <c r="G164" s="32">
+        <v>512</v>
+      </c>
+      <c r="H164" s="32">
         <v>622</v>
       </c>
-      <c r="I164" s="35">
+      <c r="I164" s="33">
         <v>0.60546875</v>
       </c>
-      <c r="J164" s="35">
+      <c r="J164" s="33">
         <v>0.60546875</v>
       </c>
-      <c r="K164" s="35">
+      <c r="K164" s="33">
         <v>0.5</v>
       </c>
       <c r="M164" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q164" s="6"/>
-    </row>
-    <row r="165" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R164" s="6"/>
+    </row>
+    <row r="165" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>5</v>
       </c>
@@ -8334,30 +8505,30 @@
       <c r="E165" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F165" s="34">
-        <v>512</v>
-      </c>
-      <c r="G165" s="34">
-        <v>512</v>
-      </c>
-      <c r="H165" s="34">
+      <c r="F165" s="32">
+        <v>512</v>
+      </c>
+      <c r="G165" s="32">
+        <v>512</v>
+      </c>
+      <c r="H165" s="32">
         <v>525</v>
       </c>
-      <c r="I165" s="35">
+      <c r="I165" s="33">
         <v>0.68164062000000003</v>
       </c>
-      <c r="J165" s="35">
+      <c r="J165" s="33">
         <v>0.68164062000000003</v>
       </c>
-      <c r="K165" s="35">
+      <c r="K165" s="33">
         <v>0.60000001999999997</v>
       </c>
       <c r="M165" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q165" s="6"/>
-    </row>
-    <row r="166" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R165" s="6"/>
+    </row>
+    <row r="166" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>5</v>
       </c>
@@ -8370,30 +8541,30 @@
       <c r="E166" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F166" s="34">
-        <v>512</v>
-      </c>
-      <c r="G166" s="34">
-        <v>512</v>
-      </c>
-      <c r="H166" s="34">
+      <c r="F166" s="32">
+        <v>512</v>
+      </c>
+      <c r="G166" s="32">
+        <v>512</v>
+      </c>
+      <c r="H166" s="32">
         <v>450</v>
       </c>
-      <c r="I166" s="35">
+      <c r="I166" s="33">
         <v>0.56640625</v>
       </c>
-      <c r="J166" s="35">
+      <c r="J166" s="33">
         <v>0.56640625</v>
       </c>
-      <c r="K166" s="35">
+      <c r="K166" s="33">
         <v>0.60000001999999997</v>
       </c>
       <c r="M166" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q166" s="6"/>
-    </row>
-    <row r="167" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R166" s="6"/>
+    </row>
+    <row r="167" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B167" s="7" t="s">
         <v>5</v>
       </c>
@@ -8406,227 +8577,232 @@
       <c r="E167" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F167" s="34">
-        <v>512</v>
-      </c>
-      <c r="G167" s="34">
-        <v>512</v>
-      </c>
-      <c r="H167" s="34">
+      <c r="F167" s="32">
+        <v>512</v>
+      </c>
+      <c r="G167" s="32">
+        <v>512</v>
+      </c>
+      <c r="H167" s="32">
         <v>425</v>
       </c>
-      <c r="I167" s="35">
+      <c r="I167" s="33">
         <v>0.515625</v>
       </c>
-      <c r="J167" s="35">
+      <c r="J167" s="33">
         <v>0.515625</v>
       </c>
-      <c r="K167" s="35">
+      <c r="K167" s="33">
         <v>0.69999999000000002</v>
       </c>
       <c r="M167" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q167" s="6"/>
+      <c r="R167" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N137:N140 N144 N146 N148 N154 N157 N163 N49 P49 P57 N141:Q143 N164:Q1048576 N158:Q162 N155:Q156 N152:Q153 N149:Q150 N145:Q145 N133:Q136 Q71 N85:P131 Q84:Q131 P72:Q83 N63:Q65 P58:Q62 P66:Q70 N50:Q50 N1:Q48 P51:Q56 N51:O62 N66:O84 R21 R8 R26">
-    <cfRule type="cellIs" dxfId="1" priority="337" operator="equal">
+  <conditionalFormatting sqref="N137:N140 N144 N146 N148 N154 N157 N163 N49 P49:Q49 N141:R143 N164:R1048576 N158:R162 N155:R156 N152:R153 N149:R150 N145:R145 N133:R136 R71 N85:Q131 R84:R131 P66:R70 N50:R50 N51:O62 N66:O84 S21 S8 S26 N1:R48 P51:R56 P57:Q57 P58:R62 N63:R65 P72:R83">
+    <cfRule type="cellIs" dxfId="57" priority="339" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72">
-    <cfRule type="cellIs" dxfId="41" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="266" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73">
-    <cfRule type="cellIs" dxfId="40" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="262" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M3">
-    <cfRule type="cellIs" dxfId="39" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="307" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M7 M9:M48">
-    <cfRule type="cellIs" dxfId="38" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="306" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:M66">
-    <cfRule type="cellIs" dxfId="37" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="298" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M67">
-    <cfRule type="cellIs" dxfId="36" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="294" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M68">
-    <cfRule type="cellIs" dxfId="35" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="293" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M69">
-    <cfRule type="cellIs" dxfId="34" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="290" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M71">
-    <cfRule type="cellIs" dxfId="33" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="282" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M74">
-    <cfRule type="cellIs" dxfId="32" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="280" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M77">
-    <cfRule type="cellIs" dxfId="31" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="278" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M78">
-    <cfRule type="cellIs" dxfId="30" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="276" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M80">
-    <cfRule type="cellIs" dxfId="29" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="274" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M70">
-    <cfRule type="cellIs" dxfId="28" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="270" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="27" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="217" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M75">
-    <cfRule type="cellIs" dxfId="26" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="258" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M76">
-    <cfRule type="cellIs" dxfId="25" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="254" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M79">
-    <cfRule type="cellIs" dxfId="24" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="250" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M81">
-    <cfRule type="cellIs" dxfId="23" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="246" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82">
-    <cfRule type="cellIs" dxfId="22" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="244" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:M84">
-    <cfRule type="cellIs" dxfId="21" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="240" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M91:M131 M85:M89">
-    <cfRule type="cellIs" dxfId="20" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="148" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N147:P147 O146:P146 O148:P148 Q146:Q148 O163:Q163 O157:Q157 O154:Q154 N151:Q151 O144:Q144 O137:Q140 N132:Q132">
-    <cfRule type="cellIs" dxfId="19" priority="140" operator="equal">
+  <conditionalFormatting sqref="N147:Q147 O146:Q146 O148:Q148 R146:R148 O163:R163 O157:R157 O154:R154 N151:R151 O144:R144 O137:R140 N132:R132">
+    <cfRule type="cellIs" dxfId="34" priority="142" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M132">
-    <cfRule type="cellIs" dxfId="18" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="120" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M133">
-    <cfRule type="cellIs" dxfId="17" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="117" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M134:M146 M148:M150 M152:M167">
-    <cfRule type="cellIs" dxfId="16" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="97" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M151">
-    <cfRule type="cellIs" dxfId="15" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="77" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M147">
-    <cfRule type="cellIs" dxfId="14" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="75" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28">
-    <cfRule type="cellIs" dxfId="13" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="54" operator="equal">
       <formula>"oldformat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:M48">
-    <cfRule type="cellIs" dxfId="12" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="53" operator="equal">
       <formula>"oldformat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="11" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="44" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="10" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="42" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M90">
-    <cfRule type="cellIs" dxfId="9" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P84">
-    <cfRule type="cellIs" dxfId="7" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P71">
-    <cfRule type="cellIs" dxfId="6" priority="20" operator="equal">
+  <conditionalFormatting sqref="P71:Q71">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q49">
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+  <conditionalFormatting sqref="R49">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q57">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+  <conditionalFormatting sqref="R57">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O49">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="S14:S16">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14:R16">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="O49">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q84">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ribs_checklist.xlsx
+++ b/ribs_checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIPAG_~1\AppData\Local\Temp\Mxt214\RemoteFiles\133316_2_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIPAG_~1\AppData\Local\Temp\Mxt214\RemoteFiles\66984_3_58\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="121">
   <si>
     <t>Cohort</t>
   </si>
@@ -290,12 +290,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Insp</t>
-  </si>
-  <si>
-    <t>EESupine</t>
-  </si>
-  <si>
     <t>AGING004</t>
   </si>
   <si>
@@ -320,9 +314,6 @@
     <t>DICOMs?</t>
   </si>
   <si>
-    <t>FRC</t>
-  </si>
-  <si>
     <t>DICOM Location</t>
   </si>
   <si>
@@ -333,9 +324,6 @@
   </si>
   <si>
     <t>Expn</t>
-  </si>
-  <si>
-    <t>/eresearch/lung/mpag253/Archive</t>
   </si>
   <si>
     <t>/hpc/mpag253/Torso/segmentation</t>
@@ -404,13 +392,16 @@
     <t>*still very poor, alt directions, lung proximity, threshold?</t>
   </si>
   <si>
-    <t>*very crap</t>
-  </si>
-  <si>
     <t>*11 ribs</t>
   </si>
   <si>
     <t>EEsupine</t>
+  </si>
+  <si>
+    <t>*very crap - fix nifti file</t>
+  </si>
+  <si>
+    <t>OMIT</t>
   </si>
 </sst>
 </file>
@@ -529,7 +520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -662,7 +653,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -670,157 +673,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="58">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="43">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1573,11 +1426,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F74" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="M130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D85" sqref="D85"/>
+      <selection pane="bottomRight" activeCell="A153" sqref="A153:A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,49 +1467,49 @@
         <v>1</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="I1" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="37" t="s">
         <v>112</v>
-      </c>
-      <c r="S1" s="37" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -1670,7 +1523,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F2" s="32">
         <v>768</v>
@@ -1718,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F3" s="32">
         <v>768</v>
@@ -1766,7 +1619,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F4" s="32">
         <v>768</v>
@@ -1808,13 +1661,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F5" s="32">
         <v>768</v>
@@ -1862,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F6" s="32">
         <v>768</v>
@@ -1910,7 +1763,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F7" s="32">
         <v>768</v>
@@ -1952,13 +1805,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F8" s="32">
         <v>768</v>
@@ -2007,7 +1860,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F9" s="32">
         <v>768</v>
@@ -2055,7 +1908,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F10" s="32">
         <v>768</v>
@@ -2103,7 +1956,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F11" s="32">
         <v>768</v>
@@ -2151,7 +2004,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F12" s="32">
         <v>768</v>
@@ -2178,11 +2031,11 @@
         <v>2</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R12" s="6"/>
       <c r="S12" s="46" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2196,7 +2049,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F13" s="32">
         <v>768</v>
@@ -2244,7 +2097,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F14" s="32">
         <v>768</v>
@@ -2293,7 +2146,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F15" s="32">
         <v>768</v>
@@ -2342,7 +2195,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F16" s="32">
         <v>768</v>
@@ -2391,7 +2244,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F17" s="32">
         <v>768</v>
@@ -2439,7 +2292,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F18" s="32">
         <v>768</v>
@@ -2487,7 +2340,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F19" s="32">
         <v>768</v>
@@ -2535,7 +2388,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F20" s="32">
         <v>768</v>
@@ -2583,7 +2436,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F21" s="32">
         <v>768</v>
@@ -2620,7 +2473,7 @@
       </c>
       <c r="R21" s="6"/>
       <c r="S21" s="39" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
@@ -2634,7 +2487,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F22" s="32">
         <v>768</v>
@@ -2682,7 +2535,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F23" s="32">
         <v>768</v>
@@ -2730,7 +2583,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F24" s="32">
         <v>768</v>
@@ -2778,7 +2631,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F25" s="32">
         <v>768</v>
@@ -2826,7 +2679,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F26" s="32">
         <v>768</v>
@@ -2875,7 +2728,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F27" s="32">
         <v>768</v>
@@ -2923,7 +2776,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F28" s="32">
         <v>768</v>
@@ -2967,11 +2820,11 @@
       <c r="C29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>85</v>
+      <c r="D29" s="48" t="s">
+        <v>3</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F29" s="32">
         <v>768</v>
@@ -3014,13 +2867,13 @@
         <v>4</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>3</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F30" s="32">
         <v>768</v>
@@ -3068,7 +2921,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F31" s="32">
         <v>768</v>
@@ -3116,7 +2969,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F32" s="32">
         <v>768</v>
@@ -3164,7 +3017,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F33" s="32">
         <v>768</v>
@@ -3208,11 +3061,11 @@
       <c r="C34" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>85</v>
+      <c r="D34" s="48" t="s">
+        <v>3</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F34" s="32">
         <v>768</v>
@@ -3256,11 +3109,11 @@
       <c r="C35" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>85</v>
+      <c r="D35" s="48" t="s">
+        <v>3</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F35" s="32">
         <v>768</v>
@@ -3308,7 +3161,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F36" s="32">
         <v>768</v>
@@ -3356,7 +3209,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F37" s="32">
         <v>768</v>
@@ -3404,7 +3257,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F38" s="32">
         <v>768</v>
@@ -3452,7 +3305,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F39" s="32">
         <v>768</v>
@@ -3494,13 +3347,13 @@
         <v>4</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>3</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F40" s="32">
         <v>768</v>
@@ -3542,13 +3395,13 @@
         <v>4</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>85</v>
+        <v>89</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>3</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F41" s="32">
         <v>512</v>
@@ -3575,11 +3428,11 @@
         <v>2</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R41" s="6"/>
       <c r="S41" s="46" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -3589,11 +3442,11 @@
       <c r="C42" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>85</v>
+      <c r="D42" s="48" t="s">
+        <v>3</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F42" s="32">
         <v>768</v>
@@ -3637,11 +3490,11 @@
       <c r="C43" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>85</v>
+      <c r="D43" s="48" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F43" s="32">
         <v>768</v>
@@ -3683,13 +3536,13 @@
         <v>4</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>85</v>
+        <v>90</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>3</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F44" s="32">
         <v>512</v>
@@ -3733,11 +3586,11 @@
       <c r="C45" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="17" t="s">
-        <v>85</v>
+      <c r="D45" s="48" t="s">
+        <v>3</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F45" s="32">
         <v>512</v>
@@ -3781,11 +3634,11 @@
       <c r="C46" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="17" t="s">
-        <v>85</v>
+      <c r="D46" s="48" t="s">
+        <v>3</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F46" s="32">
         <v>512</v>
@@ -3829,11 +3682,11 @@
       <c r="C47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="17" t="s">
-        <v>85</v>
+      <c r="D47" s="48" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F47" s="32">
         <v>512</v>
@@ -3879,10 +3732,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F48" s="32">
         <v>512</v>
@@ -3932,7 +3785,7 @@
         <v>3</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F49" s="32">
         <v>512</v>
@@ -3959,11 +3812,11 @@
         <v>2</v>
       </c>
       <c r="O49" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R49" s="20"/>
       <c r="S49" s="46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -3977,7 +3830,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F50" s="32">
         <v>512</v>
@@ -4025,7 +3878,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F51" s="32">
         <v>512</v>
@@ -4062,7 +3915,7 @@
       </c>
       <c r="R51" s="6"/>
       <c r="S51" s="43" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -4076,7 +3929,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F52" s="32">
         <v>512</v>
@@ -4124,7 +3977,7 @@
         <v>3</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F53" s="32">
         <v>512</v>
@@ -4172,7 +4025,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F54" s="32">
         <v>512</v>
@@ -4220,7 +4073,7 @@
         <v>3</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F55" s="32">
         <v>512</v>
@@ -4269,7 +4122,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F56" s="32">
         <v>512</v>
@@ -4318,7 +4171,7 @@
         <v>3</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F57" s="32">
         <v>512</v>
@@ -4368,7 +4221,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F58" s="32">
         <v>512</v>
@@ -4417,7 +4270,7 @@
         <v>3</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F59" s="32">
         <v>512</v>
@@ -4454,7 +4307,7 @@
       </c>
       <c r="R59" s="6"/>
       <c r="S59" s="43" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -4468,7 +4321,7 @@
         <v>3</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F60" s="32">
         <v>512</v>
@@ -4517,7 +4370,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F61" s="32">
         <v>512</v>
@@ -4565,7 +4418,7 @@
         <v>3</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F62" s="32">
         <v>512</v>
@@ -4614,7 +4467,7 @@
         <v>3</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F63" s="32">
         <v>512</v>
@@ -4663,7 +4516,7 @@
         <v>3</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F64" s="32">
         <v>512</v>
@@ -4713,7 +4566,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F65" s="32">
         <v>512</v>
@@ -4762,7 +4615,7 @@
         <v>3</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F66" s="32">
         <v>512</v>
@@ -4810,7 +4663,7 @@
         <v>3</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F67" s="32">
         <v>512</v>
@@ -4858,7 +4711,7 @@
         <v>3</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F68" s="32">
         <v>512</v>
@@ -4906,7 +4759,7 @@
         <v>3</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F69" s="32">
         <v>512</v>
@@ -4954,7 +4807,7 @@
         <v>3</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F70" s="32">
         <v>512</v>
@@ -5002,7 +4855,7 @@
         <v>3</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F71" s="32">
         <v>512</v>
@@ -5050,7 +4903,7 @@
         <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F72" s="32">
         <v>512</v>
@@ -5098,7 +4951,7 @@
         <v>3</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F73" s="32">
         <v>512</v>
@@ -5146,7 +4999,7 @@
         <v>3</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F74" s="32">
         <v>512</v>
@@ -5194,7 +5047,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F75" s="32">
         <v>512</v>
@@ -5242,7 +5095,7 @@
         <v>3</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F76" s="32">
         <v>512</v>
@@ -5290,7 +5143,7 @@
         <v>3</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F77" s="32">
         <v>512</v>
@@ -5338,7 +5191,7 @@
         <v>3</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F78" s="32">
         <v>512</v>
@@ -5386,7 +5239,7 @@
         <v>3</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F79" s="32">
         <v>512</v>
@@ -5434,7 +5287,7 @@
         <v>3</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F80" s="32">
         <v>512</v>
@@ -5482,7 +5335,7 @@
         <v>3</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F81" s="32">
         <v>512</v>
@@ -5530,7 +5383,7 @@
         <v>3</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F82" s="32">
         <v>512</v>
@@ -5579,7 +5432,7 @@
         <v>3</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F83" s="32">
         <v>512</v>
@@ -5617,7 +5470,7 @@
       </c>
       <c r="R83" s="20"/>
       <c r="S83" s="42" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5626,13 +5479,13 @@
         <v>5</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D84" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E84" s="21" t="s">
         <v>97</v>
-      </c>
-      <c r="E84" s="21" t="s">
-        <v>101</v>
       </c>
       <c r="F84" s="34">
         <v>512</v>
@@ -5670,13 +5523,10 @@
       </c>
       <c r="R84" s="3"/>
       <c r="S84" s="40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>1</v>
-      </c>
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -5684,10 +5534,10 @@
         <v>7</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F85" s="32">
         <v>768</v>
@@ -5720,10 +5570,10 @@
         <v>8</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F86" s="32">
         <v>768</v>
@@ -5756,10 +5606,10 @@
         <v>9</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F87" s="32">
         <v>768</v>
@@ -5789,13 +5639,13 @@
         <v>4</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F88" s="32">
         <v>768</v>
@@ -5828,10 +5678,10 @@
         <v>10</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F89" s="32">
         <v>768</v>
@@ -5864,7 +5714,7 @@
         <v>11</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E90" s="8"/>
       <c r="I90" s="33"/>
@@ -5880,13 +5730,13 @@
         <v>4</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F91" s="32">
         <v>768</v>
@@ -5919,10 +5769,10 @@
         <v>12</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F92" s="32">
         <v>768</v>
@@ -5955,10 +5805,10 @@
         <v>13</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F93" s="32">
         <v>768</v>
@@ -5991,10 +5841,10 @@
         <v>14</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F94" s="32">
         <v>768</v>
@@ -6027,10 +5877,10 @@
         <v>15</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F95" s="32">
         <v>768</v>
@@ -6063,10 +5913,10 @@
         <v>16</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F96" s="32">
         <v>768</v>
@@ -6099,10 +5949,10 @@
         <v>17</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F97" s="32">
         <v>768</v>
@@ -6135,10 +5985,10 @@
         <v>18</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F98" s="32">
         <v>768</v>
@@ -6171,10 +6021,10 @@
         <v>19</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F99" s="32">
         <v>768</v>
@@ -6207,10 +6057,10 @@
         <v>20</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F100" s="32">
         <v>768</v>
@@ -6243,10 +6093,10 @@
         <v>21</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F101" s="32">
         <v>768</v>
@@ -6279,10 +6129,10 @@
         <v>22</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F102" s="32">
         <v>768</v>
@@ -6315,10 +6165,10 @@
         <v>23</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F103" s="32">
         <v>768</v>
@@ -6351,10 +6201,10 @@
         <v>24</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F104" s="32">
         <v>768</v>
@@ -6387,10 +6237,10 @@
         <v>25</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F105" s="32">
         <v>768</v>
@@ -6423,10 +6273,10 @@
         <v>26</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F106" s="32">
         <v>768</v>
@@ -6459,10 +6309,10 @@
         <v>27</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F107" s="32">
         <v>768</v>
@@ -6495,10 +6345,10 @@
         <v>28</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F108" s="32">
         <v>768</v>
@@ -6531,10 +6381,10 @@
         <v>29</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F109" s="32">
         <v>768</v>
@@ -6567,10 +6417,10 @@
         <v>30</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F110" s="32">
         <v>768</v>
@@ -6603,10 +6453,10 @@
         <v>31</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F111" s="32">
         <v>768</v>
@@ -6639,10 +6489,10 @@
         <v>32</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F112" s="32">
         <v>768</v>
@@ -6672,13 +6522,13 @@
         <v>4</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F113" s="32">
         <v>768</v>
@@ -6711,10 +6561,10 @@
         <v>33</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F114" s="32">
         <v>768</v>
@@ -6747,10 +6597,10 @@
         <v>34</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F115" s="32">
         <v>768</v>
@@ -6783,10 +6633,10 @@
         <v>35</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F116" s="32">
         <v>768</v>
@@ -6819,10 +6669,10 @@
         <v>36</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F117" s="32">
         <v>768</v>
@@ -6855,10 +6705,10 @@
         <v>37</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F118" s="32">
         <v>768</v>
@@ -6891,10 +6741,10 @@
         <v>42</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E119" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F119" s="32">
         <v>768</v>
@@ -6927,10 +6777,10 @@
         <v>38</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F120" s="32">
         <v>768</v>
@@ -6963,10 +6813,10 @@
         <v>43</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F121" s="32">
         <v>768</v>
@@ -6999,10 +6849,10 @@
         <v>44</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E122" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F122" s="32">
         <v>768</v>
@@ -7032,13 +6882,13 @@
         <v>4</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F123" s="32">
         <v>768</v>
@@ -7068,13 +6918,13 @@
         <v>4</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E124" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F124" s="32">
         <v>768</v>
@@ -7107,10 +6957,10 @@
         <v>45</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F125" s="32">
         <v>768</v>
@@ -7143,10 +6993,10 @@
         <v>46</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F126" s="32">
         <v>768</v>
@@ -7176,13 +7026,13 @@
         <v>4</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F127" s="32">
         <v>512</v>
@@ -7215,10 +7065,10 @@
         <v>39</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F128" s="32">
         <v>512</v>
@@ -7251,10 +7101,10 @@
         <v>40</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F129" s="32">
         <v>512</v>
@@ -7287,10 +7137,10 @@
         <v>47</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F130" s="32">
         <v>512</v>
@@ -7324,10 +7174,10 @@
         <v>41</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F131" s="32">
         <v>512</v>
@@ -7366,13 +7216,13 @@
         <v>48</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="I132" s="33"/>
       <c r="J132" s="33"/>
       <c r="K132" s="33"/>
-      <c r="M132" s="6" t="s">
-        <v>84</v>
+      <c r="M132" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="R132" s="6"/>
     </row>
@@ -7384,10 +7234,10 @@
         <v>49</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
+      </c>
+      <c r="E133" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="F133" s="32">
         <v>512</v>
@@ -7410,6 +7260,9 @@
       <c r="M133" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N133" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R133" s="6"/>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
@@ -7420,10 +7273,10 @@
         <v>50</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
+      </c>
+      <c r="E134" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="F134" s="32">
         <v>512</v>
@@ -7446,6 +7299,9 @@
       <c r="M134" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N134" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R134" s="6"/>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
@@ -7456,10 +7312,10 @@
         <v>51</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
+      </c>
+      <c r="E135" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="F135" s="32">
         <v>512</v>
@@ -7482,6 +7338,9 @@
       <c r="M135" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N135" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R135" s="6"/>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
@@ -7492,10 +7351,10 @@
         <v>52</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
+      </c>
+      <c r="E136" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="F136" s="32">
         <v>512</v>
@@ -7518,6 +7377,9 @@
       <c r="M136" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N136" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R136" s="6"/>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
@@ -7528,10 +7390,10 @@
         <v>53</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E137" s="14" t="s">
-        <v>101</v>
+        <v>118</v>
+      </c>
+      <c r="E137" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="F137" s="32">
         <v>512</v>
@@ -7554,6 +7416,9 @@
       <c r="M137" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N137" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R137" s="6"/>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
@@ -7564,10 +7429,10 @@
         <v>54</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E138" s="14" t="s">
-        <v>101</v>
+        <v>118</v>
+      </c>
+      <c r="E138" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="F138" s="32">
         <v>512</v>
@@ -7590,6 +7455,9 @@
       <c r="M138" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N138" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R138" s="6"/>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
@@ -7600,10 +7468,10 @@
         <v>55</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E139" s="14" t="s">
-        <v>101</v>
+        <v>118</v>
+      </c>
+      <c r="E139" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="F139" s="32">
         <v>512</v>
@@ -7626,6 +7494,9 @@
       <c r="M139" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N139" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R139" s="6"/>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
@@ -7636,10 +7507,10 @@
         <v>56</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E140" s="14" t="s">
-        <v>101</v>
+        <v>118</v>
+      </c>
+      <c r="E140" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="F140" s="32">
         <v>512</v>
@@ -7662,6 +7533,9 @@
       <c r="M140" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N140" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R140" s="6"/>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
@@ -7672,10 +7546,10 @@
         <v>57</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>100</v>
+        <v>118</v>
+      </c>
+      <c r="E141" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="F141" s="32">
         <v>512</v>
@@ -7698,6 +7572,9 @@
       <c r="M141" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N141" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R141" s="6"/>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
@@ -7708,10 +7585,10 @@
         <v>58</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
+      </c>
+      <c r="E142" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="F142" s="32">
         <v>512</v>
@@ -7734,6 +7611,9 @@
       <c r="M142" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N142" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R142" s="6"/>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
@@ -7744,10 +7624,10 @@
         <v>59</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
+      </c>
+      <c r="E143" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="F143" s="32">
         <v>512</v>
@@ -7770,6 +7650,9 @@
       <c r="M143" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N143" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R143" s="6"/>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
@@ -7780,10 +7663,10 @@
         <v>60</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E144" s="14" t="s">
-        <v>101</v>
+        <v>118</v>
+      </c>
+      <c r="E144" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="F144" s="32">
         <v>512</v>
@@ -7806,9 +7689,12 @@
       <c r="M144" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N144" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R144" s="6"/>
     </row>
-    <row r="145" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>5</v>
       </c>
@@ -7816,10 +7702,10 @@
         <v>61</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>100</v>
+        <v>118</v>
+      </c>
+      <c r="E145" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="F145" s="32">
         <v>512</v>
@@ -7842,9 +7728,12 @@
       <c r="M145" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N145" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R145" s="6"/>
     </row>
-    <row r="146" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>5</v>
       </c>
@@ -7852,10 +7741,10 @@
         <v>62</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E146" s="14" t="s">
-        <v>101</v>
+        <v>118</v>
+      </c>
+      <c r="E146" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="F146" s="32">
         <v>512</v>
@@ -7878,27 +7767,54 @@
       <c r="M146" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N146" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R146" s="6"/>
     </row>
-    <row r="147" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>1</v>
+      </c>
       <c r="B147" t="s">
         <v>5</v>
       </c>
-      <c r="C147" s="16" t="s">
+      <c r="C147" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D147" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="I147" s="33"/>
-      <c r="J147" s="33"/>
-      <c r="K147" s="33"/>
+      <c r="D147" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E147" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="F147" s="32">
+        <v>512</v>
+      </c>
+      <c r="G147" s="32">
+        <v>512</v>
+      </c>
+      <c r="H147" s="32">
+        <v>644</v>
+      </c>
+      <c r="I147" s="33">
+        <v>0.5078125</v>
+      </c>
+      <c r="J147" s="33">
+        <v>0.5078125</v>
+      </c>
+      <c r="K147" s="33">
+        <v>0.5</v>
+      </c>
       <c r="M147" s="6" t="s">
-        <v>84</v>
+        <v>2</v>
+      </c>
+      <c r="N147" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="R147" s="6"/>
     </row>
-    <row r="148" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>5</v>
       </c>
@@ -7906,10 +7822,10 @@
         <v>64</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E148" s="14" t="s">
-        <v>101</v>
+        <v>118</v>
+      </c>
+      <c r="E148" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="F148" s="32">
         <v>512</v>
@@ -7932,9 +7848,12 @@
       <c r="M148" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N148" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R148" s="6"/>
     </row>
-    <row r="149" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>5</v>
       </c>
@@ -7942,10 +7861,10 @@
         <v>65</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E149" s="8" t="s">
-        <v>100</v>
+        <v>118</v>
+      </c>
+      <c r="E149" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="F149" s="32">
         <v>512</v>
@@ -7968,9 +7887,12 @@
       <c r="M149" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N149" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R149" s="6"/>
     </row>
-    <row r="150" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>5</v>
       </c>
@@ -7978,10 +7900,10 @@
         <v>66</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
+      </c>
+      <c r="E150" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="F150" s="32">
         <v>512</v>
@@ -8004,9 +7926,12 @@
       <c r="M150" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N150" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R150" s="6"/>
     </row>
-    <row r="151" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>5</v>
       </c>
@@ -8014,8 +7939,9 @@
         <v>67</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>86</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E151" s="51"/>
       <c r="I151" s="33"/>
       <c r="J151" s="33"/>
       <c r="K151" s="33"/>
@@ -8024,7 +7950,7 @@
       </c>
       <c r="R151" s="6"/>
     </row>
-    <row r="152" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>5</v>
       </c>
@@ -8032,10 +7958,10 @@
         <v>68</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
+      </c>
+      <c r="E152" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="F152" s="32">
         <v>512</v>
@@ -8058,9 +7984,12 @@
       <c r="M152" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N152" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R152" s="6"/>
     </row>
-    <row r="153" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>5</v>
       </c>
@@ -8068,10 +7997,10 @@
         <v>69</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
+      </c>
+      <c r="E153" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="F153" s="32">
         <v>512</v>
@@ -8094,20 +8023,23 @@
       <c r="M153" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N153" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R153" s="6"/>
     </row>
-    <row r="154" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>5</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E154" s="14" t="s">
-        <v>101</v>
+      <c r="D154" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E154" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="F154" s="32">
         <v>512</v>
@@ -8130,20 +8062,23 @@
       <c r="M154" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N154" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R154" s="6"/>
     </row>
-    <row r="155" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>5</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>100</v>
+      <c r="D155" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E155" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="F155" s="32">
         <v>512</v>
@@ -8166,20 +8101,23 @@
       <c r="M155" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N155" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R155" s="6"/>
     </row>
-    <row r="156" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>5</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>100</v>
+      <c r="D156" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E156" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="F156" s="32">
         <v>512</v>
@@ -8202,20 +8140,23 @@
       <c r="M156" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N156" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R156" s="6"/>
     </row>
-    <row r="157" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>5</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E157" s="14" t="s">
-        <v>101</v>
+      <c r="D157" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E157" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="F157" s="32">
         <v>512</v>
@@ -8238,20 +8179,23 @@
       <c r="M157" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N157" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R157" s="6"/>
     </row>
-    <row r="158" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>5</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>100</v>
+      <c r="D158" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E158" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="F158" s="32">
         <v>512</v>
@@ -8274,20 +8218,23 @@
       <c r="M158" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N158" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R158" s="6"/>
     </row>
-    <row r="159" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>5</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>100</v>
+      <c r="D159" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E159" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="F159" s="32">
         <v>512</v>
@@ -8310,20 +8257,23 @@
       <c r="M159" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N159" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R159" s="6"/>
     </row>
-    <row r="160" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>5</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>100</v>
+      <c r="D160" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E160" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="F160" s="32">
         <v>512</v>
@@ -8346,6 +8296,9 @@
       <c r="M160" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N160" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R160" s="6"/>
     </row>
     <row r="161" spans="2:18" x14ac:dyDescent="0.25">
@@ -8355,11 +8308,11 @@
       <c r="C161" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>100</v>
+      <c r="D161" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E161" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="F161" s="32">
         <v>512</v>
@@ -8382,6 +8335,9 @@
       <c r="M161" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N161" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R161" s="6"/>
     </row>
     <row r="162" spans="2:18" x14ac:dyDescent="0.25">
@@ -8391,11 +8347,11 @@
       <c r="C162" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>100</v>
+      <c r="D162" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E162" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="F162" s="32">
         <v>512</v>
@@ -8418,6 +8374,9 @@
       <c r="M162" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N162" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R162" s="6"/>
     </row>
     <row r="163" spans="2:18" x14ac:dyDescent="0.25">
@@ -8427,11 +8386,11 @@
       <c r="C163" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E163" s="14" t="s">
-        <v>101</v>
+      <c r="D163" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E163" s="49" t="s">
+        <v>105</v>
       </c>
       <c r="F163" s="32">
         <v>512</v>
@@ -8454,6 +8413,9 @@
       <c r="M163" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N163" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R163" s="6"/>
     </row>
     <row r="164" spans="2:18" x14ac:dyDescent="0.25">
@@ -8464,10 +8426,10 @@
         <v>80</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
+      </c>
+      <c r="E164" s="49" t="s">
+        <v>105</v>
       </c>
       <c r="F164" s="32">
         <v>512</v>
@@ -8490,6 +8452,9 @@
       <c r="M164" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N164" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R164" s="6"/>
     </row>
     <row r="165" spans="2:18" x14ac:dyDescent="0.25">
@@ -8500,10 +8465,10 @@
         <v>81</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
+      </c>
+      <c r="E165" s="49" t="s">
+        <v>105</v>
       </c>
       <c r="F165" s="32">
         <v>512</v>
@@ -8526,6 +8491,9 @@
       <c r="M165" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N165" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R165" s="6"/>
     </row>
     <row r="166" spans="2:18" x14ac:dyDescent="0.25">
@@ -8536,10 +8504,10 @@
         <v>82</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
+      </c>
+      <c r="E166" s="49" t="s">
+        <v>105</v>
       </c>
       <c r="F166" s="32">
         <v>512</v>
@@ -8562,6 +8530,9 @@
       <c r="M166" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N166" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R166" s="6"/>
     </row>
     <row r="167" spans="2:18" x14ac:dyDescent="0.25">
@@ -8569,13 +8540,13 @@
         <v>5</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E167" s="14" t="s">
-        <v>101</v>
+        <v>91</v>
+      </c>
+      <c r="D167" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E167" s="49" t="s">
+        <v>105</v>
       </c>
       <c r="F167" s="32">
         <v>512</v>
@@ -8598,211 +8569,219 @@
       <c r="M167" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="N167" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="R167" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="N137:N140 N144 N146 N148 N154 N157 N163 N49 P49:Q49 N141:R143 N164:R1048576 N158:R162 N155:R156 N152:R153 N149:R150 N145:R145 N133:R136 R71 N85:Q131 R84:R131 P66:R70 N50:R50 N51:O62 N66:O84 S21 S8 S26 N1:R48 P51:R56 P57:Q57 P58:R62 N63:R65 P72:R83">
-    <cfRule type="cellIs" dxfId="57" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="341" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72">
-    <cfRule type="cellIs" dxfId="56" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="268" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73">
-    <cfRule type="cellIs" dxfId="55" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="264" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M3">
-    <cfRule type="cellIs" dxfId="54" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="309" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M7 M9:M48">
-    <cfRule type="cellIs" dxfId="53" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="308" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:M66">
-    <cfRule type="cellIs" dxfId="52" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="300" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M67">
-    <cfRule type="cellIs" dxfId="51" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="296" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M68">
-    <cfRule type="cellIs" dxfId="50" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="295" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M69">
-    <cfRule type="cellIs" dxfId="49" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="292" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M71">
-    <cfRule type="cellIs" dxfId="48" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="284" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M74">
-    <cfRule type="cellIs" dxfId="47" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="282" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M77">
-    <cfRule type="cellIs" dxfId="46" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="280" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M78">
-    <cfRule type="cellIs" dxfId="45" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="278" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M80">
-    <cfRule type="cellIs" dxfId="44" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="276" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M70">
-    <cfRule type="cellIs" dxfId="43" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="272" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="42" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="219" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M75">
-    <cfRule type="cellIs" dxfId="41" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="260" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M76">
-    <cfRule type="cellIs" dxfId="40" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="256" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M79">
-    <cfRule type="cellIs" dxfId="39" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="252" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M81">
-    <cfRule type="cellIs" dxfId="38" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="248" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82">
-    <cfRule type="cellIs" dxfId="37" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="246" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:M84">
-    <cfRule type="cellIs" dxfId="36" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="242" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M91:M131 M85:M89">
-    <cfRule type="cellIs" dxfId="35" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="150" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N147:Q147 O146:Q146 O148:Q148 R146:R148 O163:R163 O157:R157 O154:R154 N151:R151 O144:R144 O137:R140 N132:R132">
-    <cfRule type="cellIs" dxfId="34" priority="142" operator="equal">
+  <conditionalFormatting sqref="O146:R148 O163:R163 O157:R157 O154:R154 N151:R151 O144:R144 O137:R140 N132:R132">
+    <cfRule type="cellIs" dxfId="19" priority="144" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M132">
-    <cfRule type="cellIs" dxfId="33" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="122" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M133">
-    <cfRule type="cellIs" dxfId="32" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="119" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M134:M146 M148:M150 M152:M167">
-    <cfRule type="cellIs" dxfId="31" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="99" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M151">
-    <cfRule type="cellIs" dxfId="30" priority="77" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M147">
-    <cfRule type="cellIs" dxfId="29" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="79" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28">
-    <cfRule type="cellIs" dxfId="28" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="56" operator="equal">
       <formula>"oldformat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:M48">
-    <cfRule type="cellIs" dxfId="27" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="55" operator="equal">
       <formula>"oldformat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="26" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="46" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="25" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="44" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M90">
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="32" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P84">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="25" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P71:Q71">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R49">
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R57">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14:S16">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O49">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q84">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M147">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N147">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ribs_checklist.xlsx
+++ b/ribs_checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIPAG_~1\AppData\Local\Temp\Mxt214\RemoteFiles\66984_3_58\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIPAG_~1\AppData\Local\Temp\Mxt214\RemoteFiles\396406_2_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="120">
   <si>
     <t>Cohort</t>
   </si>
@@ -315,9 +315,6 @@
   </si>
   <si>
     <t>DICOM Location</t>
-  </si>
-  <si>
-    <t>TLC</t>
   </si>
   <si>
     <t>Expn5x5</t>
@@ -673,7 +670,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="42">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -791,16 +788,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1427,10 +1414,10 @@
   <dimension ref="A1:S167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="M130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A153" sqref="A153:A167"/>
+      <selection pane="bottomRight" activeCell="A84" sqref="A3:A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,49 +1457,52 @@
         <v>93</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="31" t="s">
+      <c r="J1" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>101</v>
-      </c>
       <c r="L1" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M1" s="22" t="s">
         <v>92</v>
       </c>
       <c r="N1" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="P1" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="P1" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>108</v>
-      </c>
       <c r="S1" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -1523,7 +1513,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="32">
         <v>768</v>
@@ -1561,6 +1551,9 @@
       <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1571,7 +1564,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="32">
         <v>768</v>
@@ -1609,6 +1602,9 @@
       <c r="R3" s="6"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1619,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F4" s="32">
         <v>768</v>
@@ -1657,6 +1653,9 @@
       <c r="R4" s="6"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -1667,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" s="32">
         <v>768</v>
@@ -1705,6 +1704,9 @@
       <c r="R5" s="6"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -1715,7 +1717,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6" s="32">
         <v>768</v>
@@ -1753,6 +1755,9 @@
       <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -1763,7 +1768,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="32">
         <v>768</v>
@@ -1801,6 +1806,9 @@
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -1811,7 +1819,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" s="32">
         <v>768</v>
@@ -1850,6 +1858,9 @@
       <c r="S8" s="39"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -1860,7 +1871,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F9" s="32">
         <v>768</v>
@@ -1898,6 +1909,9 @@
       <c r="R9" s="6"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
@@ -1908,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" s="32">
         <v>768</v>
@@ -1946,6 +1960,9 @@
       <c r="R10" s="6"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1956,7 +1973,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F11" s="32">
         <v>768</v>
@@ -2004,7 +2021,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" s="32">
         <v>768</v>
@@ -2031,14 +2048,17 @@
         <v>2</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R12" s="6"/>
       <c r="S12" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -2049,7 +2069,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F13" s="32">
         <v>768</v>
@@ -2087,6 +2107,9 @@
       <c r="R13" s="6"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -2097,7 +2120,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F14" s="32">
         <v>768</v>
@@ -2136,6 +2159,9 @@
       <c r="S14" s="42"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -2146,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F15" s="32">
         <v>768</v>
@@ -2185,6 +2211,9 @@
       <c r="S15" s="47"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -2195,7 +2224,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F16" s="32">
         <v>768</v>
@@ -2233,7 +2262,10 @@
       <c r="R16" s="6"/>
       <c r="S16" s="39"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
@@ -2244,7 +2276,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F17" s="32">
         <v>768</v>
@@ -2281,7 +2313,10 @@
       </c>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -2292,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F18" s="32">
         <v>768</v>
@@ -2329,7 +2364,10 @@
       </c>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -2340,7 +2378,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F19" s="32">
         <v>768</v>
@@ -2377,7 +2415,10 @@
       </c>
       <c r="R19" s="6"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -2388,7 +2429,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F20" s="32">
         <v>768</v>
@@ -2425,7 +2466,10 @@
       </c>
       <c r="R20" s="6"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
@@ -2436,7 +2480,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F21" s="32">
         <v>768</v>
@@ -2473,10 +2517,13 @@
       </c>
       <c r="R21" s="6"/>
       <c r="S21" s="39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
@@ -2487,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F22" s="32">
         <v>768</v>
@@ -2524,7 +2571,10 @@
       </c>
       <c r="R22" s="6"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -2535,7 +2585,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F23" s="32">
         <v>768</v>
@@ -2572,7 +2622,10 @@
       </c>
       <c r="R23" s="6"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -2583,7 +2636,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F24" s="32">
         <v>768</v>
@@ -2620,7 +2673,10 @@
       </c>
       <c r="R24" s="6"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -2631,7 +2687,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F25" s="32">
         <v>768</v>
@@ -2668,7 +2724,10 @@
       </c>
       <c r="R25" s="6"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -2679,7 +2738,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F26" s="32">
         <v>768</v>
@@ -2717,7 +2776,10 @@
       <c r="R26" s="6"/>
       <c r="S26" s="39"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
@@ -2728,7 +2790,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F27" s="32">
         <v>768</v>
@@ -2765,7 +2827,10 @@
       </c>
       <c r="R27" s="6"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
@@ -2776,7 +2841,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F28" s="32">
         <v>768</v>
@@ -2813,7 +2878,10 @@
       </c>
       <c r="R28" s="6"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
@@ -2824,7 +2892,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F29" s="32">
         <v>768</v>
@@ -2862,7 +2930,10 @@
       <c r="R29" s="6"/>
       <c r="S29" s="43"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
@@ -2873,7 +2944,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F30" s="32">
         <v>768</v>
@@ -2910,7 +2981,10 @@
       </c>
       <c r="R30" s="6"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
@@ -2921,7 +2995,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F31" s="32">
         <v>768</v>
@@ -2958,7 +3032,10 @@
       </c>
       <c r="R31" s="6"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
@@ -2969,7 +3046,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F32" s="32">
         <v>768</v>
@@ -3007,6 +3084,9 @@
       <c r="R32" s="6"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
       <c r="B33" t="s">
         <v>4</v>
       </c>
@@ -3017,7 +3097,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F33" s="32">
         <v>768</v>
@@ -3055,6 +3135,9 @@
       <c r="R33" s="6"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
@@ -3065,7 +3148,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F34" s="32">
         <v>768</v>
@@ -3103,6 +3186,9 @@
       <c r="R34" s="6"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -3113,7 +3199,7 @@
         <v>3</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F35" s="32">
         <v>768</v>
@@ -3151,6 +3237,9 @@
       <c r="R35" s="6"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -3161,7 +3250,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F36" s="32">
         <v>768</v>
@@ -3199,6 +3288,9 @@
       <c r="R36" s="6"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -3209,7 +3301,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F37" s="32">
         <v>768</v>
@@ -3247,6 +3339,9 @@
       <c r="R37" s="6"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -3257,7 +3352,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F38" s="32">
         <v>768</v>
@@ -3295,6 +3390,9 @@
       <c r="R38" s="6"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
@@ -3305,7 +3403,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F39" s="32">
         <v>768</v>
@@ -3343,6 +3441,9 @@
       <c r="R39" s="6"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
@@ -3353,7 +3454,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F40" s="32">
         <v>768</v>
@@ -3401,7 +3502,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F41" s="32">
         <v>512</v>
@@ -3428,14 +3529,17 @@
         <v>2</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R41" s="6"/>
       <c r="S41" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
@@ -3446,7 +3550,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F42" s="32">
         <v>768</v>
@@ -3484,6 +3588,9 @@
       <c r="R42" s="6"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
@@ -3494,7 +3601,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F43" s="32">
         <v>768</v>
@@ -3532,6 +3639,9 @@
       <c r="R43" s="6"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
@@ -3542,7 +3652,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F44" s="32">
         <v>512</v>
@@ -3580,6 +3690,9 @@
       <c r="R44" s="6"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
       <c r="B45" t="s">
         <v>4</v>
       </c>
@@ -3590,7 +3703,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F45" s="32">
         <v>512</v>
@@ -3628,6 +3741,9 @@
       <c r="R45" s="6"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
@@ -3638,7 +3754,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F46" s="32">
         <v>512</v>
@@ -3676,6 +3792,9 @@
       <c r="R46" s="6"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -3686,7 +3805,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F47" s="32">
         <v>512</v>
@@ -3724,7 +3843,9 @@
       <c r="R47" s="6"/>
     </row>
     <row r="48" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
       <c r="B48" s="4" t="s">
         <v>4</v>
       </c>
@@ -3735,7 +3856,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F48" s="32">
         <v>512</v>
@@ -3785,7 +3906,7 @@
         <v>3</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F49" s="32">
         <v>512</v>
@@ -3812,14 +3933,17 @@
         <v>2</v>
       </c>
       <c r="O49" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R49" s="20"/>
       <c r="S49" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
@@ -3830,7 +3954,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F50" s="32">
         <v>512</v>
@@ -3868,6 +3992,9 @@
       <c r="R50" s="6"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
       <c r="B51" t="s">
         <v>5</v>
       </c>
@@ -3878,7 +4005,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F51" s="32">
         <v>512</v>
@@ -3915,10 +4042,13 @@
       </c>
       <c r="R51" s="6"/>
       <c r="S51" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
       <c r="B52" t="s">
         <v>5</v>
       </c>
@@ -3929,7 +4059,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F52" s="32">
         <v>512</v>
@@ -3967,6 +4097,9 @@
       <c r="R52" s="6"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
@@ -3977,7 +4110,7 @@
         <v>3</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F53" s="32">
         <v>512</v>
@@ -4015,6 +4148,9 @@
       <c r="R53" s="6"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
       <c r="B54" t="s">
         <v>5</v>
       </c>
@@ -4025,7 +4161,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F54" s="32">
         <v>512</v>
@@ -4063,6 +4199,9 @@
       <c r="R54" s="6"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
       <c r="B55" t="s">
         <v>5</v>
       </c>
@@ -4073,7 +4212,7 @@
         <v>3</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F55" s="32">
         <v>512</v>
@@ -4112,6 +4251,9 @@
       <c r="S55" s="43"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
@@ -4122,7 +4264,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F56" s="32">
         <v>512</v>
@@ -4160,7 +4302,9 @@
       <c r="R56" s="6"/>
     </row>
     <row r="57" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
       <c r="B57" s="29" t="s">
         <v>5</v>
       </c>
@@ -4171,7 +4315,7 @@
         <v>3</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F57" s="32">
         <v>512</v>
@@ -4211,6 +4355,9 @@
       <c r="S57" s="44"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
@@ -4221,7 +4368,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F58" s="32">
         <v>512</v>
@@ -4260,6 +4407,9 @@
       <c r="S58" s="43"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
       <c r="B59" t="s">
         <v>5</v>
       </c>
@@ -4270,7 +4420,7 @@
         <v>3</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F59" s="32">
         <v>512</v>
@@ -4307,10 +4457,13 @@
       </c>
       <c r="R59" s="6"/>
       <c r="S59" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
@@ -4321,7 +4474,7 @@
         <v>3</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F60" s="32">
         <v>512</v>
@@ -4360,6 +4513,9 @@
       <c r="S60" s="43"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
       <c r="B61" t="s">
         <v>5</v>
       </c>
@@ -4370,7 +4526,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F61" s="32">
         <v>512</v>
@@ -4408,6 +4564,9 @@
       <c r="R61" s="6"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
@@ -4418,7 +4577,7 @@
         <v>3</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F62" s="32">
         <v>512</v>
@@ -4457,6 +4616,9 @@
       <c r="S62" s="43"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
@@ -4467,7 +4629,7 @@
         <v>3</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F63" s="32">
         <v>512</v>
@@ -4505,7 +4667,9 @@
       <c r="R63" s="6"/>
     </row>
     <row r="64" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
       <c r="B64" s="26" t="s">
         <v>5</v>
       </c>
@@ -4516,7 +4680,7 @@
         <v>3</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F64" s="32">
         <v>512</v>
@@ -4555,7 +4719,10 @@
       <c r="R64" s="23"/>
       <c r="S64" s="41"/>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
       <c r="B65" t="s">
         <v>5</v>
       </c>
@@ -4566,7 +4733,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F65" s="32">
         <v>512</v>
@@ -4604,7 +4771,10 @@
       <c r="R65" s="6"/>
       <c r="S65" s="43"/>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>1</v>
+      </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
@@ -4615,7 +4785,7 @@
         <v>3</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F66" s="32">
         <v>512</v>
@@ -4652,7 +4822,10 @@
       </c>
       <c r="R66" s="6"/>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>1</v>
+      </c>
       <c r="B67" t="s">
         <v>5</v>
       </c>
@@ -4663,7 +4836,7 @@
         <v>3</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F67" s="32">
         <v>512</v>
@@ -4700,7 +4873,10 @@
       </c>
       <c r="R67" s="6"/>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>1</v>
+      </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
@@ -4711,7 +4887,7 @@
         <v>3</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F68" s="32">
         <v>512</v>
@@ -4748,7 +4924,10 @@
       </c>
       <c r="R68" s="6"/>
     </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>1</v>
+      </c>
       <c r="B69" t="s">
         <v>5</v>
       </c>
@@ -4759,7 +4938,7 @@
         <v>3</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F69" s="32">
         <v>512</v>
@@ -4796,7 +4975,10 @@
       </c>
       <c r="R69" s="6"/>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>1</v>
+      </c>
       <c r="B70" t="s">
         <v>5</v>
       </c>
@@ -4807,7 +4989,7 @@
         <v>3</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F70" s="32">
         <v>512</v>
@@ -4844,7 +5026,10 @@
       </c>
       <c r="R70" s="6"/>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>1</v>
+      </c>
       <c r="B71" t="s">
         <v>5</v>
       </c>
@@ -4855,7 +5040,7 @@
         <v>3</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F71" s="32">
         <v>512</v>
@@ -4892,7 +5077,10 @@
       </c>
       <c r="R71" s="6"/>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>1</v>
+      </c>
       <c r="B72" t="s">
         <v>5</v>
       </c>
@@ -4903,7 +5091,7 @@
         <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F72" s="32">
         <v>512</v>
@@ -4940,7 +5128,10 @@
       </c>
       <c r="R72" s="6"/>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>1</v>
+      </c>
       <c r="B73" t="s">
         <v>5</v>
       </c>
@@ -4951,7 +5142,7 @@
         <v>3</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F73" s="32">
         <v>512</v>
@@ -4988,7 +5179,10 @@
       </c>
       <c r="R73" s="6"/>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>1</v>
+      </c>
       <c r="B74" t="s">
         <v>5</v>
       </c>
@@ -4999,7 +5193,7 @@
         <v>3</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F74" s="32">
         <v>512</v>
@@ -5036,7 +5230,10 @@
       </c>
       <c r="R74" s="6"/>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>1</v>
+      </c>
       <c r="B75" t="s">
         <v>5</v>
       </c>
@@ -5047,7 +5244,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F75" s="32">
         <v>512</v>
@@ -5084,7 +5281,10 @@
       </c>
       <c r="R75" s="6"/>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>1</v>
+      </c>
       <c r="B76" t="s">
         <v>5</v>
       </c>
@@ -5095,7 +5295,7 @@
         <v>3</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F76" s="32">
         <v>512</v>
@@ -5132,7 +5332,10 @@
       </c>
       <c r="R76" s="6"/>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>1</v>
+      </c>
       <c r="B77" t="s">
         <v>5</v>
       </c>
@@ -5143,7 +5346,7 @@
         <v>3</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F77" s="32">
         <v>512</v>
@@ -5180,7 +5383,10 @@
       </c>
       <c r="R77" s="6"/>
     </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>1</v>
+      </c>
       <c r="B78" t="s">
         <v>5</v>
       </c>
@@ -5191,7 +5397,7 @@
         <v>3</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F78" s="32">
         <v>512</v>
@@ -5228,7 +5434,10 @@
       </c>
       <c r="R78" s="6"/>
     </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>1</v>
+      </c>
       <c r="B79" t="s">
         <v>5</v>
       </c>
@@ -5239,7 +5448,7 @@
         <v>3</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F79" s="32">
         <v>512</v>
@@ -5276,7 +5485,10 @@
       </c>
       <c r="R79" s="6"/>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>1</v>
+      </c>
       <c r="B80" t="s">
         <v>5</v>
       </c>
@@ -5287,7 +5499,7 @@
         <v>3</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F80" s="32">
         <v>512</v>
@@ -5325,6 +5537,9 @@
       <c r="R80" s="6"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>1</v>
+      </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
@@ -5335,7 +5550,7 @@
         <v>3</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F81" s="32">
         <v>512</v>
@@ -5373,6 +5588,9 @@
       <c r="R81" s="6"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>1</v>
+      </c>
       <c r="B82" t="s">
         <v>5</v>
       </c>
@@ -5383,7 +5601,7 @@
         <v>3</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F82" s="32">
         <v>512</v>
@@ -5421,7 +5639,9 @@
       <c r="R82" s="6"/>
     </row>
     <row r="83" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1">
+        <v>1</v>
+      </c>
       <c r="B83" s="28" t="s">
         <v>5</v>
       </c>
@@ -5432,7 +5652,7 @@
         <v>3</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F83" s="32">
         <v>512</v>
@@ -5470,11 +5690,13 @@
       </c>
       <c r="R83" s="20"/>
       <c r="S83" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
+      <c r="A84" s="1">
+        <v>1</v>
+      </c>
       <c r="B84" s="4" t="s">
         <v>5</v>
       </c>
@@ -5482,10 +5704,10 @@
         <v>91</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F84" s="34">
         <v>512</v>
@@ -5523,7 +5745,7 @@
       </c>
       <c r="R84" s="3"/>
       <c r="S84" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
@@ -5534,10 +5756,10 @@
         <v>7</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F85" s="32">
         <v>768</v>
@@ -5570,10 +5792,10 @@
         <v>8</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F86" s="32">
         <v>768</v>
@@ -5606,10 +5828,10 @@
         <v>9</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F87" s="32">
         <v>768</v>
@@ -5642,10 +5864,10 @@
         <v>85</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F88" s="32">
         <v>768</v>
@@ -5678,10 +5900,10 @@
         <v>10</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F89" s="32">
         <v>768</v>
@@ -5714,7 +5936,7 @@
         <v>11</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E90" s="8"/>
       <c r="I90" s="33"/>
@@ -5733,10 +5955,10 @@
         <v>86</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F91" s="32">
         <v>768</v>
@@ -5769,10 +5991,10 @@
         <v>12</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F92" s="32">
         <v>768</v>
@@ -5805,10 +6027,10 @@
         <v>13</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F93" s="32">
         <v>768</v>
@@ -5841,10 +6063,10 @@
         <v>14</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F94" s="32">
         <v>768</v>
@@ -5877,10 +6099,10 @@
         <v>15</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F95" s="32">
         <v>768</v>
@@ -5913,10 +6135,10 @@
         <v>16</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F96" s="32">
         <v>768</v>
@@ -5949,10 +6171,10 @@
         <v>17</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F97" s="32">
         <v>768</v>
@@ -5985,10 +6207,10 @@
         <v>18</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F98" s="32">
         <v>768</v>
@@ -6021,10 +6243,10 @@
         <v>19</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F99" s="32">
         <v>768</v>
@@ -6057,10 +6279,10 @@
         <v>20</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F100" s="32">
         <v>768</v>
@@ -6093,10 +6315,10 @@
         <v>21</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F101" s="32">
         <v>768</v>
@@ -6129,10 +6351,10 @@
         <v>22</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F102" s="32">
         <v>768</v>
@@ -6165,10 +6387,10 @@
         <v>23</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F103" s="32">
         <v>768</v>
@@ -6201,10 +6423,10 @@
         <v>24</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F104" s="32">
         <v>768</v>
@@ -6237,10 +6459,10 @@
         <v>25</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F105" s="32">
         <v>768</v>
@@ -6273,10 +6495,10 @@
         <v>26</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F106" s="32">
         <v>768</v>
@@ -6309,10 +6531,10 @@
         <v>27</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F107" s="32">
         <v>768</v>
@@ -6345,10 +6567,10 @@
         <v>28</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F108" s="32">
         <v>768</v>
@@ -6381,10 +6603,10 @@
         <v>29</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F109" s="32">
         <v>768</v>
@@ -6417,10 +6639,10 @@
         <v>30</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F110" s="32">
         <v>768</v>
@@ -6453,10 +6675,10 @@
         <v>31</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F111" s="32">
         <v>768</v>
@@ -6489,10 +6711,10 @@
         <v>32</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F112" s="32">
         <v>768</v>
@@ -6525,10 +6747,10 @@
         <v>87</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F113" s="32">
         <v>768</v>
@@ -6561,10 +6783,10 @@
         <v>33</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F114" s="32">
         <v>768</v>
@@ -6597,10 +6819,10 @@
         <v>34</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F115" s="32">
         <v>768</v>
@@ -6633,10 +6855,10 @@
         <v>35</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F116" s="32">
         <v>768</v>
@@ -6669,10 +6891,10 @@
         <v>36</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F117" s="32">
         <v>768</v>
@@ -6705,10 +6927,10 @@
         <v>37</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F118" s="32">
         <v>768</v>
@@ -6741,10 +6963,10 @@
         <v>42</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E119" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F119" s="32">
         <v>768</v>
@@ -6777,10 +6999,10 @@
         <v>38</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F120" s="32">
         <v>768</v>
@@ -6813,10 +7035,10 @@
         <v>43</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F121" s="32">
         <v>768</v>
@@ -6849,10 +7071,10 @@
         <v>44</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E122" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F122" s="32">
         <v>768</v>
@@ -6885,10 +7107,10 @@
         <v>88</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F123" s="32">
         <v>768</v>
@@ -6921,10 +7143,10 @@
         <v>89</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E124" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F124" s="32">
         <v>768</v>
@@ -6957,10 +7179,10 @@
         <v>45</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F125" s="32">
         <v>768</v>
@@ -6993,10 +7215,10 @@
         <v>46</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F126" s="32">
         <v>768</v>
@@ -7029,10 +7251,10 @@
         <v>90</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F127" s="32">
         <v>512</v>
@@ -7065,10 +7287,10 @@
         <v>39</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F128" s="32">
         <v>512</v>
@@ -7101,10 +7323,10 @@
         <v>40</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F129" s="32">
         <v>512</v>
@@ -7137,10 +7359,10 @@
         <v>47</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F130" s="32">
         <v>512</v>
@@ -7174,10 +7396,10 @@
         <v>41</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F131" s="32">
         <v>512</v>
@@ -7216,13 +7438,13 @@
         <v>48</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I132" s="33"/>
       <c r="J132" s="33"/>
       <c r="K132" s="33"/>
       <c r="M132" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R132" s="6"/>
     </row>
@@ -7234,10 +7456,10 @@
         <v>49</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E133" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F133" s="32">
         <v>512</v>
@@ -7273,10 +7495,10 @@
         <v>50</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E134" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F134" s="32">
         <v>512</v>
@@ -7312,10 +7534,10 @@
         <v>51</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E135" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F135" s="32">
         <v>512</v>
@@ -7351,10 +7573,10 @@
         <v>52</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E136" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F136" s="32">
         <v>512</v>
@@ -7390,10 +7612,10 @@
         <v>53</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E137" s="52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F137" s="32">
         <v>512</v>
@@ -7429,10 +7651,10 @@
         <v>54</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E138" s="52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F138" s="32">
         <v>512</v>
@@ -7468,10 +7690,10 @@
         <v>55</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E139" s="52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F139" s="32">
         <v>512</v>
@@ -7507,10 +7729,10 @@
         <v>56</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E140" s="52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F140" s="32">
         <v>512</v>
@@ -7546,10 +7768,10 @@
         <v>57</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E141" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F141" s="32">
         <v>512</v>
@@ -7585,10 +7807,10 @@
         <v>58</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E142" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F142" s="32">
         <v>512</v>
@@ -7624,10 +7846,10 @@
         <v>59</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E143" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F143" s="32">
         <v>512</v>
@@ -7663,10 +7885,10 @@
         <v>60</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E144" s="52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F144" s="32">
         <v>512</v>
@@ -7694,7 +7916,7 @@
       </c>
       <c r="R144" s="6"/>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>5</v>
       </c>
@@ -7702,10 +7924,10 @@
         <v>61</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E145" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F145" s="32">
         <v>512</v>
@@ -7733,7 +7955,7 @@
       </c>
       <c r="R145" s="6"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>5</v>
       </c>
@@ -7741,10 +7963,10 @@
         <v>62</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E146" s="52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F146" s="32">
         <v>512</v>
@@ -7772,10 +7994,7 @@
       </c>
       <c r="R146" s="6"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>1</v>
-      </c>
+    <row r="147" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>5</v>
       </c>
@@ -7783,10 +8002,10 @@
         <v>63</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E147" s="52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F147" s="32">
         <v>512</v>
@@ -7814,7 +8033,7 @@
       </c>
       <c r="R147" s="6"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>5</v>
       </c>
@@ -7822,10 +8041,10 @@
         <v>64</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E148" s="52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F148" s="32">
         <v>512</v>
@@ -7853,7 +8072,7 @@
       </c>
       <c r="R148" s="6"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>5</v>
       </c>
@@ -7861,10 +8080,10 @@
         <v>65</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E149" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F149" s="32">
         <v>512</v>
@@ -7892,7 +8111,7 @@
       </c>
       <c r="R149" s="6"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>5</v>
       </c>
@@ -7900,10 +8119,10 @@
         <v>66</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E150" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F150" s="32">
         <v>512</v>
@@ -7931,7 +8150,7 @@
       </c>
       <c r="R150" s="6"/>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>5</v>
       </c>
@@ -7939,7 +8158,7 @@
         <v>67</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E151" s="51"/>
       <c r="I151" s="33"/>
@@ -7950,7 +8169,7 @@
       </c>
       <c r="R151" s="6"/>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>5</v>
       </c>
@@ -7958,10 +8177,10 @@
         <v>68</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E152" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F152" s="32">
         <v>512</v>
@@ -7989,7 +8208,7 @@
       </c>
       <c r="R152" s="6"/>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>5</v>
       </c>
@@ -7997,10 +8216,10 @@
         <v>69</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E153" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F153" s="32">
         <v>512</v>
@@ -8028,7 +8247,7 @@
       </c>
       <c r="R153" s="6"/>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>5</v>
       </c>
@@ -8036,10 +8255,10 @@
         <v>70</v>
       </c>
       <c r="D154" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E154" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F154" s="32">
         <v>512</v>
@@ -8067,7 +8286,7 @@
       </c>
       <c r="R154" s="6"/>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>5</v>
       </c>
@@ -8075,10 +8294,10 @@
         <v>71</v>
       </c>
       <c r="D155" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E155" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F155" s="32">
         <v>512</v>
@@ -8106,7 +8325,7 @@
       </c>
       <c r="R155" s="6"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>5</v>
       </c>
@@ -8114,10 +8333,10 @@
         <v>72</v>
       </c>
       <c r="D156" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E156" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F156" s="32">
         <v>512</v>
@@ -8145,7 +8364,7 @@
       </c>
       <c r="R156" s="6"/>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>5</v>
       </c>
@@ -8153,10 +8372,10 @@
         <v>73</v>
       </c>
       <c r="D157" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E157" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F157" s="32">
         <v>512</v>
@@ -8184,7 +8403,7 @@
       </c>
       <c r="R157" s="6"/>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>5</v>
       </c>
@@ -8192,10 +8411,10 @@
         <v>74</v>
       </c>
       <c r="D158" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E158" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F158" s="32">
         <v>512</v>
@@ -8223,7 +8442,7 @@
       </c>
       <c r="R158" s="6"/>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>5</v>
       </c>
@@ -8231,10 +8450,10 @@
         <v>75</v>
       </c>
       <c r="D159" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E159" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F159" s="32">
         <v>512</v>
@@ -8262,7 +8481,7 @@
       </c>
       <c r="R159" s="6"/>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>5</v>
       </c>
@@ -8270,10 +8489,10 @@
         <v>76</v>
       </c>
       <c r="D160" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E160" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F160" s="32">
         <v>512</v>
@@ -8309,10 +8528,10 @@
         <v>77</v>
       </c>
       <c r="D161" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E161" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F161" s="32">
         <v>512</v>
@@ -8348,10 +8567,10 @@
         <v>78</v>
       </c>
       <c r="D162" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E162" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F162" s="32">
         <v>512</v>
@@ -8387,10 +8606,10 @@
         <v>79</v>
       </c>
       <c r="D163" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E163" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F163" s="32">
         <v>512</v>
@@ -8426,10 +8645,10 @@
         <v>80</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E164" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F164" s="32">
         <v>512</v>
@@ -8465,10 +8684,10 @@
         <v>81</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E165" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F165" s="32">
         <v>512</v>
@@ -8504,10 +8723,10 @@
         <v>82</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E166" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F166" s="32">
         <v>512</v>
@@ -8543,10 +8762,10 @@
         <v>91</v>
       </c>
       <c r="D167" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E167" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F167" s="32">
         <v>512</v>
@@ -8576,142 +8795,142 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N137:N140 N144 N146 N148 N154 N157 N163 N49 P49:Q49 N141:R143 N164:R1048576 N158:R162 N155:R156 N152:R153 N149:R150 N145:R145 N133:R136 R71 N85:Q131 R84:R131 P66:R70 N50:R50 N51:O62 N66:O84 S21 S8 S26 N1:R48 P51:R56 P57:Q57 P58:R62 N63:R65 P72:R83">
-    <cfRule type="cellIs" dxfId="42" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="341" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72">
-    <cfRule type="cellIs" dxfId="41" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="268" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73">
-    <cfRule type="cellIs" dxfId="40" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="264" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M3">
-    <cfRule type="cellIs" dxfId="39" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="309" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M7 M9:M48">
-    <cfRule type="cellIs" dxfId="38" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="308" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:M66">
-    <cfRule type="cellIs" dxfId="37" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="300" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M67">
-    <cfRule type="cellIs" dxfId="36" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="296" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M68">
-    <cfRule type="cellIs" dxfId="35" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="295" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M69">
-    <cfRule type="cellIs" dxfId="34" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="292" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M71">
-    <cfRule type="cellIs" dxfId="33" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="284" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M74">
-    <cfRule type="cellIs" dxfId="32" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="282" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M77">
-    <cfRule type="cellIs" dxfId="31" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="280" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M78">
-    <cfRule type="cellIs" dxfId="30" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="278" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M80">
-    <cfRule type="cellIs" dxfId="29" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="276" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M70">
-    <cfRule type="cellIs" dxfId="28" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="272" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="27" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="219" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M75">
-    <cfRule type="cellIs" dxfId="26" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="260" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M76">
-    <cfRule type="cellIs" dxfId="25" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="256" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M79">
-    <cfRule type="cellIs" dxfId="24" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="252" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M81">
-    <cfRule type="cellIs" dxfId="23" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="248" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82">
-    <cfRule type="cellIs" dxfId="22" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="246" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83:M84">
-    <cfRule type="cellIs" dxfId="21" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="242" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M91:M131 M85:M89">
-    <cfRule type="cellIs" dxfId="20" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="150" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O146:R148 O163:R163 O157:R157 O154:R154 N151:R151 O144:R144 O137:R140 N132:R132">
-    <cfRule type="cellIs" dxfId="19" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="144" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M132">
-    <cfRule type="cellIs" dxfId="18" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="122" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M133">
-    <cfRule type="cellIs" dxfId="17" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="119" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M134:M146 M148:M150 M152:M167">
-    <cfRule type="cellIs" dxfId="16" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="99" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M151">
-    <cfRule type="cellIs" dxfId="15" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="79" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
